--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="examPrep" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="travelApp" sheetId="3" r:id="rId3"/>
     <sheet name="postApp" sheetId="4" r:id="rId4"/>
     <sheet name="recipeApp" sheetId="5" r:id="rId5"/>
+    <sheet name="gameApp" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="937">
   <si>
     <t>speedApp</t>
   </si>
@@ -13845,6 +13846,944 @@
         <scheme val="minor"/>
       </rPr>
       <t>__(self, message=None):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gameApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utils</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gameApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gameApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mixins</t>
+    </r>
+  </si>
+  <si>
+    <t>from players.models import Player</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('', include('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>common</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/', include('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>players</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urls'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/', include('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urlpatterns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.items():</t>
+    </r>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>What is the flow of steps when the user clicks Create Author's Profile button?</t>
+  </si>
+  <si>
+    <t>User -&gt; Clicks "Create" -&gt;</t>
+  </si>
+  <si>
+    <t>Browser -&gt; Sends POST /author/create/ -&gt;</t>
+  </si>
+  <si>
+    <t>Django -&gt; Validates form -&gt;</t>
+  </si>
+  <si>
+    <t>If valid -&gt; Saves author -&gt; Redirect to success_url</t>
+  </si>
+  <si>
+    <t>If invalid -&gt; Re-renders form with error messages</t>
+  </si>
+  <si>
+    <t>The flow from the moment the user clicks the “Create Author’s Profile” link/button to seeing the empty form rendered in the browser</t>
+  </si>
+  <si>
+    <t>Clicking the “Create Author’s Profile” Link (GET Request Flow)</t>
+  </si>
+  <si>
+    <t>1. User clicks the link</t>
+  </si>
+  <si>
+    <t>This generates a request to the URL /author/create/.</t>
+  </si>
+  <si>
+    <t>2. Browser sends a GET request</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> href="{% url '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create-author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' %}"&gt;Create Author's Profile&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>The browser sends:</t>
+  </si>
+  <si>
+    <t>GET /author/create/ HTTP/1.1</t>
+  </si>
+  <si>
+    <t>No form data is sent.</t>
+  </si>
+  <si>
+    <t>The user just wants the page and form to display.</t>
+  </si>
+  <si>
+    <t>This means:</t>
+  </si>
+  <si>
+    <t>3. Django matches the URL</t>
+  </si>
+  <si>
+    <t>In your urls.py:</t>
+  </si>
+  <si>
+    <t>path('author/', include('authors.urls')),  # main project urls.py</t>
+  </si>
+  <si>
+    <t># authors/urls.py</t>
+  </si>
+  <si>
+    <r>
+      <t>path('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateAuthorView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create-author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Django </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resolves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /author/create/ → CreateAuthorView.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Django executes the view</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    form_class = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AuthorCreateForm</t>
+    </r>
+  </si>
+  <si>
+    <t>Since the request is a GET, CreateView:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instantiates an empty form </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AuthorCreateForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Adds it to the context</t>
+  </si>
+  <si>
+    <t>Renders the template: authors/create-author.html</t>
+  </si>
+  <si>
+    <t>5. Form instantiation and mixin run</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>custom_placeholders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">label </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or field_name.replace('_', ' ').capitalize()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add_placeholders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
     </r>
   </si>
 </sst>
@@ -13852,12 +14791,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14084,6 +15031,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDA7BB9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -14269,21 +15224,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -14298,9 +15253,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14312,10 +15268,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF33CC"/>
       <color rgb="FFA47A20"/>
       <color rgb="FF179A77"/>
       <color rgb="FFA626A4"/>
+      <color rgb="FFDA7BB9"/>
+      <color rgb="FFFF33CC"/>
       <color rgb="FF7D7DFF"/>
     </mruColors>
   </colors>
@@ -14995,8 +15952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K499"/>
   <sheetViews>
-    <sheetView topLeftCell="A484" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B499" sqref="B499"/>
+    <sheetView topLeftCell="A235" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16236,7 +17193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N505"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A235" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
@@ -18116,8 +19073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P530"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254:B257"/>
+    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20175,10 +21132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I596"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A234" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22020,6 +22977,181 @@
     <row r="543" spans="2:2">
       <c r="B543" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="B553" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="B554" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="B555" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="B556" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="B557" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4">
+      <c r="B561" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4">
+      <c r="B563" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="564" spans="2:4">
+      <c r="C564" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="565" spans="2:4">
+      <c r="C565" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="567" spans="2:4">
+      <c r="B567" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="568" spans="2:4">
+      <c r="C568" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="569" spans="2:4">
+      <c r="D569" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="571" spans="2:4">
+      <c r="C571" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="572" spans="2:4">
+      <c r="D572" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="573" spans="2:4">
+      <c r="D573" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="575" spans="2:4">
+      <c r="B575" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="576" spans="2:4">
+      <c r="C576" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="577" spans="2:4">
+      <c r="D577" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="579" spans="2:4">
+      <c r="D579" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="580" spans="2:4">
+      <c r="D580" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="582" spans="2:4">
+      <c r="D582" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="584" spans="2:4">
+      <c r="B584" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="586" spans="2:4">
+      <c r="C586" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="587" spans="2:4">
+      <c r="C587" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="588" spans="2:4">
+      <c r="C588" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="589" spans="2:4">
+      <c r="C589" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="591" spans="2:4">
+      <c r="C591" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="592" spans="2:4">
+      <c r="D592" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="593" spans="2:4">
+      <c r="D593" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="594" spans="2:4">
+      <c r="D594" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4">
+      <c r="B596" t="s">
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -22031,8 +23163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22943,4 +24075,254 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I505"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="34" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="34" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="34" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="34" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" t="s">
+        <v>899</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" t="s">
+        <v>933</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
+        <v>934</v>
+      </c>
+      <c r="I27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
+        <v>935</v>
+      </c>
+      <c r="I28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" t="s">
+        <v>834</v>
+      </c>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="32" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="32" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="32" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="32" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="32" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="32" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1100">
   <si>
     <t>speedApp</t>
   </si>
@@ -14784,6 +14784,4651 @@
         <scheme val="minor"/>
       </rPr>
       <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>players</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>models</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>players</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>players</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>views</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        max_length=60,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        help_text="*Allowed nicknames contain letters and digits.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        error_messages={</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            'unique': "That nickname is already in use!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            'unique': "That email is already registered!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        help_text="*Share your achievements."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        blank=False</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(models.Model):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>players</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NicknameValidator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.CharField(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NicknameValidator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.CharField(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> achievements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.TextField(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  is_pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.BooleanField(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NicknameValidator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        self.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = message or "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nickname must contain only letters and digits!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>from gameApp.utils import get_user_object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_user_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gameApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utils</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_user_object</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IndexView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as_view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index-page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>common</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IndexView</t>
+    </r>
+  </si>
+  <si>
+    <t>from players.forms import PlayerCreateForm, PlayerEditForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    form_class = PlayerCreateForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'players/create-player.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    success_url = reverse_lazy('games-page') # to Games page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'players/details-player.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    context_object_name = 'player'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'players/edit-player.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    success_url = reverse_lazy('details-player')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'players/delete-player.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    success_url = reverse_lazy('index-page')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreatePlayerView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(CreateView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DetailsPlayerView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(DetailView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> get_user_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = self.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top_games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('-level', 'title')[:3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        context['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top_games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top_games</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> context</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerEditView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(UpdateView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    form_class = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerEditForm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerDeleteView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(DeleteView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreatePlayerView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create-player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DetailsPlayerView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>details-player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerEditView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edit-player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerDeleteView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete-player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>players</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>views</t>
+    </r>
+  </si>
+  <si>
+    <t>from gameApp.mixins import PlaceholderMixin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        def __init__(self, *args, **kwargs):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            super().__init__(*args, **kwargs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            # Set custom labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(forms.ModelForm):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerEditForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerCreateForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlaceholderMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        exclude = ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>achievements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>custom_placeholders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': 'Enter your nickname...',</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': 'Enter a valid email...',</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nickname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is_pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Are you a Pro Player?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>achievements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is_pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def __</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__(self, *args, **kwargs):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nickname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>achievements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Achievements:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is_pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Are you a Pro Player?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>models</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>choices</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>views</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forms</t>
+    </r>
+  </si>
+  <si>
+    <t>from django.core.validators import MinLengthValidator, MaxValueValidator, MinValueValidator</t>
+  </si>
+  <si>
+    <t>from games.choices import PlatformChoices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        max_length=130,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        choices=PlatformChoices.choices,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        default=PlatformChoices.OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MinValueValidator(1),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MaxValueValidator(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        to='players.Player',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        related_name='games',</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(models.Model):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    title </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= models.CharField(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    platform </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= models.CharField(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    release_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.DateField()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.SmallIntegerField(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    screenshot_url </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= models.URLField(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.ForeignKey(</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    PC = "PC Games", "PC Games"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSOLE = "Console Games", "Console Games"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OTHER = "Other Games", "Other Games"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlatformChoices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(models.TextChoices):</t>
+    </r>
+  </si>
+  <si>
+    <t>from games.models import Game</t>
+  </si>
+  <si>
+    <t>from django.urls import reverse, reverse_lazy</t>
+  </si>
+  <si>
+    <t>from games.forms import GameCreateForm, GameEditForm, GameDeleteForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    model = Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    form_class = GameCreateForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'games/create-game.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    success_url = reverse_lazy('games-page')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        form.instance.player = get_user_object()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'games/games.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'games/details-game.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    pk_url_kwarg = 'game_pk'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'games/edit-game.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'games/delete-game.html'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Game</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_user_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GamesPageView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ListView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context_object_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('-level', 'title')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = super().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(**kwargs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'] = get_user_object()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameDetailsView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(DetailView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    context_object_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 'game'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    context_object_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">['player'] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_user_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    form_class = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameEditForm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_success_url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>details-game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', kwargs={'game_pk': self.object.pk})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = super().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(**kwargs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameDeleteView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(DeleteView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    form_class = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameDeleteForm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        return self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.form_valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form_invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(self, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self, **kwargs):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">['player'] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_user_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = super().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(**kwargs)</t>
+    </r>
+  </si>
+  <si>
+    <t>какво става тук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    path('&lt;int:game_pk&gt;/', include([</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">games </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">views </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        path('edit/', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PostEditView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edit-game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        path('delete/', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameDeleteView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete-game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        path('details/', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameDetailsView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>details-game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GamesPageView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>games-page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/', views.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PostCreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.as_view(), name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create-game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <t>from gameApp.mixins import PlaceholderMixin, ReadOnlyMixin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        model = Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        exclude = ('player',)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(forms.ModelForm):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameDeleteForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReadOnlyMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameEditForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlaceholderMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameCreateForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlaceholderMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GameBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    custom_placeholders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': 'Enter games title...',</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screenshot_url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': 'Enter screenshot URL...',</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        self.fields['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>platform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = 'Platform:'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        self.fields['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = 'Release Date:'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        self.fields['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = 'Challenge Level:'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        self.fields['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screenshot_url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = 'Screenshot URL:'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = 'Title:'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        super().__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__(*args, **kwargs)  # this calls self.add_placeholders()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].widget = forms.DateInput(attrs={</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Game</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ['title', 'level', 'screenshot_url']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    read_only_fields = ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screenshot_url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Challenge Level:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screenshot_ur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l'].label = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Screenshot URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
     </r>
   </si>
 </sst>
@@ -14791,12 +19436,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15224,21 +19877,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -15253,9 +19906,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15268,11 +19922,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF179A77"/>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FFDA7BB9"/>
       <color rgb="FFA47A20"/>
-      <color rgb="FF179A77"/>
       <color rgb="FFA626A4"/>
-      <color rgb="FFDA7BB9"/>
-      <color rgb="FFFF33CC"/>
       <color rgb="FF7D7DFF"/>
     </mruColors>
   </colors>
@@ -15952,8 +20606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K499"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A322" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A333" sqref="A333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17193,8 +21847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N505"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView topLeftCell="A316" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B334" sqref="B334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19073,8 +23727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P530"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A500" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21132,10 +25786,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I596"/>
+  <dimension ref="A1:I615"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237"/>
+    <sheetView topLeftCell="A513" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B545" sqref="B545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22296,7 +26950,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="2:8">
       <c r="B305" t="s">
         <v>757</v>
       </c>
@@ -22304,12 +26958,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="2:8">
       <c r="B306" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="2:8">
       <c r="B308" t="s">
         <v>758</v>
       </c>
@@ -22317,7 +26971,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="2:8">
       <c r="B309" t="s">
         <v>759</v>
       </c>
@@ -22325,7 +26979,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="2:8">
       <c r="B310" t="s">
         <v>102</v>
       </c>
@@ -22333,824 +26987,824 @@
         <v>784</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="2:8">
       <c r="B311" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="2:8">
       <c r="B312" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="2:8">
       <c r="B313" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
-      <c r="A314" s="10" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="10" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="10" t="s">
+    <row r="345" spans="1:1">
+      <c r="A345" s="10" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
-      <c r="A374" s="10" t="s">
+    <row r="393" spans="1:2">
+      <c r="A393" s="10" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
-      <c r="B375" t="s">
+    <row r="394" spans="1:2">
+      <c r="B394" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
-      <c r="B376" t="s">
+    <row r="395" spans="1:2">
+      <c r="B395" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
-      <c r="B377" t="s">
+    <row r="396" spans="1:2">
+      <c r="B396" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
-      <c r="B378" t="s">
+    <row r="397" spans="1:2">
+      <c r="B397" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
-      <c r="B379" t="s">
+    <row r="398" spans="1:2">
+      <c r="B398" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
-      <c r="B380" t="s">
+    <row r="399" spans="1:2">
+      <c r="B399" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="B382" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="B384" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2">
-      <c r="B385" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="386" spans="2:2">
-      <c r="B386" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="387" spans="2:2">
-      <c r="B387" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2">
-      <c r="B389" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2">
-      <c r="B390" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2">
-      <c r="B391" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="392" spans="2:2">
-      <c r="B392" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2">
-      <c r="B395" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="396" spans="2:2">
-      <c r="B396" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2">
-      <c r="B397" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2">
-      <c r="B398" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2">
-      <c r="B399" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="401" spans="2:2">
       <c r="B401" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="402" spans="2:2">
-      <c r="B402" t="s">
-        <v>783</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="2:2">
       <c r="B403" t="s">
-        <v>114</v>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" t="s">
-        <v>29</v>
+        <v>769</v>
       </c>
     </row>
     <row r="406" spans="2:2">
       <c r="B406" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2">
-      <c r="B407" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="408" spans="2:2">
       <c r="B408" t="s">
-        <v>196</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="411" spans="2:2">
       <c r="B411" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2">
-      <c r="B412" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2">
-      <c r="B413" t="s">
-        <v>773</v>
+        <v>196</v>
       </c>
     </row>
     <row r="414" spans="2:2">
       <c r="B414" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="415" spans="2:2">
       <c r="B415" t="s">
-        <v>786</v>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="417" spans="2:2">
       <c r="B417" t="s">
-        <v>29</v>
+        <v>771</v>
       </c>
     </row>
     <row r="418" spans="2:2">
       <c r="B418" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2">
-      <c r="B419" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="420" spans="2:2">
       <c r="B420" t="s">
-        <v>196</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="422" spans="2:2">
       <c r="B422" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="423" spans="2:2">
-      <c r="B423" t="s">
-        <v>768</v>
+        <v>114</v>
       </c>
     </row>
     <row r="424" spans="2:2">
       <c r="B424" t="s">
-        <v>774</v>
+        <v>29</v>
       </c>
     </row>
     <row r="425" spans="2:2">
       <c r="B425" t="s">
-        <v>775</v>
+        <v>207</v>
       </c>
     </row>
     <row r="426" spans="2:2">
       <c r="B426" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="427" spans="2:2">
       <c r="B427" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="428" spans="2:2">
-      <c r="B428" t="s">
-        <v>789</v>
+        <v>196</v>
       </c>
     </row>
     <row r="430" spans="2:2">
       <c r="B430" t="s">
-        <v>29</v>
+        <v>785</v>
       </c>
     </row>
     <row r="431" spans="2:2">
       <c r="B431" t="s">
-        <v>207</v>
+        <v>768</v>
       </c>
     </row>
     <row r="432" spans="2:2">
       <c r="B432" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="433" spans="2:2">
       <c r="B433" t="s">
-        <v>196</v>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="436" spans="2:2">
       <c r="B436" t="s">
-        <v>790</v>
+        <v>29</v>
       </c>
     </row>
     <row r="437" spans="2:2">
       <c r="B437" t="s">
-        <v>768</v>
+        <v>207</v>
       </c>
     </row>
     <row r="438" spans="2:2">
       <c r="B438" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="439" spans="2:2">
       <c r="B439" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="440" spans="2:2">
-      <c r="B440" t="s">
-        <v>772</v>
+        <v>196</v>
       </c>
     </row>
     <row r="441" spans="2:2">
       <c r="B441" t="s">
-        <v>789</v>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="443" spans="2:2">
       <c r="B443" t="s">
-        <v>184</v>
+        <v>774</v>
       </c>
     </row>
     <row r="444" spans="2:2">
       <c r="B444" t="s">
-        <v>121</v>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="446" spans="2:2">
       <c r="B446" t="s">
-        <v>185</v>
+        <v>772</v>
       </c>
     </row>
     <row r="447" spans="2:2">
       <c r="B447" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="448" spans="2:2">
-      <c r="B448" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
       <c r="B449" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="2:2">
       <c r="B450" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="2:2">
       <c r="B451" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="2:2">
       <c r="B452" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
-      <c r="A460" s="10" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="B461" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
+    <row r="455" spans="2:2">
+      <c r="B455" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
       <c r="B463" t="s">
-        <v>791</v>
+        <v>121</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="B465" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="B466" t="s">
-        <v>796</v>
+        <v>377</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="B467" t="s">
-        <v>795</v>
+        <v>12</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="B468" t="s">
-        <v>797</v>
+        <v>29</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="B469" t="s">
-        <v>794</v>
+        <v>207</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="B470" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="B471" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="B473" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="B474" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" s="10" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="B478" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="B479" t="s">
-        <v>709</v>
+      <c r="A479" s="10" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="B480" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="B482" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="B484" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="B485" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="B486" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="B487" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="B488" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="B489" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="B490" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="B492" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="B493" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2">
+      <c r="B498" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2">
+      <c r="B499" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="481" spans="2:2">
-      <c r="B481" t="s">
+    <row r="500" spans="2:2">
+      <c r="B500" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="484" spans="2:2">
-      <c r="B484" t="s">
+    <row r="503" spans="2:2">
+      <c r="B503" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="485" spans="2:2">
-      <c r="B485" t="s">
+    <row r="504" spans="2:2">
+      <c r="B504" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="486" spans="2:2">
-      <c r="B486" t="s">
+    <row r="505" spans="2:2">
+      <c r="B505" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="487" spans="2:2">
-      <c r="B487" t="s">
+    <row r="506" spans="2:2">
+      <c r="B506" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="490" spans="2:2">
-      <c r="B490" t="s">
+    <row r="509" spans="2:2">
+      <c r="B509" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="491" spans="2:2">
-      <c r="B491" t="s">
+    <row r="510" spans="2:2">
+      <c r="B510" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="492" spans="2:2">
-      <c r="B492" t="s">
+    <row r="511" spans="2:2">
+      <c r="B511" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="493" spans="2:2">
-      <c r="B493" t="s">
+    <row r="512" spans="2:2">
+      <c r="B512" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="494" spans="2:2">
-      <c r="B494" t="s">
+    <row r="513" spans="1:2">
+      <c r="B513" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="496" spans="2:2">
-      <c r="B496" t="s">
+    <row r="515" spans="1:2">
+      <c r="B515" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
-      <c r="B497" t="s">
+    <row r="516" spans="1:2">
+      <c r="B516" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
-      <c r="B499" t="s">
+    <row r="518" spans="1:2">
+      <c r="B518" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
-      <c r="B500" t="s">
+    <row r="519" spans="1:2">
+      <c r="B519" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
-      <c r="B501" t="s">
+    <row r="520" spans="1:2">
+      <c r="B520" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
-      <c r="B502" t="s">
+    <row r="521" spans="1:2">
+      <c r="B521" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
-      <c r="B504" s="31" t="s">
+    <row r="523" spans="1:2">
+      <c r="B523" s="31" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
-      <c r="A505" s="1"/>
-      <c r="B505" t="s">
+    <row r="524" spans="1:2">
+      <c r="A524" s="1"/>
+      <c r="B524" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
-      <c r="B507" t="s">
+    <row r="526" spans="1:2">
+      <c r="B526" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
-      <c r="B508" t="s">
+    <row r="527" spans="1:2">
+      <c r="B527" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
-      <c r="B510" t="s">
+    <row r="529" spans="2:2">
+      <c r="B529" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
-      <c r="B511" t="s">
+    <row r="530" spans="2:2">
+      <c r="B530" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
-      <c r="B512" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="513" spans="2:2">
-      <c r="B513" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="514" spans="2:2">
-      <c r="B514" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="517" spans="2:2">
-      <c r="B517" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="519" spans="2:2">
-      <c r="B519" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="520" spans="2:2">
-      <c r="B520" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="522" spans="2:2">
-      <c r="B522" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="523" spans="2:2">
-      <c r="B523" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="524" spans="2:2">
-      <c r="B524" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="525" spans="2:2">
-      <c r="B525" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="527" spans="2:2">
-      <c r="B527" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="528" spans="2:2">
-      <c r="B528" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="532" spans="2:2">
       <c r="B532" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="534" spans="2:2">
-      <c r="B534" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="535" spans="2:2">
-      <c r="B535" t="s">
-        <v>108</v>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="536" spans="2:2">
       <c r="B536" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="537" spans="2:2">
-      <c r="B537" t="s">
-        <v>597</v>
+        <v>814</v>
       </c>
     </row>
     <row r="538" spans="2:2">
       <c r="B538" t="s">
-        <v>802</v>
+        <v>42</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="540" spans="2:2">
-      <c r="B540" t="s">
-        <v>804</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="542" spans="2:2">
       <c r="B542" t="s">
-        <v>182</v>
+        <v>802</v>
       </c>
     </row>
     <row r="543" spans="2:2">
       <c r="B543" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2">
+      <c r="B544" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
-      <c r="A546" s="3" t="s">
+    <row r="550" spans="2:2">
+      <c r="B550" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2">
+      <c r="B555" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2">
+      <c r="B557" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2">
+      <c r="B558" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2">
+      <c r="B559" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="B561" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="B562" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="3" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
-      <c r="A549" s="3" t="s">
+    <row r="568" spans="1:2">
+      <c r="A568" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
-      <c r="A551" s="3" t="s">
+    <row r="570" spans="1:2">
+      <c r="A570" s="3" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
-      <c r="B553" t="s">
+    <row r="572" spans="1:2">
+      <c r="B572" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
-      <c r="B554" t="s">
+    <row r="573" spans="1:2">
+      <c r="B573" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
-      <c r="B555" t="s">
+    <row r="574" spans="1:2">
+      <c r="B574" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
-      <c r="B556" t="s">
+    <row r="575" spans="1:2">
+      <c r="B575" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
-      <c r="B557" t="s">
+    <row r="576" spans="1:2">
+      <c r="B576" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
-      <c r="A559" s="3" t="s">
+    <row r="578" spans="1:4">
+      <c r="A578" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="561" spans="2:4">
-      <c r="B561" t="s">
+    <row r="580" spans="1:4">
+      <c r="B580" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="563" spans="2:4">
-      <c r="B563" t="s">
+    <row r="582" spans="1:4">
+      <c r="B582" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="564" spans="2:4">
-      <c r="C564" t="s">
+    <row r="583" spans="1:4">
+      <c r="C583" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="565" spans="2:4">
-      <c r="C565" t="s">
+    <row r="584" spans="1:4">
+      <c r="C584" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="567" spans="2:4">
-      <c r="B567" t="s">
+    <row r="586" spans="1:4">
+      <c r="B586" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="568" spans="2:4">
-      <c r="C568" t="s">
+    <row r="587" spans="1:4">
+      <c r="C587" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="569" spans="2:4">
-      <c r="D569" t="s">
+    <row r="588" spans="1:4">
+      <c r="D588" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="571" spans="2:4">
-      <c r="C571" t="s">
+    <row r="590" spans="1:4">
+      <c r="C590" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="572" spans="2:4">
-      <c r="D572" t="s">
+    <row r="591" spans="1:4">
+      <c r="D591" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="573" spans="2:4">
-      <c r="D573" t="s">
+    <row r="592" spans="1:4">
+      <c r="D592" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="575" spans="2:4">
-      <c r="B575" t="s">
+    <row r="594" spans="2:4">
+      <c r="B594" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="576" spans="2:4">
-      <c r="C576" t="s">
+    <row r="595" spans="2:4">
+      <c r="C595" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="577" spans="2:4">
-      <c r="D577" t="s">
+    <row r="596" spans="2:4">
+      <c r="D596" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="579" spans="2:4">
-      <c r="D579" t="s">
+    <row r="598" spans="2:4">
+      <c r="D598" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="580" spans="2:4">
-      <c r="D580" t="s">
+    <row r="599" spans="2:4">
+      <c r="D599" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="582" spans="2:4">
-      <c r="D582" t="s">
+    <row r="601" spans="2:4">
+      <c r="D601" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="584" spans="2:4">
-      <c r="B584" t="s">
+    <row r="603" spans="2:4">
+      <c r="B603" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="586" spans="2:4">
-      <c r="C586" t="s">
+    <row r="605" spans="2:4">
+      <c r="C605" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="587" spans="2:4">
-      <c r="C587" t="s">
+    <row r="606" spans="2:4">
+      <c r="C606" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="588" spans="2:4">
-      <c r="C588" t="s">
+    <row r="607" spans="2:4">
+      <c r="C607" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="589" spans="2:4">
-      <c r="C589" t="s">
+    <row r="608" spans="2:4">
+      <c r="C608" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="591" spans="2:4">
-      <c r="C591" t="s">
+    <row r="610" spans="2:4">
+      <c r="C610" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="592" spans="2:4">
-      <c r="D592" t="s">
+    <row r="611" spans="2:4">
+      <c r="D611" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="593" spans="2:4">
-      <c r="D593" t="s">
+    <row r="612" spans="2:4">
+      <c r="D612" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="594" spans="2:4">
-      <c r="D594" t="s">
+    <row r="613" spans="2:4">
+      <c r="D613" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="596" spans="2:4">
-      <c r="B596" t="s">
+    <row r="615" spans="2:4">
+      <c r="B615" t="s">
         <v>932</v>
       </c>
     </row>
@@ -23163,8 +27817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I505"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A454" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24079,11 +28733,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -24255,72 +28907,1510 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="A39" s="35" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="35" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="35" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="140" spans="1:2">
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+    <row r="163" spans="1:2">
+      <c r="B163" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="B164" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="B167" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="B168" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="35" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="B175" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="B209" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="B210" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="B213" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="B215" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="B216" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="B217" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="B220" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="226" spans="1:2">
+      <c r="B226" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="B227" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="B230" s="35" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="B231" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="B232" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="B233" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="B234" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="B235" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="32" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="32" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="32" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="32" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="32" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" s="32" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" s="1"/>
+    <row r="238" spans="1:2">
+      <c r="B238" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="B239" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="B240" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="35" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="B274" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="B276" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="B277" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="35" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H288" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8">
+      <c r="H289" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8">
+      <c r="B290" s="35" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8">
+      <c r="B291" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8">
+      <c r="B292" t="s">
+        <v>74</v>
+      </c>
+      <c r="H292" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8">
+      <c r="B293" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8">
+      <c r="B294" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8">
+      <c r="B295" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8">
+      <c r="B297" s="35" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8">
+      <c r="B298" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8">
+      <c r="B299" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8">
+      <c r="B300" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8">
+      <c r="B301" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8">
+      <c r="B303" s="35" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="35" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="35" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="35" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="B321" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="B322" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="35" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="B334" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="B337" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="B338" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="B339" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="B340" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="35" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="35" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="B394" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="B395" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="B396" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="B397" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="B398" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="B399" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" s="35" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" s="35" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="35" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="35" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="35" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="35" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" s="35" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="B465" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="B466" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="B468" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="B469" t="s">
+        <v>121</v>
+      </c>
+      <c r="G469" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="B471" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="B472" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="B473" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="B474" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="B475" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="B476" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="B477" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" s="35" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="B481" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="B483" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="B485" s="35" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="B486" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="B487" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="B488" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="B489" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="B490" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="B491" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="B492" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="B493" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="35" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2">
+      <c r="B498" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2">
+      <c r="B499" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2">
+      <c r="B500" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2">
+      <c r="B505" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2">
+      <c r="B506" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2">
+      <c r="B509" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2">
+      <c r="B510" s="35" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2">
+      <c r="B511" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2">
+      <c r="B512" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="B513" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="B515" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="B516" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="B519" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="B520" s="35" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="B521" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="B522" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="B523" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1"/>
+      <c r="B524" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="B528" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="529" spans="2:9">
+      <c r="B529" t="s">
+        <v>602</v>
+      </c>
+      <c r="I529" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="530" spans="2:9">
+      <c r="B530" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="533" spans="2:9">
+      <c r="B533" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="534" spans="2:9">
+      <c r="B534" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="536" spans="2:9">
+      <c r="B536" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="537" spans="2:9">
+      <c r="B537" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="538" spans="2:9">
+      <c r="B538" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="539" spans="2:9">
+      <c r="B539" s="35" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="542" spans="2:9">
+      <c r="B542" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="544" spans="2:9">
+      <c r="B544" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="35" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2">
+      <c r="B549" s="35" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="35" t="s">
+        <v>1099</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="examPrep" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1134">
   <si>
     <t>speedApp</t>
   </si>
@@ -13156,27 +13156,12 @@
     <t xml:space="preserve">    model = Profile</t>
   </si>
   <si>
-    <t xml:space="preserve">    form_class = ProfileCreateForm</t>
-  </si>
-  <si>
     <t xml:space="preserve">    template_name = 'profiles/create-profile.html'</t>
   </si>
   <si>
-    <t xml:space="preserve">    success_url = reverse_lazy('home-page') # to catalogue page</t>
-  </si>
-  <si>
     <t xml:space="preserve">    template_name = 'profiles/details-profile.html'</t>
   </si>
   <si>
-    <t xml:space="preserve">        profile = self.get_object()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        recipes = profile.recipes.all()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        context['recipes_count'] = recipes.count()</t>
-  </si>
-  <si>
     <t xml:space="preserve">    form_class = ProfileEditForm</t>
   </si>
   <si>
@@ -19430,18 +19415,982 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context_object_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>Profile object (2)</t>
+  </si>
+  <si>
+    <r>
+      <t>type -&gt; &lt;class '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;QuerySet []&gt;</t>
+  </si>
+  <si>
+    <t>да се пусне print(recipes) когато има рецепти</t>
+  </si>
+  <si>
+    <t>template_name → The path to the HTML file that should be rendered</t>
+  </si>
+  <si>
+    <t>context_object_name = 'profile' → In the template, the object will be available as profile (so you can do {{ profile.first_name }})</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This class is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Django generic detail view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, used for displaying the details of a single object (in this case, a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>DetailView → A built-in Django class-based view that shows one object from the database (like one user, one recipe, etc.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7D7DFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normally, a DetailView automatically finds an object based on the pk or slug in the URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — like /profile/1/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">But here, you’re </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7D7DFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overriding that logic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Instead of fetching a profile by URL parameter, this method calls a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7D7DFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>helper function get_user_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get_user_object() returns the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the current logged-in user</t>
+    </r>
+  </si>
+  <si>
+    <t>The main object (the Profile instance)</t>
+  </si>
+  <si>
+    <t>The same object, but named according to context_object_name</t>
+  </si>
+  <si>
+    <t>The DetailsProfileView instance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_objec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t() is called before </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>the parent super().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() — this provides the base context (including the profile object)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">['recipes_count'] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, queryset=None):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    form_class =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ProfileCreateForm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    success_url = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reverse_lazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('home-page') # to catalogue page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile: Profile object (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile: Profile object (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profiles.views.DetailsProfileView object at 0x000000000471D160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'object': &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile: Profile object (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile: Profile object (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;, 'view': &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profiles.views.DetailsProfileView object at 0x00000000046F5D00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipes_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': 0}</t>
+    </r>
+  </si>
+  <si>
+    <t>overriding the  get_context_data() method</t>
+  </si>
+  <si>
+    <t>HTTP request</t>
+  </si>
+  <si>
+    <t>.as_view() -&gt; .dispatch() -&gt; .get()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ↓</t>
+  </si>
+  <si>
+    <t>get_object()          ← fetches the Profile</t>
+  </si>
+  <si>
+    <t>get_context_data()    ← builds context dict (adds recipes_count, etc.)</t>
+  </si>
+  <si>
+    <t>render_to_response()  ← returns rendered HTML page</t>
+  </si>
+  <si>
+    <t>Detail view flow</t>
+  </si>
+  <si>
+    <t>def get(self, request, *args, **kwargs):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.object = self.get_object()       # &lt;— called first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    context = self.get_context_data(object=self.object)  # &lt;— then this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.render_to_response(context)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19692,6 +20641,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7D7DFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -19877,21 +20849,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -19906,14 +20878,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19922,12 +20896,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA47A20"/>
+      <color rgb="FF7D7DFF"/>
       <color rgb="FF179A77"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FFDA7BB9"/>
-      <color rgb="FFA47A20"/>
       <color rgb="FFA626A4"/>
-      <color rgb="FF7D7DFF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -20319,6 +21293,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36786</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>31531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31531</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>5255</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1255986" y="36265945"/>
+          <a:ext cx="3042745" cy="1077310"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22568,7 +23594,7 @@
     </row>
     <row r="191" spans="2:14">
       <c r="B191" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G191" t="s">
         <v>262</v>
@@ -27635,132 +28661,132 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="3" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="B572" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="B573" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="B574" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="B575" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="B576" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="3" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="580" spans="1:4">
       <c r="B580" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="582" spans="1:4">
       <c r="B582" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="583" spans="1:4">
       <c r="C583" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="584" spans="1:4">
       <c r="C584" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="586" spans="1:4">
       <c r="B586" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="587" spans="1:4">
       <c r="C587" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="588" spans="1:4">
       <c r="D588" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="590" spans="1:4">
       <c r="C590" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="591" spans="1:4">
       <c r="D591" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="592" spans="1:4">
       <c r="D592" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="594" spans="2:4">
       <c r="B594" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="595" spans="2:4">
       <c r="C595" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="596" spans="2:4">
       <c r="D596" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="598" spans="2:4">
       <c r="D598" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="599" spans="2:4">
       <c r="D599" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="601" spans="2:4">
       <c r="D601" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="603" spans="2:4">
       <c r="B603" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="605" spans="2:4">
@@ -27770,12 +28796,12 @@
     </row>
     <row r="606" spans="2:4">
       <c r="C606" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="607" spans="2:4">
       <c r="C607" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="608" spans="2:4">
@@ -27785,27 +28811,27 @@
     </row>
     <row r="610" spans="2:4">
       <c r="C610" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="611" spans="2:4">
       <c r="D611" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="612" spans="2:4">
       <c r="D612" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="613" spans="2:4">
       <c r="D613" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="615" spans="2:4">
       <c r="B615" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -27815,10 +28841,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:T505"/>
   <sheetViews>
-    <sheetView topLeftCell="A454" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28238,7 +29264,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -28283,12 +29309,12 @@
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="147" spans="2:2">
@@ -28303,7 +29329,7 @@
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="150" spans="2:2">
@@ -28311,184 +29337,386 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:16">
       <c r="A162" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:16">
       <c r="B163" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:16">
       <c r="B164" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
       <c r="B167" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:16">
       <c r="B168" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
       <c r="B169" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:16">
       <c r="A172" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:16">
       <c r="B173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:16">
       <c r="B174" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:16">
       <c r="B175" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:16">
       <c r="B176" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="2:2">
+      <c r="J176" s="26"/>
+      <c r="K176" s="14"/>
+      <c r="L176" s="37" t="s">
+        <v>1129</v>
+      </c>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14"/>
+      <c r="O176" s="14"/>
+      <c r="P176" s="15"/>
+    </row>
+    <row r="177" spans="2:20">
       <c r="B177" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:2">
+      <c r="J177" s="16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="17"/>
+    </row>
+    <row r="178" spans="2:20">
       <c r="B178" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="180" spans="2:2">
+      <c r="J178" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="9"/>
+      <c r="O178" s="26" t="s">
+        <v>1130</v>
+      </c>
+      <c r="P178" s="15"/>
+      <c r="Q178" s="14"/>
+      <c r="R178" s="14"/>
+      <c r="S178" s="14"/>
+      <c r="T178" s="15"/>
+    </row>
+    <row r="179" spans="2:20">
+      <c r="J179" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
+      <c r="O179" s="16" t="s">
+        <v>1131</v>
+      </c>
+      <c r="P179" s="17"/>
+      <c r="Q179" s="9"/>
+      <c r="R179" s="9"/>
+      <c r="S179" s="9"/>
+      <c r="T179" s="17"/>
+    </row>
+    <row r="180" spans="2:20">
       <c r="B180" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="2:2">
+      <c r="J180" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="9"/>
+      <c r="O180" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="P180" s="17"/>
+      <c r="Q180" s="9"/>
+      <c r="R180" s="9"/>
+      <c r="S180" s="9"/>
+      <c r="T180" s="17"/>
+    </row>
+    <row r="181" spans="2:20">
+      <c r="J181" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+      <c r="M181" s="9"/>
+      <c r="N181" s="9"/>
+      <c r="O181" s="18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P181" s="20"/>
+      <c r="Q181" s="19"/>
+      <c r="R181" s="19"/>
+      <c r="S181" s="19"/>
+      <c r="T181" s="20"/>
+    </row>
+    <row r="182" spans="2:20">
       <c r="B182" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="183" spans="2:2">
+      <c r="J182" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9"/>
+      <c r="P182" s="17"/>
+    </row>
+    <row r="183" spans="2:20">
       <c r="B183" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
+        <v>25</v>
+      </c>
+      <c r="J183" s="16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
+      <c r="O183" s="9"/>
+      <c r="P183" s="17"/>
+    </row>
+    <row r="184" spans="2:20">
       <c r="B184" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J184" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K184" s="9"/>
+      <c r="L184" s="9"/>
+      <c r="M184" s="9"/>
+      <c r="N184" s="9"/>
+      <c r="O184" s="9"/>
+      <c r="P184" s="17"/>
+    </row>
+    <row r="185" spans="2:20">
+      <c r="B185" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
+      <c r="J185" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="20"/>
+    </row>
+    <row r="186" spans="2:20">
       <c r="B186" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="188" spans="2:20">
+      <c r="H188" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="189" spans="2:20">
       <c r="B189" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="190" spans="2:2">
+      <c r="H189" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="190" spans="2:20">
       <c r="B190" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
+        <v>853</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="191" spans="2:20">
       <c r="B191" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
+        <v>1095</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="193" spans="2:13">
       <c r="B193" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
+        <v>1114</v>
+      </c>
+      <c r="H193" s="36" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13">
       <c r="B194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
+        <v>250</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13">
+      <c r="H195" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="196" spans="2:13">
       <c r="B196" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="197" spans="2:2">
+      <c r="H196" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="197" spans="2:13">
       <c r="B197" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
+        <v>199</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="198" spans="2:13">
+      <c r="H198" s="36" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="199" spans="2:13">
       <c r="B199" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:13">
       <c r="B200" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
+        <v>1115</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K200" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="201" spans="2:13">
       <c r="B201" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
+        <v>1113</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="202" spans="2:13">
       <c r="B202" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
+        <v>1112</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13">
       <c r="B203" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
+    <row r="204" spans="2:13">
+      <c r="H204" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13">
+      <c r="H205" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M205" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="206" spans="2:13">
+      <c r="H206" t="s">
+        <v>1119</v>
+      </c>
+      <c r="M206" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13">
       <c r="B207" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
+        <v>864</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L207" t="s">
+        <v>557</v>
+      </c>
+      <c r="M207" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="208" spans="2:13">
       <c r="B208" t="s">
         <v>851</v>
       </c>
+      <c r="H208" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="209" spans="1:2">
       <c r="B209" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="B210" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="B211" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -28508,12 +29736,12 @@
     </row>
     <row r="217" spans="1:2">
       <c r="B217" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="B218" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -28548,22 +29776,22 @@
     </row>
     <row r="230" spans="1:2">
       <c r="B230" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="B231" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="B232" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="B233" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -28583,7 +29811,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="B240" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="241" spans="2:7">
@@ -28593,10 +29821,10 @@
     </row>
     <row r="244" spans="2:7">
       <c r="B244" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="245" spans="2:7">
@@ -28604,7 +29832,7 @@
         <v>33</v>
       </c>
       <c r="G245" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="246" spans="2:7">
@@ -28614,15 +29842,15 @@
     </row>
     <row r="247" spans="2:7">
       <c r="B247" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="250" spans="2:7">
       <c r="B250" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G250" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="251" spans="2:7">
@@ -28632,7 +29860,7 @@
     </row>
     <row r="254" spans="2:7">
       <c r="B254" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="255" spans="2:7">
@@ -28647,20 +29875,20 @@
     </row>
     <row r="257" spans="2:9">
       <c r="B257" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="I257" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="259" spans="2:9">
       <c r="H259" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="260" spans="2:9">
       <c r="I260" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="261" spans="2:9">
@@ -28675,22 +29903,22 @@
     </row>
     <row r="263" spans="2:9">
       <c r="I263" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="264" spans="2:9">
       <c r="I264" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="265" spans="2:9">
       <c r="I265" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="266" spans="2:9">
       <c r="I266" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="287" spans="1:1">
@@ -28728,6 +29956,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28735,7 +29965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I550"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -28746,12 +29978,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -28761,12 +29993,12 @@
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="34" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -28781,7 +30013,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="34" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -28791,17 +30023,17 @@
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -28811,7 +30043,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="34" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -28840,7 +30072,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="I25" t="s">
         <v>158</v>
@@ -28848,7 +30080,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="I26" t="s">
         <v>159</v>
@@ -28856,7 +30088,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="I27" t="s">
         <v>160</v>
@@ -28864,7 +30096,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="I28" t="s">
         <v>161</v>
@@ -28903,12 +30135,12 @@
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="35" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -28923,7 +30155,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -28933,17 +30165,17 @@
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -28958,7 +30190,7 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="51" spans="2:2">
@@ -28968,7 +30200,7 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="53" spans="2:2">
@@ -28978,17 +30210,17 @@
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="57" spans="2:2">
@@ -28998,12 +30230,12 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="35" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -29013,17 +30245,17 @@
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -29033,7 +30265,7 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="68" spans="2:2">
@@ -29048,7 +30280,7 @@
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -29058,7 +30290,7 @@
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="74" spans="2:2">
@@ -29068,7 +30300,7 @@
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="76" spans="2:2">
@@ -29078,7 +30310,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="35" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -29103,17 +30335,17 @@
     </row>
     <row r="93" spans="1:2">
       <c r="B93" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="99" spans="2:2">
@@ -29148,7 +30380,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="B142" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -29178,7 +30410,7 @@
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="152" spans="2:2">
@@ -29198,7 +30430,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="B164" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -29208,7 +30440,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="B168" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -29218,7 +30450,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="35" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -29233,7 +30465,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="B175" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -29243,12 +30475,12 @@
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="181" spans="2:2">
@@ -29258,42 +30490,42 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="193" spans="2:2">
@@ -29303,7 +30535,7 @@
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="196" spans="2:2">
@@ -29323,47 +30555,47 @@
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="B209" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="B210" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -29378,17 +30610,17 @@
     </row>
     <row r="215" spans="1:2">
       <c r="B215" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="B216" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="B217" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -29413,32 +30645,32 @@
     </row>
     <row r="227" spans="1:2">
       <c r="B227" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="B230" s="35" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="B231" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="B232" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="B233" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="B234" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -29458,17 +30690,17 @@
     </row>
     <row r="239" spans="1:2">
       <c r="B239" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="B240" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="245" spans="2:2">
@@ -29478,32 +30710,32 @@
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="254" spans="2:2">
@@ -29518,32 +30750,32 @@
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="263" spans="2:2">
@@ -29558,7 +30790,7 @@
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="266" spans="2:2">
@@ -29568,22 +30800,22 @@
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="35" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="272" spans="2:2">
@@ -29598,27 +30830,27 @@
     </row>
     <row r="275" spans="1:8">
       <c r="B275" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="B276" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="B277" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="35" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="B288" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="H288" t="s">
         <v>68</v>
@@ -29626,20 +30858,20 @@
     </row>
     <row r="289" spans="2:8">
       <c r="H289" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="290" spans="2:8">
       <c r="B290" s="35" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="H290" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="291" spans="2:8">
       <c r="B291" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="292" spans="2:8">
@@ -29667,7 +30899,7 @@
     </row>
     <row r="297" spans="2:8">
       <c r="B297" s="35" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="298" spans="2:8">
@@ -29677,12 +30909,12 @@
     </row>
     <row r="299" spans="2:8">
       <c r="B299" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="300" spans="2:8">
       <c r="B300" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="301" spans="2:8">
@@ -29692,12 +30924,12 @@
     </row>
     <row r="303" spans="2:8">
       <c r="B303" s="35" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" s="35" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="306" spans="2:2">
@@ -29707,12 +30939,12 @@
     </row>
     <row r="307" spans="2:2">
       <c r="B307" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="309" spans="2:2">
@@ -29732,7 +30964,7 @@
     </row>
     <row r="313" spans="2:2">
       <c r="B313" s="35" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="314" spans="2:2">
@@ -29752,12 +30984,12 @@
     </row>
     <row r="318" spans="2:2">
       <c r="B318" s="35" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="320" spans="2:2">
@@ -29767,7 +30999,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="B321" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -29777,7 +31009,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="35" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -29787,22 +31019,22 @@
     </row>
     <row r="337" spans="1:2">
       <c r="B337" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="B338" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="B339" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="B340" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -29812,12 +31044,12 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="35" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="35" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -29832,22 +31064,22 @@
     </row>
     <row r="396" spans="1:2">
       <c r="B396" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="B397" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="B398" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="B399" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="401" spans="2:2">
@@ -29862,22 +31094,22 @@
     </row>
     <row r="404" spans="2:2">
       <c r="B404" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="406" spans="2:2">
       <c r="B406" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="407" spans="2:2">
       <c r="B407" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="409" spans="2:2">
@@ -29887,7 +31119,7 @@
     </row>
     <row r="410" spans="2:2">
       <c r="B410" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="411" spans="2:2">
@@ -29907,7 +31139,7 @@
     </row>
     <row r="415" spans="2:2">
       <c r="B415" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="416" spans="2:2">
@@ -29922,22 +31154,22 @@
     </row>
     <row r="419" spans="2:2">
       <c r="B419" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="420" spans="2:2">
       <c r="B420" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="421" spans="2:2">
       <c r="B421" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="422" spans="2:2">
       <c r="B422" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="424" spans="2:2">
@@ -29947,7 +31179,7 @@
     </row>
     <row r="425" spans="2:2">
       <c r="B425" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="427" spans="2:2">
@@ -29957,12 +31189,12 @@
     </row>
     <row r="428" spans="2:2">
       <c r="B428" s="35" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="429" spans="2:2">
       <c r="B429" s="35" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="430" spans="2:2">
@@ -29972,27 +31204,27 @@
     </row>
     <row r="433" spans="2:2">
       <c r="B433" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="434" spans="2:2">
       <c r="B434" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="435" spans="2:2">
       <c r="B435" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="436" spans="2:2">
       <c r="B436" s="35" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="437" spans="2:2">
       <c r="B437" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="439" spans="2:2">
@@ -30002,12 +31234,12 @@
     </row>
     <row r="440" spans="2:2">
       <c r="B440" s="35" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="441" spans="2:2">
       <c r="B441" s="35" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="442" spans="2:2">
@@ -30022,37 +31254,37 @@
     </row>
     <row r="446" spans="2:2">
       <c r="B446" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="447" spans="2:2">
       <c r="B447" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="448" spans="2:2">
       <c r="B448" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="449" spans="2:2">
       <c r="B449" s="35" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="450" spans="2:2">
       <c r="B450" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="452" spans="2:2">
       <c r="B452" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="455" spans="2:2">
@@ -30062,12 +31294,12 @@
     </row>
     <row r="456" spans="2:2">
       <c r="B456" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="457" spans="2:2">
       <c r="B457" s="35" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="458" spans="2:2">
@@ -30077,32 +31309,32 @@
     </row>
     <row r="461" spans="2:2">
       <c r="B461" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="462" spans="2:2">
       <c r="B462" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="463" spans="2:2">
       <c r="B463" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="464" spans="2:2">
       <c r="B464" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="465" spans="1:7">
       <c r="B465" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="466" spans="1:7">
       <c r="B466" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -30115,17 +31347,17 @@
         <v>121</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="471" spans="1:7">
       <c r="B471" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="472" spans="1:7">
       <c r="B472" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -30135,17 +31367,17 @@
     </row>
     <row r="474" spans="1:7">
       <c r="B474" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="475" spans="1:7">
       <c r="B475" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="476" spans="1:7">
       <c r="B476" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -30155,7 +31387,7 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479" s="35" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -30165,42 +31397,42 @@
     </row>
     <row r="483" spans="1:2">
       <c r="B483" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="B485" s="35" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="B486" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="B487" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="B488" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="B489" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="B490" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="B491" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -30215,7 +31447,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="35" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="497" spans="2:2">
@@ -30225,12 +31457,12 @@
     </row>
     <row r="498" spans="2:2">
       <c r="B498" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="499" spans="2:2">
       <c r="B499" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="500" spans="2:2">
@@ -30240,7 +31472,7 @@
     </row>
     <row r="503" spans="2:2">
       <c r="B503" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="504" spans="2:2">
@@ -30250,32 +31482,32 @@
     </row>
     <row r="505" spans="2:2">
       <c r="B505" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="506" spans="2:2">
       <c r="B506" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="509" spans="2:2">
       <c r="B509" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="510" spans="2:2">
       <c r="B510" s="35" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="511" spans="2:2">
       <c r="B511" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="512" spans="2:2">
       <c r="B512" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -30285,12 +31517,12 @@
     </row>
     <row r="515" spans="1:2">
       <c r="B515" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="B516" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -30300,33 +31532,33 @@
     </row>
     <row r="520" spans="1:2">
       <c r="B520" s="35" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="B521" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="B522" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="B523" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="1"/>
       <c r="B524" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="B528" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="529" spans="2:9">
@@ -30334,7 +31566,7 @@
         <v>602</v>
       </c>
       <c r="I529" s="7" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="530" spans="2:9">
@@ -30344,7 +31576,7 @@
     </row>
     <row r="533" spans="2:9">
       <c r="B533" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="534" spans="2:9">
@@ -30354,7 +31586,7 @@
     </row>
     <row r="536" spans="2:9">
       <c r="B536" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="537" spans="2:9">
@@ -30364,22 +31596,22 @@
     </row>
     <row r="538" spans="2:9">
       <c r="B538" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="539" spans="2:9">
       <c r="B539" s="35" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="542" spans="2:9">
       <c r="B542" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="544" spans="2:9">
       <c r="B544" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="545" spans="2:2">
@@ -30399,17 +31631,17 @@
     </row>
     <row r="548" spans="2:2">
       <c r="B548" s="35" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="549" spans="2:2">
       <c r="B549" s="35" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="550" spans="2:2">
       <c r="B550" s="35" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>

--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1184">
   <si>
     <t>speedApp</t>
   </si>
@@ -20371,18 +20371,783 @@
   </si>
   <si>
     <t xml:space="preserve">    return self.render_to_response(context)</t>
+  </si>
+  <si>
+    <t>from django.views.generic import CreateView, ListView, DetailView, UpdateView, DeleteView</t>
+  </si>
+  <si>
+    <t>from recipes.models import Recipe</t>
+  </si>
+  <si>
+    <t>from recipeTest.utils import get_user_object</t>
+  </si>
+  <si>
+    <t>from recipes.forms import RecipeCreateFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'recipes/create-recipe.html'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeCreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(CreateView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recipe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    form_class = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeCreateFrom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =  super().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(**kwargs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_user_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>super().form_valid(form)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    success_url = reverse_lazy('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>home-page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')  # to cataloque-page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        form.instance.author = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_user_object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>from recipeTest.mixins import PlaceholderMixin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'ingrediants': 'ingredient1, ingredient2, ...',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'instructions': 'Enter detailed instructions here...',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'image_url': 'Optional image URL here...'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.fields['title'].widget.attrs.pop('placeholder', None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.fields['cuisine_type'].widget.attrs.pop('placeholder', None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.fields['ingredients'].help_text = "Ingredients must be separated by a comma and space." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.fields['cooking_time'].help_text = "Provide the cooking time in minutes."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(forms.ModelForm):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recipe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        exclude = ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>',)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   custom_placeholders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeCreateFrom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(PlaceholderMixin, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeBaseForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>защо не подаваме селф на парента</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At the start, self is a freshly created instance of your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeCreateForm</t>
+    </r>
+  </si>
+  <si>
+    <t>So it’s not yet fully set up, but Django’s form system has already attached a few key attributes like self.fields</t>
+  </si>
+  <si>
+    <t>super().__init__() → actually calls → PlaceholderMixin.__init__()</t>
+  </si>
+  <si>
+    <t>Since RecipeBaseForm is a subclass of Django’s forms.ModelForm, this call eventually runs Django’s base form initialization, which</t>
+  </si>
+  <si>
+    <t>Reads your Meta class (which specifies model and fields)</t>
+  </si>
+  <si>
+    <t>Builds self.fields — a dictionary of form fields mapped to model fields.</t>
+  </si>
+  <si>
+    <t>Creates widgets for each field</t>
+  </si>
+  <si>
+    <t>Sets up default attributes like label, help_text, etc</t>
+  </si>
+  <si>
+    <t>When that finishes, self.fields is fully populated — e.g.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'title': &lt;CharField&gt;,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'ingredients': &lt;TextField&gt;,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'instructions': &lt;TextField&gt;,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ...</t>
+  </si>
+  <si>
+    <t>{'ingredients': 'ingredient1, ingredient2, ...', 'instructions': 'Enter detailed instructions here...', 'image_url': 'Optional image URL here...'}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">title, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;django.forms.fields.CharField object at 0x000000000495BBB0&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.items():</t>
+    </r>
+  </si>
+  <si>
+    <t>print(field.label) -&gt; Title, Cuisine type, Ingredients, Instructions, Cooking time, Image url</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field.label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('_', ' ').</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capitalize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>print(type(self)) -&gt; &lt;class 'recipes.forms.RecipeCreateFrom'&gt;</t>
+  </si>
+  <si>
+    <t>print(self.fields) -&gt;  {'title': &lt;django.forms.fields.CharField object at 0x00000000048E4190&gt;, 'cuisine_type': &lt;django.forms.fields.TypedChoiceField object at 0x00000000048E4220&gt;,</t>
+  </si>
+  <si>
+    <t>print(type(self.fields)) -&gt; &lt;class 'dict'&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>().__init__(*args, **kwargs)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -20849,21 +21614,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -20878,16 +21643,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20897,11 +21664,11 @@
   <colors>
     <mruColors>
       <color rgb="FFA47A20"/>
+      <color rgb="FF179A77"/>
+      <color rgb="FFA626A4"/>
       <color rgb="FF7D7DFF"/>
-      <color rgb="FF179A77"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FFDA7BB9"/>
-      <color rgb="FFA626A4"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -28841,10 +29608,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T505"/>
+  <dimension ref="A1:T530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A504" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G516" sqref="G516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29936,9 +30703,104 @@
         <v>825</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:2">
       <c r="A374" s="32" t="s">
         <v>826</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="B375" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="B376" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="B377" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="B378" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="B379" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="B380" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="B382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="B384" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" s="38" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="460" spans="1:1">
@@ -29946,13 +30808,286 @@
         <v>827</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:2">
       <c r="A477" s="32" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
+    <row r="478" spans="1:2">
+      <c r="B478" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="B479" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="B480" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="483" spans="2:10">
+      <c r="B483" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="484" spans="2:10">
+      <c r="B484" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="485" spans="2:10">
+      <c r="B485" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="486" spans="2:10">
+      <c r="B486" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="489" spans="2:10">
+      <c r="B489" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="490" spans="2:10">
+      <c r="B490" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="491" spans="2:10">
+      <c r="B491" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="492" spans="2:10">
+      <c r="B492" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="493" spans="2:10">
+      <c r="B493" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="494" spans="2:10">
+      <c r="B494" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="495" spans="2:10">
+      <c r="J495" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="496" spans="2:10">
+      <c r="B496" t="s">
+        <v>42</v>
+      </c>
+      <c r="J496" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10">
+      <c r="B497" t="s">
+        <v>740</v>
+      </c>
+      <c r="J497" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10">
+      <c r="J498" s="7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10">
+      <c r="B499" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10">
+      <c r="B500" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10">
+      <c r="B501" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10">
+      <c r="B502" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10">
+      <c r="B504" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10">
       <c r="A505" s="1"/>
+      <c r="B505" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10">
+      <c r="B506" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10">
+      <c r="C508" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10">
+      <c r="C509" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10">
+      <c r="C510" t="s">
+        <v>477</v>
+      </c>
+      <c r="J510" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10">
+      <c r="C511" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J511" s="39" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10">
+      <c r="C512" t="s">
+        <v>928</v>
+      </c>
+      <c r="J512" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="513" spans="3:13">
+      <c r="C513" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="514" spans="3:13">
+      <c r="C514" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="515" spans="3:13">
+      <c r="C515" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="516" spans="3:13">
+      <c r="C516" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="518" spans="3:13">
+      <c r="C518" t="s">
+        <v>819</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I518" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="519" spans="3:13">
+      <c r="C519" t="s">
+        <v>43</v>
+      </c>
+      <c r="K519" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="520" spans="3:13">
+      <c r="C520" t="s">
+        <v>476</v>
+      </c>
+      <c r="G520" s="38" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J520" t="s">
+        <v>557</v>
+      </c>
+      <c r="K520" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="521" spans="3:13">
+      <c r="G521" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J521" t="s">
+        <v>557</v>
+      </c>
+      <c r="K521" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="522" spans="3:13">
+      <c r="G522" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K522" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="523" spans="3:13">
+      <c r="G523" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K523" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="524" spans="3:13">
+      <c r="K524" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="525" spans="3:13">
+      <c r="M525" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="526" spans="3:13">
+      <c r="M526" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="527" spans="3:13">
+      <c r="M527" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="528" spans="3:13">
+      <c r="M528" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="529" spans="13:13">
+      <c r="M529" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="530" spans="13:13">
+      <c r="M530" t="s">
+        <v>438</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1738">
   <si>
     <t>speedApp</t>
   </si>
@@ -31088,6 +31088,36 @@
     <t>&lt;class 'recipes.forms.RecipeEditForm'&gt;</t>
   </si>
   <si>
+    <t>&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;th&gt;&lt;label for="id_title"&gt;Title:&lt;/label&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;input type="text" name="title" value="Varivo po Pernishki" maxlength="100" placeholder="Title" required id="id_title"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>Recipe object (3)</t>
+  </si>
+  <si>
+    <t>{'id': 3, 'title': 'Varivo po Pernishki', 'cuisine_type': 'Balkan', 'ingredients': 'Kiselo zele, meso', 'instructions': 'Cooking...', 'cooking_time': 180, 'image_url': None}</t>
+  </si>
+  <si>
+    <t>cooking_time': &lt;django.forms.fields.IntegerField object at 0x000000000473EAF0&gt;, 'image_url': &lt;django.forms.fields.URLField object at 0x000000000473EA00&gt;}</t>
+  </si>
+  <si>
+    <t>&lt;MultiValueDict: {}&gt;</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <r>
       <t>print(type(</t>
     </r>
@@ -31110,6 +31140,529 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;class 'dict'&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;class '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;class '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeEditForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;class '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeEditView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;class '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;Recipe: Recipe object (3)&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;Recipe: Recipe object (3)&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;RecipeEditForm bound=False, valid=Unknown, fields=(title;cuisine_type;ingredients;instructions;cooking_time;image_url)&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;recipes.views.RecipeEditView object at 0x00000000045F2FA0&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;Profile: Profile object (3)&gt;}</t>
+    </r>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <r>
+      <t>{'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;django.forms.fields.CharField object at 0x000000000473EB80&gt;, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cuisine_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;django.forms.fields.TypedChoiceField object at 0x000000000473E9D0&gt;, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingredients</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;django.forms.fields.CharField object at 0x000000000473E850&gt;, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instructions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;django.forms.fields.CharField object at 0x000000000473E9A0&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>['</t>
     </r>
     <r>
@@ -31131,23 +31684,55 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>']))  #  test</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;tr&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;th&gt;&lt;label for="id_title"&gt;Title:&lt;/label&gt;&lt;/th&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;td&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;input type="text" name="title" value="Varivo po Pernishki" maxlength="100" placeholder="Title" required id="id_title"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;/td&gt;</t>
+      <t>'])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(type(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']))</t>
+    </r>
   </si>
   <si>
     <r>
@@ -31172,53 +31757,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>['</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'])  #  test</t>
-    </r>
-  </si>
-  <si>
-    <t>{'title': &lt;django.forms.fields.CharField object at 0x000000000473EB80&gt;, 'cuisine_type': &lt;django.forms.fields.TypedChoiceField object at 0x000000000473E9D0&gt;, 'ingredients': &lt;django.forms.fields.CharField object at 0x000000000473E850&gt;, 'instructions': &lt;django.forms.fields.CharField object at 0x000000000473E9A0&gt;,</t>
-  </si>
-  <si>
-    <t>Recipe object (3)</t>
-  </si>
-  <si>
-    <t>{'id': 3, 'title': 'Varivo po Pernishki', 'cuisine_type': 'Balkan', 'ingredients': 'Kiselo zele, meso', 'instructions': 'Cooking...', 'cooking_time': 180, 'image_url': None}</t>
-  </si>
-  <si>
-    <t>cooking_time': &lt;django.forms.fields.IntegerField object at 0x000000000473EAF0&gt;, 'image_url': &lt;django.forms.fields.URLField object at 0x000000000473EA00&gt;}</t>
-  </si>
-  <si>
-    <t>&lt;MultiValueDict: {}&gt;</t>
-  </si>
-  <si>
-    <t>print(context['form'].files)  #  test</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>print(context['form'].prefix)  #  test</t>
+      <t>['form'].fields)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -31243,7 +31783,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>['form'].fields)  #  test</t>
+      <t>['form'].instance)</t>
     </r>
   </si>
   <si>
@@ -31269,7 +31809,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>['form'].instance)  #  test</t>
+      <t>['form'].initial)</t>
     </r>
   </si>
   <si>
@@ -31295,7 +31835,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>['form'].initial)  #  test</t>
+      <t>['form'].data)</t>
     </r>
   </si>
   <si>
@@ -31321,7 +31861,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>['form'].data)  #  test</t>
+      <t>['form'].files)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['form'].prefix)</t>
     </r>
   </si>
 </sst>
@@ -31329,12 +31895,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -31981,19 +32555,19 @@
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -32008,47 +32582,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -32508,13 +33082,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>525518</xdr:colOff>
-      <xdr:row>902</xdr:row>
+      <xdr:row>914</xdr:row>
       <xdr:rowOff>99848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>168167</xdr:colOff>
-      <xdr:row>902</xdr:row>
+      <xdr:row>914</xdr:row>
       <xdr:rowOff>101436</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32555,13 +33129,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>588579</xdr:colOff>
-      <xdr:row>903</xdr:row>
+      <xdr:row>915</xdr:row>
       <xdr:rowOff>5255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>215462</xdr:colOff>
-      <xdr:row>903</xdr:row>
+      <xdr:row>915</xdr:row>
       <xdr:rowOff>105103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32602,13 +33176,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>48713</xdr:colOff>
-      <xdr:row>916</xdr:row>
+      <xdr:row>928</xdr:row>
       <xdr:rowOff>109349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>570390</xdr:colOff>
-      <xdr:row>916</xdr:row>
+      <xdr:row>928</xdr:row>
       <xdr:rowOff>110937</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32649,13 +33223,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>21022</xdr:colOff>
-      <xdr:row>917</xdr:row>
+      <xdr:row>929</xdr:row>
       <xdr:rowOff>47295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>588583</xdr:colOff>
-      <xdr:row>919</xdr:row>
+      <xdr:row>931</xdr:row>
       <xdr:rowOff>110360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32696,13 +33270,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57807</xdr:colOff>
-      <xdr:row>917</xdr:row>
+      <xdr:row>929</xdr:row>
       <xdr:rowOff>78827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>579484</xdr:colOff>
-      <xdr:row>917</xdr:row>
+      <xdr:row>929</xdr:row>
       <xdr:rowOff>80415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32743,13 +33317,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>42041</xdr:colOff>
-      <xdr:row>917</xdr:row>
+      <xdr:row>929</xdr:row>
       <xdr:rowOff>84082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>563718</xdr:colOff>
-      <xdr:row>917</xdr:row>
+      <xdr:row>929</xdr:row>
       <xdr:rowOff>85670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32790,13 +33364,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>63062</xdr:colOff>
-      <xdr:row>917</xdr:row>
+      <xdr:row>929</xdr:row>
       <xdr:rowOff>99848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>584739</xdr:colOff>
-      <xdr:row>917</xdr:row>
+      <xdr:row>929</xdr:row>
       <xdr:rowOff>101436</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32837,13 +33411,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>63063</xdr:colOff>
-      <xdr:row>919</xdr:row>
+      <xdr:row>931</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>567560</xdr:colOff>
-      <xdr:row>919</xdr:row>
+      <xdr:row>931</xdr:row>
       <xdr:rowOff>90926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32884,13 +33458,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>52552</xdr:colOff>
-      <xdr:row>919</xdr:row>
+      <xdr:row>931</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>557049</xdr:colOff>
-      <xdr:row>919</xdr:row>
+      <xdr:row>931</xdr:row>
       <xdr:rowOff>90926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32931,13 +33505,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52551</xdr:colOff>
-      <xdr:row>919</xdr:row>
+      <xdr:row>931</xdr:row>
       <xdr:rowOff>99849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>557048</xdr:colOff>
-      <xdr:row>919</xdr:row>
+      <xdr:row>931</xdr:row>
       <xdr:rowOff>101437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32978,13 +33552,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>598297</xdr:colOff>
-      <xdr:row>920</xdr:row>
+      <xdr:row>932</xdr:row>
       <xdr:rowOff>37580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>599885</xdr:colOff>
-      <xdr:row>921</xdr:row>
+      <xdr:row>933</xdr:row>
       <xdr:rowOff>126917</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33025,13 +33599,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>446690</xdr:colOff>
-      <xdr:row>922</xdr:row>
+      <xdr:row>934</xdr:row>
       <xdr:rowOff>115613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>551793</xdr:colOff>
-      <xdr:row>922</xdr:row>
+      <xdr:row>934</xdr:row>
       <xdr:rowOff>117201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33072,13 +33646,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>446690</xdr:colOff>
-      <xdr:row>922</xdr:row>
+      <xdr:row>934</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>562303</xdr:colOff>
-      <xdr:row>923</xdr:row>
+      <xdr:row>935</xdr:row>
       <xdr:rowOff>94593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33119,13 +33693,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>509752</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>941</xdr:row>
       <xdr:rowOff>21021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>99848</xdr:colOff>
-      <xdr:row>930</xdr:row>
+      <xdr:row>942</xdr:row>
       <xdr:rowOff>63062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33166,13 +33740,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>341586</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>941</xdr:row>
       <xdr:rowOff>10510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>394138</xdr:colOff>
-      <xdr:row>930</xdr:row>
+      <xdr:row>942</xdr:row>
       <xdr:rowOff>21021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33812,13 +34386,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47297</xdr:colOff>
-      <xdr:row>985</xdr:row>
+      <xdr:row>997</xdr:row>
       <xdr:rowOff>42042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>541283</xdr:colOff>
-      <xdr:row>988</xdr:row>
+      <xdr:row>1000</xdr:row>
       <xdr:rowOff>36787</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33859,13 +34433,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57807</xdr:colOff>
-      <xdr:row>1046</xdr:row>
+      <xdr:row>1058</xdr:row>
       <xdr:rowOff>178676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>273269</xdr:colOff>
-      <xdr:row>1048</xdr:row>
+      <xdr:row>1060</xdr:row>
       <xdr:rowOff>7007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33949,13 +34523,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>436179</xdr:colOff>
-      <xdr:row>1045</xdr:row>
+      <xdr:row>1057</xdr:row>
       <xdr:rowOff>105104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>131379</xdr:colOff>
-      <xdr:row>1046</xdr:row>
+      <xdr:row>1058</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -41532,10 +42106,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1096"/>
+  <dimension ref="A1:T1108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C651" sqref="C651"/>
+    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H613" sqref="H613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -44118,2572 +44692,2649 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="609" spans="2:10">
+    <row r="609" spans="2:9">
       <c r="B609" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="610" spans="2:10">
+    <row r="610" spans="2:9">
       <c r="B610" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="611" spans="2:10">
+    <row r="611" spans="2:9">
       <c r="B611" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="613" spans="2:10">
+    <row r="613" spans="2:9">
       <c r="B613" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="614" spans="2:10">
+    <row r="614" spans="2:9">
       <c r="B614" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="615" spans="2:10">
+    <row r="615" spans="2:9">
       <c r="B615" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="616" spans="2:10">
+    <row r="616" spans="2:9">
       <c r="B616" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="618" spans="2:10">
+    <row r="618" spans="2:9">
       <c r="C618" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="619" spans="2:9">
+      <c r="D619" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="621" spans="2:9">
+      <c r="C621" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="622" spans="2:9">
+      <c r="D622" s="69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="623" spans="2:9">
+      <c r="D623" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I623" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="624" spans="2:9">
+      <c r="D624" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I624" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="625" spans="3:10">
+      <c r="D625" s="69" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H625" t="s">
+        <v>557</v>
+      </c>
+      <c r="I625" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="626" spans="3:10">
+      <c r="D626" s="69" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H626" t="s">
+        <v>557</v>
+      </c>
+      <c r="I626" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="627" spans="3:10">
+      <c r="D627" s="69" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I627" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="628" spans="3:10">
+      <c r="D628" s="69" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="630" spans="3:10">
+      <c r="C630" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I630" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="631" spans="3:10">
+      <c r="D631" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E631" s="9"/>
+      <c r="F631" s="9"/>
+      <c r="G631" s="9"/>
+      <c r="H631" s="9"/>
+      <c r="I631" s="21"/>
+      <c r="J631" s="23"/>
+    </row>
+    <row r="632" spans="3:10">
+      <c r="D632" s="9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E632" s="9"/>
+      <c r="F632" s="9"/>
+      <c r="G632" s="9"/>
+      <c r="H632" s="9"/>
+      <c r="I632" s="9"/>
+      <c r="J632" s="9"/>
+    </row>
+    <row r="633" spans="3:10">
+      <c r="D633" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E633" s="9"/>
+      <c r="F633" s="9"/>
+      <c r="G633" s="9"/>
+      <c r="H633" s="9"/>
+      <c r="I633" s="9"/>
+      <c r="J633" s="9"/>
+    </row>
+    <row r="634" spans="3:10">
+      <c r="D634" s="9"/>
+      <c r="E634" s="9"/>
+      <c r="F634" s="9"/>
+      <c r="G634" s="9"/>
+      <c r="H634" s="9"/>
+      <c r="I634" s="9"/>
+      <c r="J634" s="9"/>
+    </row>
+    <row r="635" spans="3:10">
+      <c r="D635" s="9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E635" s="9"/>
+      <c r="F635" s="9"/>
+      <c r="G635" s="9"/>
+      <c r="H635" s="9"/>
+      <c r="I635" s="9"/>
+      <c r="J635" s="9"/>
+    </row>
+    <row r="636" spans="3:10">
+      <c r="D636" s="9"/>
+      <c r="E636" s="9"/>
+      <c r="F636" s="9"/>
+      <c r="G636" s="9"/>
+      <c r="H636" s="9"/>
+      <c r="I636" s="9"/>
+      <c r="J636" s="9"/>
+    </row>
+    <row r="637" spans="3:10">
+      <c r="D637" s="9"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="9"/>
+      <c r="G637" s="9"/>
+      <c r="H637" s="9"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="9"/>
+    </row>
+    <row r="638" spans="3:10">
+      <c r="D638" s="9" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E638" s="9"/>
+      <c r="F638" s="9"/>
+      <c r="G638" s="9"/>
+      <c r="H638" s="9"/>
+      <c r="I638" s="9"/>
+      <c r="J638" s="9"/>
+    </row>
+    <row r="640" spans="3:10">
+      <c r="C640" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="641" spans="3:7">
+      <c r="D641" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="643" spans="3:7">
+      <c r="C643" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G643" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="644" spans="3:7">
+      <c r="D644" s="69" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="645" spans="3:7">
+      <c r="D645" s="25" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="647" spans="3:7">
+      <c r="C647" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="648" spans="3:7">
+      <c r="D648" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="650" spans="3:7">
+      <c r="C650" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="651" spans="3:7">
+      <c r="D651" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="619" spans="2:10">
-      <c r="D619" s="9" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E619" s="9"/>
-      <c r="F619" s="9"/>
-      <c r="G619" s="9"/>
-      <c r="H619" s="9"/>
-      <c r="I619" s="9"/>
-      <c r="J619" s="9"/>
-    </row>
-    <row r="620" spans="2:10">
-      <c r="D620" s="9" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E620" s="9"/>
-      <c r="F620" s="9"/>
-      <c r="G620" s="9"/>
-      <c r="H620" s="9"/>
-      <c r="I620" s="9"/>
-      <c r="J620" s="9"/>
-    </row>
-    <row r="621" spans="2:10">
-      <c r="D621" s="9" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E621" s="9"/>
-      <c r="F621" s="9"/>
-      <c r="G621" s="9"/>
-      <c r="H621" s="9"/>
-      <c r="I621" s="9"/>
-      <c r="J621" s="9"/>
-    </row>
-    <row r="622" spans="2:10">
-      <c r="D622" s="9"/>
-      <c r="E622" s="9"/>
-      <c r="F622" s="9"/>
-      <c r="G622" s="9"/>
-      <c r="H622" s="9"/>
-      <c r="I622" s="9"/>
-      <c r="J622" s="9"/>
-    </row>
-    <row r="623" spans="2:10">
-      <c r="D623" s="9" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E623" s="9"/>
-      <c r="F623" s="9"/>
-      <c r="G623" s="9"/>
-      <c r="H623" s="9"/>
-      <c r="I623" s="9"/>
-      <c r="J623" s="9"/>
-    </row>
-    <row r="624" spans="2:10">
-      <c r="D624" s="9"/>
-      <c r="E624" s="9"/>
-      <c r="F624" s="9"/>
-      <c r="G624" s="9"/>
-      <c r="H624" s="9"/>
-      <c r="I624" s="9"/>
-      <c r="J624" s="9"/>
-    </row>
-    <row r="625" spans="3:10">
-      <c r="D625" s="9"/>
-      <c r="E625" s="9"/>
-      <c r="F625" s="9"/>
-      <c r="G625" s="9"/>
-      <c r="H625" s="9"/>
-      <c r="I625" s="9"/>
-      <c r="J625" s="9"/>
-    </row>
-    <row r="626" spans="3:10">
-      <c r="D626" s="9" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E626" s="9"/>
-      <c r="F626" s="9"/>
-      <c r="G626" s="9"/>
-      <c r="H626" s="9"/>
-      <c r="I626" s="9"/>
-      <c r="J626" s="9"/>
-    </row>
-    <row r="628" spans="3:10">
-      <c r="C628" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="629" spans="3:10">
-      <c r="D629" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="631" spans="3:10">
-      <c r="C631" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="632" spans="3:10">
-      <c r="D632" s="69" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="633" spans="3:10">
-      <c r="D633" s="25" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="635" spans="3:10">
-      <c r="C635" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="636" spans="3:10">
-      <c r="D636" t="s">
+    <row r="653" spans="3:7">
+      <c r="C653" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="654" spans="3:7">
+      <c r="D654" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="638" spans="3:10">
-      <c r="C638" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="639" spans="3:10">
-      <c r="D639" t="s">
+    <row r="656" spans="3:7">
+      <c r="C656" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="657" spans="3:4">
+      <c r="D657" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="659" spans="3:4">
+      <c r="C659" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="660" spans="3:4">
+      <c r="D660" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="641" spans="3:4">
-      <c r="C641" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="642" spans="3:4">
-      <c r="D642" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="644" spans="3:4">
-      <c r="C644" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="645" spans="3:4">
-      <c r="D645" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="647" spans="3:4">
-      <c r="C647" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="648" spans="3:4">
-      <c r="D648" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="650" spans="3:4">
-      <c r="C650" t="s">
+    <row r="662" spans="3:4">
+      <c r="C662" s="3" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="651" spans="3:4">
-      <c r="C651" t="s">
+    <row r="663" spans="3:4">
+      <c r="C663" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="652" spans="3:4">
-      <c r="C652" t="s">
+    <row r="664" spans="3:4">
+      <c r="C664" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="654" spans="3:4">
-      <c r="C654" t="s">
+    <row r="666" spans="3:4">
+      <c r="C666" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="655" spans="3:4">
-      <c r="D655" t="s">
+    <row r="667" spans="3:4">
+      <c r="D667" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="656" spans="3:4">
-      <c r="D656" t="s">
+    <row r="668" spans="3:4">
+      <c r="D668" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="657" spans="3:5">
-      <c r="D657" t="s">
+    <row r="669" spans="3:4">
+      <c r="D669" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="658" spans="3:5">
-      <c r="D658" t="s">
+    <row r="670" spans="3:4">
+      <c r="D670" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="660" spans="3:5">
-      <c r="C660" s="3" t="s">
+    <row r="672" spans="3:4">
+      <c r="C672" s="3" t="s">
         <v>1584</v>
-      </c>
-    </row>
-    <row r="661" spans="3:5">
-      <c r="C661" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="662" spans="3:5">
-      <c r="D662" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="663" spans="3:5">
-      <c r="D663" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="664" spans="3:5">
-      <c r="D664" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="665" spans="3:5">
-      <c r="D665" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="666" spans="3:5">
-      <c r="D666" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="668" spans="3:5">
-      <c r="C668" s="3" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="669" spans="3:5">
-      <c r="C669" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="670" spans="3:5">
-      <c r="D670" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="671" spans="3:5">
-      <c r="D671" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="672" spans="3:5">
-      <c r="E672" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="673" spans="3:5">
       <c r="C673" t="s">
-        <v>1602</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="674" spans="3:5">
       <c r="D674" t="s">
-        <v>1603</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="675" spans="3:5">
-      <c r="E675" t="s">
-        <v>1604</v>
+      <c r="D675" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="676" spans="3:5">
       <c r="D676" t="s">
-        <v>1605</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="677" spans="3:5">
-      <c r="E677" s="67" t="s">
-        <v>1606</v>
+      <c r="D677" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="678" spans="3:5">
       <c r="D678" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="679" spans="3:5">
-      <c r="E679" t="s">
-        <v>1305</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="680" spans="3:5">
-      <c r="E680" t="s">
-        <v>1607</v>
+      <c r="C680" s="3" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="681" spans="3:5">
       <c r="C681" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="682" spans="3:5">
       <c r="D682" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="683" spans="3:5">
       <c r="D683" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="684" spans="3:5" ht="15">
-      <c r="D684" s="68" t="s">
-        <v>1611</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="684" spans="3:5">
+      <c r="E684" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="685" spans="3:5">
       <c r="C685" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="686" spans="3:5">
       <c r="D686" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="687" spans="3:5">
       <c r="E687" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="688" spans="3:5">
+      <c r="D688" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="689" spans="3:10">
+      <c r="E689" s="67" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="690" spans="3:10">
+      <c r="D690" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="691" spans="3:10">
+      <c r="E691" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="692" spans="3:10">
+      <c r="E692" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="693" spans="3:10">
+      <c r="C693" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="694" spans="3:10">
+      <c r="D694" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="695" spans="3:10">
+      <c r="D695" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="696" spans="3:10" ht="15">
+      <c r="D696" s="68" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="697" spans="3:10">
+      <c r="C697" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="698" spans="3:10">
+      <c r="D698" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="699" spans="3:10">
+      <c r="E699" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="688" spans="3:5">
-      <c r="E688" t="s">
+    <row r="700" spans="3:10">
+      <c r="E700" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="689" spans="4:10">
-      <c r="E689" s="67" t="s">
+    <row r="701" spans="3:10">
+      <c r="E701" s="67" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="690" spans="4:10">
-      <c r="E690" t="s">
+    <row r="702" spans="3:10">
+      <c r="E702" t="s">
         <v>1617</v>
       </c>
-      <c r="J690" t="s">
+      <c r="J702" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="691" spans="4:10">
-      <c r="E691" s="67" t="s">
+    <row r="703" spans="3:10">
+      <c r="E703" s="67" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="693" spans="4:10">
-      <c r="D693" t="s">
+    <row r="705" spans="4:10">
+      <c r="D705" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="694" spans="4:10">
-      <c r="E694" t="s">
+    <row r="706" spans="4:10">
+      <c r="E706" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="695" spans="4:10">
-      <c r="E695" t="s">
+    <row r="707" spans="4:10">
+      <c r="E707" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="697" spans="4:10">
-      <c r="E697" s="26" t="s">
+    <row r="709" spans="4:10">
+      <c r="E709" s="26" t="s">
         <v>1623</v>
       </c>
-      <c r="F697" s="14"/>
-      <c r="G697" s="14"/>
-      <c r="H697" s="14"/>
-      <c r="I697" s="14"/>
-      <c r="J697" s="15"/>
-    </row>
-    <row r="698" spans="4:10">
-      <c r="E698" s="16" t="s">
+      <c r="F709" s="14"/>
+      <c r="G709" s="14"/>
+      <c r="H709" s="14"/>
+      <c r="I709" s="14"/>
+      <c r="J709" s="15"/>
+    </row>
+    <row r="710" spans="4:10">
+      <c r="E710" s="16" t="s">
         <v>1621</v>
       </c>
-      <c r="F698" s="9"/>
-      <c r="G698" s="9"/>
-      <c r="H698" s="9"/>
-      <c r="I698" s="9"/>
-      <c r="J698" s="17"/>
-    </row>
-    <row r="699" spans="4:10">
-      <c r="E699" s="18" t="s">
+      <c r="F710" s="9"/>
+      <c r="G710" s="9"/>
+      <c r="H710" s="9"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="17"/>
+    </row>
+    <row r="711" spans="4:10">
+      <c r="E711" s="18" t="s">
         <v>1622</v>
       </c>
-      <c r="F699" s="19"/>
-      <c r="G699" s="19"/>
-      <c r="H699" s="19"/>
-      <c r="I699" s="19"/>
-      <c r="J699" s="20"/>
-    </row>
-    <row r="701" spans="4:10">
-      <c r="E701" t="s">
+      <c r="F711" s="19"/>
+      <c r="G711" s="19"/>
+      <c r="H711" s="19"/>
+      <c r="I711" s="19"/>
+      <c r="J711" s="20"/>
+    </row>
+    <row r="713" spans="4:10">
+      <c r="E713" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="702" spans="4:10">
-      <c r="F702" t="s">
+    <row r="714" spans="4:10">
+      <c r="F714" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="704" spans="4:10">
-      <c r="D704" t="s">
+    <row r="716" spans="4:10">
+      <c r="D716" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="705" spans="4:11">
-      <c r="E705" t="s">
+    <row r="717" spans="4:10">
+      <c r="E717" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="706" spans="4:11">
-      <c r="E706" s="8" t="s">
+    <row r="718" spans="4:10">
+      <c r="E718" s="8" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="707" spans="4:11">
-      <c r="E707" s="67" t="s">
+    <row r="719" spans="4:10">
+      <c r="E719" s="67" t="s">
         <v>1631</v>
       </c>
-      <c r="J707" s="7" t="s">
+      <c r="J719" s="7" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="708" spans="4:11">
-      <c r="E708" t="s">
+    <row r="720" spans="4:10">
+      <c r="E720" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="710" spans="4:11">
-      <c r="D710" t="s">
+    <row r="722" spans="4:11">
+      <c r="D722" t="s">
         <v>1633</v>
       </c>
-      <c r="K710" s="7" t="s">
+      <c r="K722" s="7" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="711" spans="4:11">
-      <c r="E711" t="s">
+    <row r="723" spans="4:11">
+      <c r="E723" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="712" spans="4:11">
-      <c r="E712" t="s">
+    <row r="724" spans="4:11">
+      <c r="E724" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="713" spans="4:11">
-      <c r="E713" s="67" t="s">
+    <row r="725" spans="4:11">
+      <c r="E725" s="67" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="714" spans="4:11">
-      <c r="E714" s="67" t="s">
+    <row r="726" spans="4:11">
+      <c r="E726" s="67" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="715" spans="4:11">
-      <c r="E715" t="s">
+    <row r="727" spans="4:11">
+      <c r="E727" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="717" spans="4:11">
-      <c r="E717" t="s">
+    <row r="729" spans="4:11">
+      <c r="E729" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="718" spans="4:11">
-      <c r="E718" t="s">
+    <row r="730" spans="4:11">
+      <c r="E730" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="719" spans="4:11">
-      <c r="E719" t="s">
+    <row r="731" spans="4:11">
+      <c r="E731" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="720" spans="4:11">
-      <c r="E720" t="s">
+    <row r="732" spans="4:11">
+      <c r="E732" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="721" spans="3:9">
-      <c r="E721" t="s">
+    <row r="733" spans="4:11">
+      <c r="E733" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="722" spans="3:9">
-      <c r="E722" t="s">
+    <row r="734" spans="4:11">
+      <c r="E734" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="723" spans="3:9">
-      <c r="E723" t="s">
+    <row r="735" spans="4:11">
+      <c r="E735" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="725" spans="3:9">
-      <c r="D725" t="s">
+    <row r="737" spans="3:9">
+      <c r="D737" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="726" spans="3:9">
-      <c r="E726" t="s">
+    <row r="738" spans="3:9">
+      <c r="E738" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="727" spans="3:9">
-      <c r="E727" t="s">
+    <row r="739" spans="3:9">
+      <c r="E739" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="729" spans="3:9">
-      <c r="C729" t="s">
+    <row r="741" spans="3:9">
+      <c r="C741" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="730" spans="3:9">
-      <c r="D730" t="s">
+    <row r="742" spans="3:9">
+      <c r="D742" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="731" spans="3:9">
-      <c r="D731" s="26" t="s">
+    <row r="743" spans="3:9">
+      <c r="D743" s="26" t="s">
         <v>1653</v>
       </c>
-      <c r="E731" s="14"/>
-      <c r="F731" s="14"/>
-      <c r="G731" s="14"/>
-      <c r="H731" s="14"/>
-      <c r="I731" s="15"/>
-    </row>
-    <row r="732" spans="3:9">
-      <c r="D732" s="16" t="s">
+      <c r="E743" s="14"/>
+      <c r="F743" s="14"/>
+      <c r="G743" s="14"/>
+      <c r="H743" s="14"/>
+      <c r="I743" s="15"/>
+    </row>
+    <row r="744" spans="3:9">
+      <c r="D744" s="16" t="s">
         <v>1654</v>
       </c>
-      <c r="E732" s="9"/>
-      <c r="F732" s="9"/>
-      <c r="G732" s="9"/>
-      <c r="H732" s="9"/>
-      <c r="I732" s="17"/>
-    </row>
-    <row r="733" spans="3:9">
-      <c r="D733" s="16" t="s">
+      <c r="E744" s="9"/>
+      <c r="F744" s="9"/>
+      <c r="G744" s="9"/>
+      <c r="H744" s="9"/>
+      <c r="I744" s="17"/>
+    </row>
+    <row r="745" spans="3:9">
+      <c r="D745" s="16" t="s">
         <v>1650</v>
       </c>
-      <c r="E733" s="9"/>
-      <c r="F733" s="9"/>
-      <c r="G733" s="9"/>
-      <c r="H733" s="9"/>
-      <c r="I733" s="17"/>
-    </row>
-    <row r="734" spans="3:9">
-      <c r="D734" s="16" t="s">
+      <c r="E745" s="9"/>
+      <c r="F745" s="9"/>
+      <c r="G745" s="9"/>
+      <c r="H745" s="9"/>
+      <c r="I745" s="17"/>
+    </row>
+    <row r="746" spans="3:9">
+      <c r="D746" s="16" t="s">
         <v>1649</v>
       </c>
-      <c r="E734" s="9"/>
-      <c r="F734" s="9"/>
-      <c r="G734" s="9"/>
-      <c r="H734" s="9"/>
-      <c r="I734" s="17"/>
-    </row>
-    <row r="735" spans="3:9">
-      <c r="D735" s="16" t="s">
+      <c r="E746" s="9"/>
+      <c r="F746" s="9"/>
+      <c r="G746" s="9"/>
+      <c r="H746" s="9"/>
+      <c r="I746" s="17"/>
+    </row>
+    <row r="747" spans="3:9">
+      <c r="D747" s="16" t="s">
         <v>1651</v>
       </c>
-      <c r="E735" s="9"/>
-      <c r="F735" s="9"/>
-      <c r="G735" s="9"/>
-      <c r="H735" s="9"/>
-      <c r="I735" s="17"/>
-    </row>
-    <row r="736" spans="3:9">
-      <c r="D736" s="16" t="s">
+      <c r="E747" s="9"/>
+      <c r="F747" s="9"/>
+      <c r="G747" s="9"/>
+      <c r="H747" s="9"/>
+      <c r="I747" s="17"/>
+    </row>
+    <row r="748" spans="3:9">
+      <c r="D748" s="16" t="s">
         <v>1648</v>
       </c>
-      <c r="E736" s="9"/>
-      <c r="F736" s="9"/>
-      <c r="G736" s="9"/>
-      <c r="H736" s="9"/>
-      <c r="I736" s="17"/>
-    </row>
-    <row r="737" spans="3:10">
-      <c r="D737" s="18" t="s">
+      <c r="E748" s="9"/>
+      <c r="F748" s="9"/>
+      <c r="G748" s="9"/>
+      <c r="H748" s="9"/>
+      <c r="I748" s="17"/>
+    </row>
+    <row r="749" spans="3:9">
+      <c r="D749" s="18" t="s">
         <v>1652</v>
       </c>
-      <c r="E737" s="19"/>
-      <c r="F737" s="19"/>
-      <c r="G737" s="19"/>
-      <c r="H737" s="19"/>
-      <c r="I737" s="20"/>
-    </row>
-    <row r="739" spans="3:10">
-      <c r="D739" t="s">
+      <c r="E749" s="19"/>
+      <c r="F749" s="19"/>
+      <c r="G749" s="19"/>
+      <c r="H749" s="19"/>
+      <c r="I749" s="20"/>
+    </row>
+    <row r="751" spans="3:9">
+      <c r="D751" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="741" spans="3:10">
-      <c r="D741" t="s">
+    <row r="753" spans="3:10">
+      <c r="D753" t="s">
         <v>1659</v>
       </c>
-      <c r="J741" s="7" t="s">
+      <c r="J753" s="7" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="742" spans="3:10">
-      <c r="D742" t="s">
+    <row r="754" spans="3:10">
+      <c r="D754" t="s">
         <v>1656</v>
       </c>
-      <c r="J742" s="7" t="s">
+      <c r="J754" s="7" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="743" spans="3:10">
-      <c r="D743" t="s">
+    <row r="755" spans="3:10">
+      <c r="D755" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="745" spans="3:10">
-      <c r="D745" t="s">
+    <row r="757" spans="3:10">
+      <c r="D757" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="746" spans="3:10">
-      <c r="E746" t="s">
+    <row r="758" spans="3:10">
+      <c r="E758" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="749" spans="3:10">
-      <c r="C749" s="3" t="s">
+    <row r="761" spans="3:10">
+      <c r="C761" s="3" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="750" spans="3:10">
-      <c r="C750" s="3" t="s">
+    <row r="762" spans="3:10">
+      <c r="C762" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="F750" s="3" t="s">
+      <c r="F762" s="3" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="751" spans="3:10">
-      <c r="C751" t="s">
+    <row r="763" spans="3:10">
+      <c r="C763" t="s">
         <v>1501</v>
       </c>
-      <c r="F751" t="s">
+      <c r="F763" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="752" spans="3:10">
-      <c r="C752" t="s">
+    <row r="764" spans="3:10">
+      <c r="C764" t="s">
         <v>1513</v>
       </c>
-      <c r="F752" t="s">
+      <c r="F764" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="753" spans="3:6">
-      <c r="C753" t="s">
+    <row r="765" spans="3:10">
+      <c r="C765" t="s">
         <v>1544</v>
       </c>
-      <c r="F753" t="s">
+      <c r="F765" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="754" spans="3:6">
-      <c r="C754" t="s">
+    <row r="766" spans="3:10">
+      <c r="C766" t="s">
         <v>1577</v>
       </c>
-      <c r="F754" t="s">
+      <c r="F766" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="755" spans="3:6">
-      <c r="C755" t="s">
+    <row r="767" spans="3:10">
+      <c r="C767" t="s">
         <v>1545</v>
       </c>
-      <c r="F755" t="s">
+      <c r="F767" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="756" spans="3:6">
-      <c r="C756" t="s">
+    <row r="768" spans="3:10">
+      <c r="C768" t="s">
         <v>1580</v>
       </c>
-      <c r="F756" t="s">
+      <c r="F768" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="757" spans="3:6">
-      <c r="C757" t="s">
+    <row r="769" spans="3:6">
+      <c r="C769" t="s">
         <v>1582</v>
       </c>
-      <c r="F757" t="s">
+      <c r="F769" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="759" spans="3:6">
-      <c r="C759" s="3" t="s">
+    <row r="771" spans="3:6">
+      <c r="C771" s="3" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="760" spans="3:6">
-      <c r="C760" s="3"/>
-      <c r="D760" s="67" t="s">
+    <row r="772" spans="3:6">
+      <c r="C772" s="3"/>
+      <c r="D772" s="67" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="761" spans="3:6">
-      <c r="C761" s="3"/>
-    </row>
-    <row r="762" spans="3:6">
-      <c r="C762" s="3"/>
-      <c r="D762" t="s">
+    <row r="773" spans="3:6">
+      <c r="C773" s="3"/>
+    </row>
+    <row r="774" spans="3:6">
+      <c r="C774" s="3"/>
+      <c r="D774" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="763" spans="3:6">
-      <c r="C763" s="3"/>
-      <c r="D763" t="s">
+    <row r="775" spans="3:6">
+      <c r="C775" s="3"/>
+      <c r="D775" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="764" spans="3:6">
-      <c r="C764" s="3"/>
-    </row>
-    <row r="765" spans="3:6">
-      <c r="C765" s="3"/>
-      <c r="D765" t="s">
+    <row r="776" spans="3:6">
+      <c r="C776" s="3"/>
+    </row>
+    <row r="777" spans="3:6">
+      <c r="C777" s="3"/>
+      <c r="D777" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="766" spans="3:6">
-      <c r="C766" s="3"/>
-      <c r="E766" s="67" t="s">
+    <row r="778" spans="3:6">
+      <c r="C778" s="3"/>
+      <c r="E778" s="67" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="767" spans="3:6">
-      <c r="C767" s="3"/>
-      <c r="E767" s="67"/>
-    </row>
-    <row r="768" spans="3:6">
-      <c r="C768" s="3"/>
-      <c r="E768" t="s">
+    <row r="779" spans="3:6">
+      <c r="C779" s="3"/>
+      <c r="E779" s="67"/>
+    </row>
+    <row r="780" spans="3:6">
+      <c r="C780" s="3"/>
+      <c r="E780" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="769" spans="3:6">
-      <c r="C769" s="3"/>
-      <c r="F769" s="2" t="s">
+    <row r="781" spans="3:6">
+      <c r="C781" s="3"/>
+      <c r="F781" s="2" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="770" spans="3:6">
-      <c r="C770" s="3"/>
-    </row>
-    <row r="771" spans="3:6">
-      <c r="C771" s="3"/>
-      <c r="E771" t="s">
+    <row r="782" spans="3:6">
+      <c r="C782" s="3"/>
+    </row>
+    <row r="783" spans="3:6">
+      <c r="C783" s="3"/>
+      <c r="E783" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="772" spans="3:6">
-      <c r="F772" t="s">
+    <row r="784" spans="3:6">
+      <c r="F784" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="774" spans="3:6">
-      <c r="E774" t="s">
+    <row r="786" spans="3:6">
+      <c r="E786" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="775" spans="3:6">
-      <c r="F775" t="s">
+    <row r="787" spans="3:6">
+      <c r="F787" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="776" spans="3:6">
-      <c r="F776" t="s">
+    <row r="788" spans="3:6">
+      <c r="F788" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="777" spans="3:6">
-      <c r="F777" t="s">
+    <row r="789" spans="3:6">
+      <c r="F789" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="778" spans="3:6">
-      <c r="F778" t="s">
+    <row r="790" spans="3:6">
+      <c r="F790" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="780" spans="3:6">
-      <c r="C780" s="3" t="s">
+    <row r="792" spans="3:6">
+      <c r="C792" s="3" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="781" spans="3:6">
-      <c r="D781" t="s">
+    <row r="793" spans="3:6">
+      <c r="D793" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="783" spans="3:6">
-      <c r="D783" t="s">
+    <row r="795" spans="3:6">
+      <c r="D795" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="784" spans="3:6">
-      <c r="D784" t="s">
+    <row r="796" spans="3:6">
+      <c r="D796" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="785" spans="4:5">
-      <c r="D785" t="s">
+    <row r="797" spans="3:6">
+      <c r="D797" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="786" spans="4:5">
-      <c r="D786" t="s">
+    <row r="798" spans="3:6">
+      <c r="D798" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="788" spans="4:5">
-      <c r="D788" t="s">
+    <row r="800" spans="3:6">
+      <c r="D800" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="789" spans="4:5">
-      <c r="E789" t="s">
+    <row r="801" spans="4:5">
+      <c r="E801" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="790" spans="4:5">
-      <c r="E790" t="s">
+    <row r="802" spans="4:5">
+      <c r="E802" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="791" spans="4:5">
-      <c r="E791" t="s">
+    <row r="803" spans="4:5">
+      <c r="E803" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="792" spans="4:5">
-      <c r="E792" t="s">
+    <row r="804" spans="4:5">
+      <c r="E804" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="793" spans="4:5">
-      <c r="E793" t="s">
+    <row r="805" spans="4:5">
+      <c r="E805" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="794" spans="4:5">
-      <c r="E794" t="s">
+    <row r="806" spans="4:5">
+      <c r="E806" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="795" spans="4:5">
-      <c r="E795" t="s">
+    <row r="807" spans="4:5">
+      <c r="E807" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="797" spans="4:5">
-      <c r="D797" t="s">
+    <row r="809" spans="4:5">
+      <c r="D809" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="798" spans="4:5">
-      <c r="E798" s="67" t="s">
+    <row r="810" spans="4:5">
+      <c r="E810" s="67" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="800" spans="4:5">
-      <c r="E800" t="s">
+    <row r="812" spans="4:5">
+      <c r="E812" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="801" spans="3:6">
-      <c r="E801" t="s">
+    <row r="813" spans="4:5">
+      <c r="E813" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="802" spans="3:6">
-      <c r="E802" t="s">
+    <row r="814" spans="4:5">
+      <c r="E814" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="804" spans="3:6">
-      <c r="E804" t="s">
+    <row r="816" spans="4:5">
+      <c r="E816" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="806" spans="3:6">
-      <c r="F806" s="67" t="s">
+    <row r="818" spans="3:6">
+      <c r="F818" s="67" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="807" spans="3:6">
-      <c r="F807" t="s">
+    <row r="819" spans="3:6">
+      <c r="F819" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="808" spans="3:6">
-      <c r="F808" t="s">
+    <row r="820" spans="3:6">
+      <c r="F820" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="809" spans="3:6">
-      <c r="F809" t="s">
+    <row r="821" spans="3:6">
+      <c r="F821" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="810" spans="3:6">
-      <c r="F810" t="s">
+    <row r="822" spans="3:6">
+      <c r="F822" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="811" spans="3:6">
-      <c r="F811" t="s">
+    <row r="823" spans="3:6">
+      <c r="F823" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="812" spans="3:6">
-      <c r="C812" s="3" t="s">
+    <row r="824" spans="3:6">
+      <c r="C824" s="3" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="813" spans="3:6">
-      <c r="C813" s="3"/>
-      <c r="D813" t="s">
+    <row r="825" spans="3:6">
+      <c r="C825" s="3"/>
+      <c r="D825" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="814" spans="3:6">
-      <c r="C814" s="3"/>
-      <c r="D814" t="s">
+    <row r="826" spans="3:6">
+      <c r="C826" s="3"/>
+      <c r="D826" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="815" spans="3:6">
-      <c r="C815" s="3"/>
-      <c r="D815" t="s">
+    <row r="827" spans="3:6">
+      <c r="C827" s="3"/>
+      <c r="D827" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="816" spans="3:6">
-      <c r="C816" s="3"/>
-    </row>
-    <row r="817" spans="2:7">
-      <c r="C817" s="3"/>
-      <c r="D817" t="s">
+    <row r="828" spans="3:6">
+      <c r="C828" s="3"/>
+    </row>
+    <row r="829" spans="3:6">
+      <c r="C829" s="3"/>
+      <c r="D829" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="818" spans="2:7">
-      <c r="C818" s="3"/>
-      <c r="E818" t="s">
+    <row r="830" spans="3:6">
+      <c r="C830" s="3"/>
+      <c r="E830" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="819" spans="2:7">
-      <c r="C819" s="3"/>
-      <c r="E819" t="s">
+    <row r="831" spans="3:6">
+      <c r="C831" s="3"/>
+      <c r="E831" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="823" spans="2:7">
-      <c r="B823" t="s">
+    <row r="835" spans="2:10">
+      <c r="B835" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="824" spans="2:7">
-      <c r="B824" t="s">
+    <row r="836" spans="2:10">
+      <c r="B836" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="825" spans="2:7">
-      <c r="B825" t="s">
+    <row r="837" spans="2:10">
+      <c r="B837" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="826" spans="2:7">
-      <c r="B826" t="s">
+    <row r="838" spans="2:10">
+      <c r="B838" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="827" spans="2:7">
-      <c r="B827" t="s">
+    <row r="839" spans="2:10">
+      <c r="B839" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="828" spans="2:7">
-      <c r="B828" t="s">
+    <row r="840" spans="2:10">
+      <c r="B840" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="830" spans="2:7">
-      <c r="B830" t="s">
+    <row r="842" spans="2:10">
+      <c r="B842" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="831" spans="2:7">
-      <c r="B831" t="s">
+    <row r="843" spans="2:10">
+      <c r="B843" t="s">
         <v>1434</v>
       </c>
-      <c r="G831" s="8" t="s">
+      <c r="G843" s="8" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="832" spans="2:7">
-      <c r="B832" t="s">
+    <row r="844" spans="2:10">
+      <c r="B844" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="834" spans="1:10">
-      <c r="B834" t="s">
+    <row r="846" spans="2:10">
+      <c r="B846" t="s">
         <v>1435</v>
       </c>
-      <c r="G834" s="8" t="s">
+      <c r="G846" s="8" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="835" spans="1:10">
-      <c r="B835" t="s">
+    <row r="847" spans="2:10">
+      <c r="B847" t="s">
         <v>1432</v>
       </c>
-      <c r="H835" t="s">
+      <c r="H847" t="s">
         <v>1570</v>
       </c>
-      <c r="J835" t="s">
+      <c r="J847" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="836" spans="1:10">
-      <c r="H836" t="s">
+    <row r="848" spans="2:10">
+      <c r="H848" t="s">
         <v>1571</v>
       </c>
-      <c r="J836" t="s">
+      <c r="J848" t="s">
         <v>1572</v>
-      </c>
-    </row>
-    <row r="837" spans="1:10">
-      <c r="B837" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="838" spans="1:10">
-      <c r="B838" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="839" spans="1:10">
-      <c r="B839" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="840" spans="1:10">
-      <c r="B840" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="844" spans="1:10">
-      <c r="A844" s="32" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="845" spans="1:10">
-      <c r="B845" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="846" spans="1:10">
-      <c r="B846" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="848" spans="1:10">
-      <c r="B848" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="B849" t="s">
-        <v>1246</v>
+        <v>31</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="B850" t="s">
-        <v>1247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="B851" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="B852" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="B853" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2">
-      <c r="B854" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2">
-      <c r="B855" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="856" spans="1:2">
-      <c r="B856" t="s">
-        <v>48</v>
+      <c r="A856" s="32" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="B857" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="B858" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="B860" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="861" spans="1:2">
-      <c r="A861" s="32" t="s">
-        <v>828</v>
+      <c r="B861" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="B862" t="s">
-        <v>32</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="B863" t="s">
-        <v>1135</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="B864" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="B865" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="B866" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="B867" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="B868" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="32" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="B874" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="B875" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="B876" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="867" spans="2:12">
-      <c r="B867" t="s">
+    <row r="879" spans="1:2">
+      <c r="B879" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="868" spans="2:12">
-      <c r="B868" t="s">
+    <row r="880" spans="1:2">
+      <c r="B880" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="869" spans="2:12">
-      <c r="B869" t="s">
+    <row r="881" spans="2:12">
+      <c r="B881" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="870" spans="2:12">
-      <c r="B870" t="s">
+    <row r="882" spans="2:12">
+      <c r="B882" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="873" spans="2:12">
-      <c r="B873" t="s">
+    <row r="885" spans="2:12">
+      <c r="B885" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="874" spans="2:12">
-      <c r="B874" t="s">
+    <row r="886" spans="2:12">
+      <c r="B886" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="875" spans="2:12">
-      <c r="B875" t="s">
+    <row r="887" spans="2:12">
+      <c r="B887" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="876" spans="2:12">
-      <c r="B876" t="s">
+    <row r="888" spans="2:12">
+      <c r="B888" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="877" spans="2:12">
-      <c r="B877" t="s">
+    <row r="889" spans="2:12">
+      <c r="B889" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="878" spans="2:12">
-      <c r="B878" t="s">
+    <row r="890" spans="2:12">
+      <c r="B890" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="879" spans="2:12">
-      <c r="H879" t="s">
+    <row r="891" spans="2:12">
+      <c r="H891" t="s">
         <v>1179</v>
       </c>
-      <c r="K879" t="s">
+      <c r="K891" t="s">
         <v>557</v>
       </c>
-      <c r="L879" t="s">
+      <c r="L891" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="880" spans="2:12">
-      <c r="B880" t="s">
+    <row r="892" spans="2:12">
+      <c r="B892" t="s">
         <v>1181</v>
       </c>
-      <c r="L880" t="s">
+      <c r="L892" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="881" spans="1:12">
-      <c r="B881" t="s">
+    <row r="893" spans="2:12">
+      <c r="B893" t="s">
         <v>1182</v>
       </c>
-      <c r="L881" t="s">
+      <c r="L893" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="882" spans="1:12">
-      <c r="L882" s="7" t="s">
+    <row r="894" spans="2:12">
+      <c r="L894" s="7" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="883" spans="1:12">
-      <c r="B883" t="s">
+    <row r="895" spans="2:12">
+      <c r="B895" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="884" spans="1:12">
-      <c r="B884" t="s">
+    <row r="896" spans="2:12">
+      <c r="B896" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="885" spans="1:12">
-      <c r="B885" t="s">
+    <row r="897" spans="1:10">
+      <c r="B897" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="886" spans="1:12">
-      <c r="B886" t="s">
+    <row r="898" spans="1:10">
+      <c r="B898" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="888" spans="1:12">
-      <c r="B888" t="s">
+    <row r="900" spans="1:10">
+      <c r="B900" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="889" spans="1:12">
-      <c r="A889" s="1"/>
-      <c r="B889" t="s">
+    <row r="901" spans="1:10">
+      <c r="A901" s="1"/>
+      <c r="B901" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="890" spans="1:12">
-      <c r="B890" t="s">
+    <row r="902" spans="1:10">
+      <c r="B902" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="892" spans="1:12">
-      <c r="C892" t="s">
+    <row r="904" spans="1:10">
+      <c r="C904" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="893" spans="1:12">
-      <c r="C893" t="s">
+    <row r="905" spans="1:10">
+      <c r="C905" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="894" spans="1:12">
-      <c r="C894" t="s">
+    <row r="906" spans="1:10">
+      <c r="C906" t="s">
         <v>1187</v>
       </c>
-      <c r="J894" t="s">
+      <c r="J906" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="895" spans="1:12">
-      <c r="C895" t="s">
+    <row r="907" spans="1:10">
+      <c r="C907" t="s">
         <v>1176</v>
       </c>
-      <c r="J895" s="39" t="s">
+      <c r="J907" s="39" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="896" spans="1:12">
-      <c r="C896" t="s">
+    <row r="908" spans="1:10">
+      <c r="C908" t="s">
         <v>928</v>
       </c>
-      <c r="J896" t="s">
+      <c r="J908" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="897" spans="1:13">
-      <c r="C897" t="s">
+    <row r="909" spans="1:10">
+      <c r="C909" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="898" spans="1:13">
-      <c r="C898" t="s">
+    <row r="910" spans="1:10">
+      <c r="C910" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="899" spans="1:13">
-      <c r="C899" t="s">
+    <row r="911" spans="1:10">
+      <c r="C911" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="900" spans="1:13">
-      <c r="C900" t="s">
+    <row r="912" spans="1:10">
+      <c r="C912" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="902" spans="1:13">
-      <c r="C902" t="s">
+    <row r="914" spans="1:20">
+      <c r="C914" t="s">
         <v>819</v>
       </c>
-      <c r="G902" t="s">
+      <c r="G914" t="s">
         <v>1179</v>
       </c>
-      <c r="I902" t="s">
+      <c r="I914" t="s">
         <v>557</v>
       </c>
-      <c r="L902" t="s">
+      <c r="L914" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="903" spans="1:13">
-      <c r="A903" t="s">
+    <row r="915" spans="1:20">
+      <c r="A915" t="s">
         <v>1184</v>
       </c>
-      <c r="C903" t="s">
+      <c r="C915" t="s">
         <v>43</v>
       </c>
-      <c r="G903" t="s">
+      <c r="G915" t="s">
         <v>1186</v>
       </c>
-      <c r="L903" t="s">
+      <c r="L915" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="904" spans="1:13">
-      <c r="A904" t="s">
+    <row r="916" spans="1:20">
+      <c r="A916" t="s">
         <v>1189</v>
       </c>
-      <c r="B904" t="s">
+      <c r="B916" t="s">
         <v>557</v>
       </c>
-      <c r="C904" t="s">
+      <c r="C916" t="s">
         <v>476</v>
       </c>
-      <c r="G904" s="38" t="s">
+      <c r="G916" s="38" t="s">
         <v>1180</v>
       </c>
-      <c r="J904" t="s">
+      <c r="J916" t="s">
         <v>557</v>
       </c>
-      <c r="L904" t="s">
+      <c r="L916" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="905" spans="1:13">
-      <c r="A905" t="s">
+    <row r="917" spans="1:20">
+      <c r="A917" t="s">
         <v>1190</v>
       </c>
-      <c r="B905" t="s">
+      <c r="B917" t="s">
         <v>557</v>
       </c>
-      <c r="G905" t="s">
+      <c r="G917" t="s">
         <v>1179</v>
       </c>
-      <c r="J905" t="s">
+      <c r="J917" t="s">
         <v>557</v>
       </c>
-      <c r="L905" t="s">
+      <c r="L917" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="906" spans="1:13">
-      <c r="A906" t="s">
+    <row r="918" spans="1:20">
+      <c r="A918" t="s">
         <v>1191</v>
       </c>
-      <c r="B906" t="s">
+      <c r="B918" t="s">
         <v>557</v>
       </c>
-      <c r="G906" t="s">
+      <c r="G918" t="s">
         <v>1188</v>
       </c>
-      <c r="K906" t="s">
+      <c r="K918" t="s">
         <v>557</v>
       </c>
-      <c r="L906" t="s">
+      <c r="L918" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="907" spans="1:13">
-      <c r="A907" t="s">
+    <row r="919" spans="1:20">
+      <c r="A919" t="s">
         <v>1168</v>
       </c>
-      <c r="B907" t="s">
+      <c r="B919" t="s">
         <v>557</v>
       </c>
-      <c r="G907" t="s">
+      <c r="G919" t="s">
         <v>1185</v>
       </c>
-      <c r="L907" t="s">
+      <c r="L919" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="908" spans="1:13">
-      <c r="M908" t="s">
+    <row r="920" spans="1:20">
+      <c r="M920" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="909" spans="1:13">
-      <c r="M909" t="s">
+    <row r="921" spans="1:20">
+      <c r="M921" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="910" spans="1:13">
-      <c r="M910" t="s">
+    <row r="922" spans="1:20">
+      <c r="M922" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="911" spans="1:13">
-      <c r="M911" t="s">
+    <row r="923" spans="1:20">
+      <c r="M923" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="912" spans="1:13">
-      <c r="M912" t="s">
+    <row r="924" spans="1:20">
+      <c r="M924" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="913" spans="2:20">
-      <c r="M913" t="s">
+    <row r="925" spans="1:20">
+      <c r="M925" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="915" spans="2:20">
-      <c r="N915" t="s">
+    <row r="927" spans="1:20">
+      <c r="N927" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="916" spans="2:20">
-      <c r="N916" s="24" t="s">
+    <row r="928" spans="1:20">
+      <c r="N928" s="24" t="s">
         <v>1203</v>
       </c>
-      <c r="O916" s="24" t="s">
+      <c r="O928" s="24" t="s">
         <v>1204</v>
       </c>
-      <c r="P916" s="24" t="s">
+      <c r="P928" s="24" t="s">
         <v>1206</v>
       </c>
-      <c r="Q916" s="24" t="s">
+      <c r="Q928" s="24" t="s">
         <v>1208</v>
       </c>
-      <c r="R916" s="24" t="s">
+      <c r="R928" s="24" t="s">
         <v>1209</v>
       </c>
-      <c r="S916" s="24" t="s">
+      <c r="S928" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="T916" s="44" t="s">
+      <c r="T928" s="44" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="917" spans="2:20">
-      <c r="B917" s="40" t="s">
+    <row r="929" spans="2:20">
+      <c r="B929" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="E917" s="8" t="s">
+      <c r="E929" s="8" t="s">
         <v>1193</v>
       </c>
-      <c r="H917" s="41" t="s">
+      <c r="H929" s="41" t="s">
         <v>1194</v>
       </c>
-      <c r="K917" s="40" t="s">
+      <c r="K929" s="40" t="s">
         <v>1184</v>
       </c>
-      <c r="N917" s="24" t="s">
+      <c r="N929" s="24" t="s">
         <v>1205</v>
       </c>
-      <c r="O917" s="24" t="s">
+      <c r="O929" s="24" t="s">
         <v>1205</v>
       </c>
-      <c r="P917" s="24" t="s">
+      <c r="P929" s="24" t="s">
         <v>1207</v>
       </c>
-      <c r="Q917" s="24" t="s">
+      <c r="Q929" s="24" t="s">
         <v>1207</v>
       </c>
-      <c r="R917" s="24" t="s">
+      <c r="R929" s="24" t="s">
         <v>1210</v>
       </c>
-      <c r="S917" s="24" t="s">
+      <c r="S929" s="24" t="s">
         <v>1211</v>
       </c>
-      <c r="T917" s="44" t="s">
+      <c r="T929" s="44" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="918" spans="2:20">
-      <c r="B918" s="21" t="s">
+    <row r="930" spans="2:20">
+      <c r="B930" s="21" t="s">
         <v>1215</v>
       </c>
-      <c r="C918" s="23"/>
-      <c r="E918" s="21" t="s">
+      <c r="C930" s="23"/>
+      <c r="E930" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="F918" s="23"/>
-      <c r="H918" s="21" t="s">
+      <c r="F930" s="23"/>
+      <c r="H930" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="I918" s="23"/>
-      <c r="K918" s="21" t="s">
+      <c r="I930" s="23"/>
+      <c r="K930" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="L918" s="23"/>
-    </row>
-    <row r="919" spans="2:20">
-      <c r="B919" s="9"/>
-      <c r="C919" s="9"/>
-      <c r="E919" s="9"/>
-      <c r="F919" s="9"/>
-      <c r="H919" s="9"/>
-      <c r="I919" s="9"/>
-      <c r="K919" s="9"/>
-      <c r="L919" s="9"/>
-    </row>
-    <row r="920" spans="2:20">
-      <c r="B920" s="21" t="s">
+      <c r="L930" s="23"/>
+    </row>
+    <row r="931" spans="2:20">
+      <c r="B931" s="9"/>
+      <c r="C931" s="9"/>
+      <c r="E931" s="9"/>
+      <c r="F931" s="9"/>
+      <c r="H931" s="9"/>
+      <c r="I931" s="9"/>
+      <c r="K931" s="9"/>
+      <c r="L931" s="9"/>
+    </row>
+    <row r="932" spans="2:20">
+      <c r="B932" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="C920" s="23"/>
-      <c r="E920" s="21" t="s">
+      <c r="C932" s="23"/>
+      <c r="E932" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="F920" s="23"/>
-      <c r="H920" s="21" t="s">
+      <c r="F932" s="23"/>
+      <c r="H932" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="I920" s="23"/>
-      <c r="K920" s="21" t="s">
+      <c r="I932" s="23"/>
+      <c r="K932" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="L920" s="23"/>
-    </row>
-    <row r="921" spans="2:20">
-      <c r="B921" s="9"/>
-      <c r="C921" s="9"/>
-      <c r="E921" s="9"/>
-      <c r="F921" s="9"/>
-      <c r="H921" s="9"/>
-      <c r="I921" s="9"/>
-      <c r="K921" s="9"/>
-      <c r="L921" s="9"/>
-    </row>
-    <row r="922" spans="2:20">
-      <c r="B922" s="9"/>
-      <c r="C922" s="9"/>
-      <c r="E922" s="9"/>
-      <c r="F922" s="9"/>
-      <c r="H922" s="9"/>
-      <c r="I922" s="9"/>
-    </row>
-    <row r="923" spans="2:20" ht="15" thickBot="1">
-      <c r="G923" s="43" t="s">
+      <c r="L932" s="23"/>
+    </row>
+    <row r="933" spans="2:20">
+      <c r="B933" s="9"/>
+      <c r="C933" s="9"/>
+      <c r="E933" s="9"/>
+      <c r="F933" s="9"/>
+      <c r="H933" s="9"/>
+      <c r="I933" s="9"/>
+      <c r="K933" s="9"/>
+      <c r="L933" s="9"/>
+    </row>
+    <row r="934" spans="2:20">
+      <c r="B934" s="9"/>
+      <c r="C934" s="9"/>
+      <c r="E934" s="9"/>
+      <c r="F934" s="9"/>
+      <c r="H934" s="9"/>
+      <c r="I934" s="9"/>
+    </row>
+    <row r="935" spans="2:20" ht="15" thickBot="1">
+      <c r="G935" s="43" t="s">
         <v>1241</v>
       </c>
-      <c r="J923" s="52" t="s">
+      <c r="J935" s="52" t="s">
         <v>1222</v>
       </c>
-      <c r="K923" s="27" t="s">
+      <c r="K935" s="27" t="s">
         <v>1203</v>
       </c>
-      <c r="L923" s="27" t="s">
+      <c r="L935" s="27" t="s">
         <v>1204</v>
       </c>
-      <c r="M923" s="27" t="s">
+      <c r="M935" s="27" t="s">
         <v>1206</v>
       </c>
-      <c r="N923" s="27" t="s">
+      <c r="N935" s="27" t="s">
         <v>1208</v>
       </c>
-      <c r="O923" s="27" t="s">
+      <c r="O935" s="27" t="s">
         <v>1209</v>
       </c>
-      <c r="P923" s="27" t="s">
+      <c r="P935" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="924" spans="2:20" ht="15" thickBot="1">
-      <c r="J924" s="48" t="s">
+    <row r="936" spans="2:20" ht="15" thickBot="1">
+      <c r="J936" s="48" t="s">
         <v>1223</v>
       </c>
-      <c r="K924" s="45" t="s">
+      <c r="K936" s="45" t="s">
         <v>1216</v>
       </c>
-      <c r="L924" s="46" t="s">
+      <c r="L936" s="46" t="s">
         <v>1217</v>
       </c>
-      <c r="M924" s="46" t="s">
+      <c r="M936" s="46" t="s">
         <v>1218</v>
       </c>
-      <c r="N924" s="46" t="s">
+      <c r="N936" s="46" t="s">
         <v>1219</v>
       </c>
-      <c r="O924" s="46" t="s">
+      <c r="O936" s="46" t="s">
         <v>1220</v>
       </c>
-      <c r="P924" s="47" t="s">
+      <c r="P936" s="47" t="s">
         <v>1221</v>
       </c>
-      <c r="Q924" t="s">
+      <c r="Q936" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="925" spans="2:20">
-      <c r="J925" s="42" t="s">
+    <row r="937" spans="2:20">
+      <c r="J937" s="42" t="s">
         <v>1224</v>
       </c>
-      <c r="K925" s="49" t="s">
+      <c r="K937" s="49" t="s">
         <v>1233</v>
       </c>
-      <c r="L925" s="12"/>
-      <c r="M925" s="12"/>
-      <c r="N925" s="12"/>
-      <c r="O925" s="12"/>
-      <c r="P925" s="12"/>
-    </row>
-    <row r="926" spans="2:20">
-      <c r="J926" s="42" t="s">
+      <c r="L937" s="12"/>
+      <c r="M937" s="12"/>
+      <c r="N937" s="12"/>
+      <c r="O937" s="12"/>
+      <c r="P937" s="12"/>
+    </row>
+    <row r="938" spans="2:20">
+      <c r="J938" s="42" t="s">
         <v>1225</v>
       </c>
-      <c r="K926" s="50" t="s">
+      <c r="K938" s="50" t="s">
         <v>1234</v>
       </c>
-      <c r="L926" s="24"/>
-      <c r="M926" s="24"/>
-      <c r="N926" s="24"/>
-      <c r="O926" s="24"/>
-      <c r="P926" s="24"/>
-    </row>
-    <row r="927" spans="2:20">
-      <c r="J927" s="42" t="s">
+      <c r="L938" s="24"/>
+      <c r="M938" s="24"/>
+      <c r="N938" s="24"/>
+      <c r="O938" s="24"/>
+      <c r="P938" s="24"/>
+    </row>
+    <row r="939" spans="2:20">
+      <c r="J939" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="K927" s="50" t="s">
+      <c r="K939" s="50" t="s">
         <v>1235</v>
       </c>
-      <c r="L927" s="24"/>
-      <c r="M927" s="24"/>
-      <c r="N927" s="24"/>
-      <c r="O927" s="24"/>
-      <c r="P927" s="24"/>
-    </row>
-    <row r="928" spans="2:20">
-      <c r="I928" t="s">
+      <c r="L939" s="24"/>
+      <c r="M939" s="24"/>
+      <c r="N939" s="24"/>
+      <c r="O939" s="24"/>
+      <c r="P939" s="24"/>
+    </row>
+    <row r="940" spans="2:20">
+      <c r="I940" t="s">
         <v>557</v>
       </c>
-      <c r="K928" s="51"/>
-      <c r="L928" s="9"/>
-      <c r="M928" s="9"/>
-      <c r="N928" s="9"/>
-      <c r="O928" s="9"/>
-      <c r="P928" s="9"/>
-    </row>
-    <row r="929" spans="2:14">
-      <c r="B929" t="s">
+      <c r="K940" s="51"/>
+      <c r="L940" s="9"/>
+      <c r="M940" s="9"/>
+      <c r="N940" s="9"/>
+      <c r="O940" s="9"/>
+      <c r="P940" s="9"/>
+    </row>
+    <row r="941" spans="2:20">
+      <c r="B941" t="s">
         <v>1239</v>
       </c>
-      <c r="M929" t="s">
+      <c r="M941" t="s">
         <v>1202</v>
       </c>
-      <c r="N929" s="48" t="s">
+      <c r="N941" s="48" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="930" spans="2:14">
-      <c r="K930" s="43" t="s">
+    <row r="942" spans="2:20">
+      <c r="K942" s="43" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="931" spans="2:14">
-      <c r="B931" t="s">
+    <row r="943" spans="2:20">
+      <c r="B943" t="s">
         <v>1240</v>
       </c>
-      <c r="E931" t="s">
+      <c r="E943" t="s">
         <v>1238</v>
       </c>
-      <c r="K931" t="s">
+      <c r="K943" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="932" spans="2:14">
-      <c r="B932" t="s">
+    <row r="944" spans="2:20">
+      <c r="B944" t="s">
         <v>1236</v>
       </c>
-      <c r="K932" t="s">
+      <c r="K944" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="933" spans="2:14">
-      <c r="B933" t="s">
+    <row r="945" spans="2:13">
+      <c r="B945" t="s">
         <v>1242</v>
       </c>
-      <c r="K933" t="s">
+      <c r="K945" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="934" spans="2:14">
-      <c r="B934" t="s">
+    <row r="946" spans="2:13">
+      <c r="B946" t="s">
         <v>1243</v>
       </c>
-      <c r="K934" t="s">
+      <c r="K946" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="935" spans="2:14">
-      <c r="B935" t="s">
+    <row r="947" spans="2:13">
+      <c r="B947" t="s">
         <v>1237</v>
       </c>
-      <c r="K935" t="s">
+      <c r="K947" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="936" spans="2:14">
-      <c r="K936" t="s">
+    <row r="948" spans="2:13">
+      <c r="K948" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="937" spans="2:14">
-      <c r="K937" t="s">
+    <row r="949" spans="2:13">
+      <c r="K949" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="939" spans="2:14">
-      <c r="K939" t="s">
+    <row r="951" spans="2:13">
+      <c r="K951" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="940" spans="2:14">
-      <c r="K940" t="s">
+    <row r="952" spans="2:13">
+      <c r="K952" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="941" spans="2:14">
-      <c r="K941" t="s">
+    <row r="953" spans="2:13">
+      <c r="K953" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="942" spans="2:14">
-      <c r="L942" t="s">
+    <row r="954" spans="2:13">
+      <c r="L954" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="943" spans="2:14">
-      <c r="L943" t="s">
+    <row r="955" spans="2:13">
+      <c r="L955" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="944" spans="2:14">
-      <c r="L944" t="s">
+    <row r="956" spans="2:13">
+      <c r="L956" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="945" spans="1:13">
-      <c r="L945" t="s">
+    <row r="957" spans="2:13">
+      <c r="L957" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="946" spans="1:13">
-      <c r="M946" t="s">
+    <row r="958" spans="2:13">
+      <c r="M958" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="950" spans="1:13">
-      <c r="A950" s="65" t="s">
+    <row r="962" spans="1:4">
+      <c r="A962" s="65" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="951" spans="1:13">
-      <c r="A951" s="65"/>
-      <c r="B951" t="s">
+    <row r="963" spans="1:4">
+      <c r="A963" s="65"/>
+      <c r="B963" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="953" spans="1:13">
-      <c r="B953" s="65" t="s">
+    <row r="965" spans="1:4">
+      <c r="B965" s="65" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="954" spans="1:13">
-      <c r="B954" t="s">
+    <row r="966" spans="1:4">
+      <c r="B966" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="955" spans="1:13">
-      <c r="B955" t="s">
+    <row r="967" spans="1:4">
+      <c r="B967" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="957" spans="1:13">
-      <c r="B957" t="s">
+    <row r="969" spans="1:4">
+      <c r="B969" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="958" spans="1:13">
-      <c r="C958" t="s">
+    <row r="970" spans="1:4">
+      <c r="C970" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="960" spans="1:13">
-      <c r="C960" t="s">
+    <row r="972" spans="1:4">
+      <c r="C972" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="961" spans="2:4">
-      <c r="D961" t="s">
+    <row r="973" spans="1:4">
+      <c r="D973" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="963" spans="2:4">
-      <c r="B963" t="s">
+    <row r="975" spans="1:4">
+      <c r="B975" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="964" spans="2:4">
-      <c r="C964" t="s">
+    <row r="976" spans="1:4">
+      <c r="C976" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="965" spans="2:4">
-      <c r="C965" t="s">
+    <row r="977" spans="2:4">
+      <c r="C977" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="967" spans="2:4">
-      <c r="C967" s="2" t="s">
+    <row r="979" spans="2:4">
+      <c r="C979" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="969" spans="2:4">
-      <c r="B969" t="s">
+    <row r="981" spans="2:4">
+      <c r="B981" t="s">
         <v>1467</v>
-      </c>
-    </row>
-    <row r="970" spans="2:4">
-      <c r="C970" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="971" spans="2:4">
-      <c r="C971" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="972" spans="2:4">
-      <c r="D972" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="974" spans="2:4">
-      <c r="C974" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="976" spans="2:4">
-      <c r="C976" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="977" spans="2:4">
-      <c r="D977" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="978" spans="2:4">
-      <c r="D978" s="2" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="980" spans="2:4">
-      <c r="B980" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="981" spans="2:4">
-      <c r="C981" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="982" spans="2:4">
       <c r="C982" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="983" spans="2:4">
       <c r="C983" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="985" spans="2:4">
-      <c r="C985" t="s">
-        <v>1485</v>
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="984" spans="2:4">
+      <c r="D984" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="986" spans="2:4">
-      <c r="C986" s="65" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="987" spans="2:4">
-      <c r="C987" s="65" t="s">
-        <v>1483</v>
+      <c r="C986" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="988" spans="2:4">
       <c r="C988" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="989" spans="2:4">
+      <c r="D989" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="990" spans="2:4">
+      <c r="D990" s="2" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="992" spans="2:4">
+      <c r="B992" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="993" spans="3:4">
+      <c r="C993" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="994" spans="3:4">
+      <c r="C994" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="995" spans="3:4">
+      <c r="C995" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="997" spans="3:4">
+      <c r="C997" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="998" spans="3:4">
+      <c r="C998" s="65" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="999" spans="3:4">
+      <c r="C999" s="65" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:4">
+      <c r="C1000" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="989" spans="2:4">
-      <c r="C989" t="s">
+    <row r="1001" spans="3:4">
+      <c r="C1001" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="990" spans="2:4">
-      <c r="C990" t="s">
+    <row r="1002" spans="3:4">
+      <c r="C1002" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="992" spans="2:4">
-      <c r="C992" t="s">
+    <row r="1004" spans="3:4">
+      <c r="C1004" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="993" spans="2:13">
-      <c r="D993" t="s">
+    <row r="1005" spans="3:4">
+      <c r="D1005" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="995" spans="2:13">
-      <c r="C995" t="s">
+    <row r="1007" spans="3:4">
+      <c r="C1007" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="997" spans="2:13">
-      <c r="B997" s="3" t="s">
+    <row r="1009" spans="2:13">
+      <c r="B1009" s="3" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="998" spans="2:13">
-      <c r="C998" s="11" t="s">
+    <row r="1010" spans="2:13">
+      <c r="C1010" s="11" t="s">
         <v>1378</v>
       </c>
-      <c r="D998" s="13" t="s">
+      <c r="D1010" s="13" t="s">
         <v>1490</v>
       </c>
-      <c r="E998" s="15"/>
-      <c r="F998" s="13" t="s">
+      <c r="E1010" s="15"/>
+      <c r="F1010" s="13" t="s">
         <v>1491</v>
       </c>
-      <c r="G998" s="14"/>
-      <c r="H998" s="15"/>
-      <c r="I998" s="13" t="s">
+      <c r="G1010" s="14"/>
+      <c r="H1010" s="15"/>
+      <c r="I1010" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="J998" s="14"/>
-      <c r="K998" s="14"/>
-      <c r="L998" s="14"/>
-      <c r="M998" s="15"/>
-    </row>
-    <row r="999" spans="2:13">
-      <c r="C999" s="56">
+      <c r="J1010" s="14"/>
+      <c r="K1010" s="14"/>
+      <c r="L1010" s="14"/>
+      <c r="M1010" s="15"/>
+    </row>
+    <row r="1011" spans="2:13">
+      <c r="C1011" s="56">
         <v>1</v>
       </c>
-      <c r="D999" s="16" t="s">
+      <c r="D1011" s="16" t="s">
         <v>1492</v>
       </c>
-      <c r="E999" s="17"/>
-      <c r="F999" s="16" t="s">
+      <c r="E1011" s="17"/>
+      <c r="F1011" s="16" t="s">
         <v>1493</v>
       </c>
-      <c r="G999" s="9"/>
-      <c r="H999" s="17"/>
-      <c r="I999" s="16" t="s">
+      <c r="G1011" s="9"/>
+      <c r="H1011" s="17"/>
+      <c r="I1011" s="16" t="s">
         <v>1494</v>
       </c>
-      <c r="J999" s="9"/>
-      <c r="K999" s="9"/>
-      <c r="L999" s="9"/>
-      <c r="M999" s="17"/>
-    </row>
-    <row r="1000" spans="2:13">
-      <c r="C1000" s="56">
+      <c r="J1011" s="9"/>
+      <c r="K1011" s="9"/>
+      <c r="L1011" s="9"/>
+      <c r="M1011" s="17"/>
+    </row>
+    <row r="1012" spans="2:13">
+      <c r="C1012" s="56">
         <v>2</v>
       </c>
-      <c r="D1000" s="16" t="s">
+      <c r="D1012" s="16" t="s">
         <v>1495</v>
       </c>
-      <c r="E1000" s="17"/>
-      <c r="F1000" s="16" t="s">
+      <c r="E1012" s="17"/>
+      <c r="F1012" s="16" t="s">
         <v>1493</v>
       </c>
-      <c r="G1000" s="9"/>
-      <c r="H1000" s="17"/>
-      <c r="I1000" s="16" t="s">
+      <c r="G1012" s="9"/>
+      <c r="H1012" s="17"/>
+      <c r="I1012" s="16" t="s">
         <v>1496</v>
       </c>
-      <c r="J1000" s="9"/>
-      <c r="K1000" s="9"/>
-      <c r="L1000" s="9"/>
-      <c r="M1000" s="17"/>
-    </row>
-    <row r="1001" spans="2:13">
-      <c r="C1001" s="56">
+      <c r="J1012" s="9"/>
+      <c r="K1012" s="9"/>
+      <c r="L1012" s="9"/>
+      <c r="M1012" s="17"/>
+    </row>
+    <row r="1013" spans="2:13">
+      <c r="C1013" s="56">
         <v>3</v>
       </c>
-      <c r="D1001" s="16" t="s">
+      <c r="D1013" s="16" t="s">
         <v>1497</v>
       </c>
-      <c r="E1001" s="17"/>
-      <c r="F1001" s="29" t="s">
+      <c r="E1013" s="17"/>
+      <c r="F1013" s="29" t="s">
         <v>1498</v>
       </c>
-      <c r="G1001" s="9"/>
-      <c r="H1001" s="17"/>
-      <c r="I1001" s="29" t="s">
+      <c r="G1013" s="9"/>
+      <c r="H1013" s="17"/>
+      <c r="I1013" s="29" t="s">
         <v>1499</v>
       </c>
-      <c r="J1001" s="9"/>
-      <c r="K1001" s="9"/>
-      <c r="L1001" s="9"/>
-      <c r="M1001" s="17"/>
-    </row>
-    <row r="1002" spans="2:13">
-      <c r="C1002" s="56">
+      <c r="J1013" s="9"/>
+      <c r="K1013" s="9"/>
+      <c r="L1013" s="9"/>
+      <c r="M1013" s="17"/>
+    </row>
+    <row r="1014" spans="2:13">
+      <c r="C1014" s="56">
         <v>4</v>
       </c>
-      <c r="D1002" s="16" t="s">
+      <c r="D1014" s="16" t="s">
         <v>1500</v>
       </c>
-      <c r="E1002" s="17"/>
-      <c r="F1002" s="16" t="s">
+      <c r="E1014" s="17"/>
+      <c r="F1014" s="16" t="s">
         <v>1501</v>
       </c>
-      <c r="G1002" s="9"/>
-      <c r="H1002" s="17"/>
-      <c r="I1002" s="29" t="s">
+      <c r="G1014" s="9"/>
+      <c r="H1014" s="17"/>
+      <c r="I1014" s="29" t="s">
         <v>1502</v>
       </c>
-      <c r="J1002" s="9"/>
-      <c r="K1002" s="9"/>
-      <c r="L1002" s="9"/>
-      <c r="M1002" s="17"/>
-    </row>
-    <row r="1003" spans="2:13">
-      <c r="C1003" s="12">
+      <c r="J1014" s="9"/>
+      <c r="K1014" s="9"/>
+      <c r="L1014" s="9"/>
+      <c r="M1014" s="17"/>
+    </row>
+    <row r="1015" spans="2:13">
+      <c r="C1015" s="12">
         <v>5</v>
       </c>
-      <c r="D1003" s="18" t="s">
+      <c r="D1015" s="18" t="s">
         <v>1503</v>
       </c>
-      <c r="E1003" s="20"/>
-      <c r="F1003" s="18" t="s">
+      <c r="E1015" s="20"/>
+      <c r="F1015" s="18" t="s">
         <v>1504</v>
       </c>
-      <c r="G1003" s="19"/>
-      <c r="H1003" s="20"/>
-      <c r="I1003" s="18" t="s">
+      <c r="G1015" s="19"/>
+      <c r="H1015" s="20"/>
+      <c r="I1015" s="18" t="s">
         <v>1505</v>
       </c>
-      <c r="J1003" s="19"/>
-      <c r="K1003" s="19"/>
-      <c r="L1003" s="19"/>
-      <c r="M1003" s="20"/>
-    </row>
-    <row r="1006" spans="2:13">
-      <c r="B1006" t="s">
+      <c r="J1015" s="19"/>
+      <c r="K1015" s="19"/>
+      <c r="L1015" s="19"/>
+      <c r="M1015" s="20"/>
+    </row>
+    <row r="1018" spans="2:13">
+      <c r="B1018" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="1007" spans="2:13">
-      <c r="C1007" t="s">
+    <row r="1019" spans="2:13">
+      <c r="C1019" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="1008" spans="2:13">
-      <c r="C1008" t="s">
+    <row r="1020" spans="2:13">
+      <c r="C1020" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="1010" spans="1:4">
-      <c r="B1010" s="3" t="s">
+    <row r="1022" spans="2:13">
+      <c r="B1022" s="3" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="1011" spans="1:4">
-      <c r="B1011">
+    <row r="1023" spans="2:13">
+      <c r="B1023">
         <v>1</v>
       </c>
-      <c r="C1011" t="s">
+      <c r="C1023" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="1012" spans="1:4">
-      <c r="B1012">
+    <row r="1024" spans="2:13">
+      <c r="B1024">
         <v>2</v>
       </c>
-      <c r="C1012" t="s">
+      <c r="C1024" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="1013" spans="1:4">
-      <c r="B1013">
+    <row r="1025" spans="1:4">
+      <c r="B1025">
         <v>3</v>
       </c>
-      <c r="C1013" t="s">
+      <c r="C1025" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="1014" spans="1:4">
-      <c r="D1014" t="s">
+    <row r="1026" spans="1:4">
+      <c r="D1026" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="1015" spans="1:4">
-      <c r="B1015">
+    <row r="1027" spans="1:4">
+      <c r="B1027">
         <v>4</v>
       </c>
-      <c r="C1015" t="s">
+      <c r="C1027" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="1017" spans="1:4">
-      <c r="C1017" t="s">
+    <row r="1029" spans="1:4">
+      <c r="C1029" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="1020" spans="1:4">
-      <c r="A1020" s="3" t="s">
+    <row r="1032" spans="1:4">
+      <c r="A1032" s="3" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="1022" spans="1:4">
-      <c r="B1022" s="3" t="s">
+    <row r="1034" spans="1:4">
+      <c r="B1034" s="3" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="1023" spans="1:4">
-      <c r="B1023" t="s">
+    <row r="1035" spans="1:4">
+      <c r="B1035" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="1024" spans="1:4">
-      <c r="C1024" t="s">
+    <row r="1036" spans="1:4">
+      <c r="C1036" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="1025" spans="2:3">
-      <c r="C1025" t="s">
+    <row r="1037" spans="1:4">
+      <c r="C1037" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="1026" spans="2:3">
-      <c r="C1026" t="s">
+    <row r="1038" spans="1:4">
+      <c r="C1038" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="1027" spans="2:3">
-      <c r="C1027" t="s">
+    <row r="1039" spans="1:4">
+      <c r="C1039" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="1029" spans="2:3">
-      <c r="B1029" s="3" t="s">
+    <row r="1041" spans="2:4">
+      <c r="B1041" s="3" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="1030" spans="2:3">
-      <c r="C1030" t="s">
+    <row r="1042" spans="2:4">
+      <c r="C1042" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1031" spans="2:3">
-      <c r="C1031" t="s">
+    <row r="1043" spans="2:4">
+      <c r="C1043" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1032" spans="2:3">
-      <c r="C1032" t="s">
+    <row r="1044" spans="2:4">
+      <c r="C1044" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1034" spans="2:3">
-      <c r="B1034" t="s">
+    <row r="1046" spans="2:4">
+      <c r="B1046" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="1035" spans="2:3">
-      <c r="C1035" t="s">
+    <row r="1047" spans="2:4">
+      <c r="C1047" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="1037" spans="2:3">
-      <c r="C1037" t="s">
+    <row r="1049" spans="2:4">
+      <c r="C1049" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="1039" spans="2:3">
-      <c r="B1039" t="s">
+    <row r="1051" spans="2:4">
+      <c r="B1051" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="1040" spans="2:3">
-      <c r="C1040" t="s">
+    <row r="1052" spans="2:4">
+      <c r="C1052" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="1041" spans="2:10">
-      <c r="D1041" t="s">
+    <row r="1053" spans="2:4">
+      <c r="D1053" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="1043" spans="2:10">
-      <c r="B1043" t="s">
+    <row r="1055" spans="2:4">
+      <c r="B1055" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="1044" spans="2:10">
-      <c r="C1044" t="s">
+    <row r="1056" spans="2:4">
+      <c r="C1056" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="1045" spans="2:10">
-      <c r="C1045" s="66" t="s">
+    <row r="1057" spans="2:10">
+      <c r="C1057" s="66" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="1046" spans="2:10">
-      <c r="C1046" t="s">
+    <row r="1058" spans="2:10">
+      <c r="C1058" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="1047" spans="2:10">
-      <c r="C1047" s="66" t="s">
+    <row r="1059" spans="2:10">
+      <c r="C1059" s="66" t="s">
         <v>1536</v>
       </c>
-      <c r="J1047" t="s">
+      <c r="J1059" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="1049" spans="2:10">
-      <c r="C1049" s="66" t="s">
+    <row r="1061" spans="2:10">
+      <c r="C1061" s="66" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="1050" spans="2:10">
-      <c r="C1050" s="66" t="s">
+    <row r="1062" spans="2:10">
+      <c r="C1062" s="66" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="1051" spans="2:10">
-      <c r="C1051" t="s">
+    <row r="1063" spans="2:10">
+      <c r="C1063" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="1053" spans="2:10">
-      <c r="B1053" t="s">
+    <row r="1065" spans="2:10">
+      <c r="B1065" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="1055" spans="2:10">
-      <c r="C1055" t="s">
+    <row r="1067" spans="2:10">
+      <c r="C1067" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="1056" spans="2:10">
-      <c r="C1056" t="s">
+    <row r="1068" spans="2:10">
+      <c r="C1068" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="1057" spans="2:3">
-      <c r="C1057" t="s">
+    <row r="1069" spans="2:10">
+      <c r="C1069" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="1058" spans="2:3">
-      <c r="C1058" t="s">
+    <row r="1070" spans="2:10">
+      <c r="C1070" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="1059" spans="2:3">
-      <c r="C1059" t="s">
+    <row r="1071" spans="2:10">
+      <c r="C1071" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="1060" spans="2:3">
-      <c r="C1060" t="s">
+    <row r="1072" spans="2:10">
+      <c r="C1072" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="1061" spans="2:3">
-      <c r="C1061" t="s">
+    <row r="1073" spans="2:3">
+      <c r="C1073" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="1062" spans="2:3">
-      <c r="C1062" t="s">
+    <row r="1074" spans="2:3">
+      <c r="C1074" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="1064" spans="2:3">
-      <c r="C1064" t="s">
+    <row r="1076" spans="2:3">
+      <c r="C1076" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="1066" spans="2:3">
-      <c r="B1066" t="s">
+    <row r="1078" spans="2:3">
+      <c r="B1078" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="1067" spans="2:3">
-      <c r="C1067" t="s">
+    <row r="1079" spans="2:3">
+      <c r="C1079" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="1068" spans="2:3">
-      <c r="C1068" t="s">
+    <row r="1080" spans="2:3">
+      <c r="C1080" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="1070" spans="2:3">
-      <c r="C1070" s="3" t="s">
+    <row r="1082" spans="2:3">
+      <c r="C1082" s="3" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="1071" spans="2:3">
-      <c r="C1071" t="s">
+    <row r="1083" spans="2:3">
+      <c r="C1083" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="1072" spans="2:3">
-      <c r="C1072" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1073" spans="2:11">
-      <c r="C1073" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="1074" spans="2:11">
-      <c r="C1074" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1075" spans="2:11">
-      <c r="C1075" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="1076" spans="2:11">
-      <c r="C1076" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1077" spans="2:11">
-      <c r="C1077" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="1078" spans="2:11">
-      <c r="C1078" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1079" spans="2:11">
-      <c r="C1079" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="1080" spans="2:11">
-      <c r="C1080" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1081" spans="2:11">
-      <c r="C1081" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="1082" spans="2:11">
-      <c r="C1082" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1083" spans="2:11">
-      <c r="C1083" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="1084" spans="2:11">
+    <row r="1084" spans="2:3">
       <c r="C1084" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1085" spans="2:11">
+    <row r="1085" spans="2:3">
       <c r="C1085" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:3">
+      <c r="C1086" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:3">
+      <c r="C1087" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:3">
+      <c r="C1088" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:11">
+      <c r="C1089" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:11">
+      <c r="C1090" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:11">
+      <c r="C1091" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:11">
+      <c r="C1092" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:11">
+      <c r="C1093" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:11">
+      <c r="C1094" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:11">
+      <c r="C1095" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:11">
+      <c r="C1096" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:11">
+      <c r="C1097" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="1088" spans="2:11">
-      <c r="B1088" s="11" t="s">
+    <row r="1100" spans="2:11">
+      <c r="B1100" s="11" t="s">
         <v>1378</v>
       </c>
-      <c r="C1088" s="13" t="s">
+      <c r="C1100" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="D1088" s="14"/>
-      <c r="E1088" s="15"/>
-      <c r="F1088" s="13" t="s">
+      <c r="D1100" s="14"/>
+      <c r="E1100" s="15"/>
+      <c r="F1100" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G1088" s="14"/>
-      <c r="H1088" s="14"/>
-      <c r="I1088" s="14"/>
-      <c r="J1088" s="14"/>
-      <c r="K1088" s="15"/>
-    </row>
-    <row r="1089" spans="2:11">
-      <c r="B1089" s="56">
+      <c r="G1100" s="14"/>
+      <c r="H1100" s="14"/>
+      <c r="I1100" s="14"/>
+      <c r="J1100" s="14"/>
+      <c r="K1100" s="15"/>
+    </row>
+    <row r="1101" spans="2:11">
+      <c r="B1101" s="56">
         <v>1</v>
       </c>
-      <c r="C1089" s="16" t="s">
+      <c r="C1101" s="16" t="s">
         <v>1513</v>
       </c>
-      <c r="D1089" s="9"/>
-      <c r="E1089" s="17"/>
-      <c r="F1089" s="16" t="s">
+      <c r="D1101" s="9"/>
+      <c r="E1101" s="17"/>
+      <c r="F1101" s="16" t="s">
         <v>1552</v>
       </c>
-      <c r="G1089" s="9"/>
-      <c r="H1089" s="9"/>
-      <c r="I1089" s="9"/>
-      <c r="J1089" s="9"/>
-      <c r="K1089" s="17"/>
-    </row>
-    <row r="1090" spans="2:11">
-      <c r="B1090" s="56">
+      <c r="G1101" s="9"/>
+      <c r="H1101" s="9"/>
+      <c r="I1101" s="9"/>
+      <c r="J1101" s="9"/>
+      <c r="K1101" s="17"/>
+    </row>
+    <row r="1102" spans="2:11">
+      <c r="B1102" s="56">
         <v>2</v>
       </c>
-      <c r="C1090" s="16" t="s">
+      <c r="C1102" s="16" t="s">
         <v>1553</v>
       </c>
-      <c r="D1090" s="9"/>
-      <c r="E1090" s="17"/>
-      <c r="F1090" s="16" t="s">
+      <c r="D1102" s="9"/>
+      <c r="E1102" s="17"/>
+      <c r="F1102" s="16" t="s">
         <v>1554</v>
       </c>
-      <c r="G1090" s="9"/>
-      <c r="H1090" s="9"/>
-      <c r="I1090" s="9"/>
-      <c r="J1090" s="9"/>
-      <c r="K1090" s="17"/>
-    </row>
-    <row r="1091" spans="2:11">
-      <c r="B1091" s="56">
+      <c r="G1102" s="9"/>
+      <c r="H1102" s="9"/>
+      <c r="I1102" s="9"/>
+      <c r="J1102" s="9"/>
+      <c r="K1102" s="17"/>
+    </row>
+    <row r="1103" spans="2:11">
+      <c r="B1103" s="56">
         <v>3</v>
       </c>
-      <c r="C1091" s="16" t="s">
+      <c r="C1103" s="16" t="s">
         <v>1546</v>
       </c>
-      <c r="D1091" s="9"/>
-      <c r="E1091" s="17"/>
-      <c r="F1091" s="16" t="s">
+      <c r="D1103" s="9"/>
+      <c r="E1103" s="17"/>
+      <c r="F1103" s="16" t="s">
         <v>1555</v>
       </c>
-      <c r="G1091" s="9"/>
-      <c r="H1091" s="9"/>
-      <c r="I1091" s="9"/>
-      <c r="J1091" s="9"/>
-      <c r="K1091" s="17"/>
-    </row>
-    <row r="1092" spans="2:11">
-      <c r="B1092" s="12">
+      <c r="G1103" s="9"/>
+      <c r="H1103" s="9"/>
+      <c r="I1103" s="9"/>
+      <c r="J1103" s="9"/>
+      <c r="K1103" s="17"/>
+    </row>
+    <row r="1104" spans="2:11">
+      <c r="B1104" s="12">
         <v>4</v>
       </c>
-      <c r="C1092" s="18" t="s">
+      <c r="C1104" s="18" t="s">
         <v>1547</v>
       </c>
-      <c r="D1092" s="19"/>
-      <c r="E1092" s="20"/>
-      <c r="F1092" s="18" t="s">
+      <c r="D1104" s="19"/>
+      <c r="E1104" s="20"/>
+      <c r="F1104" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="G1092" s="19"/>
-      <c r="H1092" s="19"/>
-      <c r="I1092" s="19"/>
-      <c r="J1092" s="19"/>
-      <c r="K1092" s="20"/>
-    </row>
-    <row r="1094" spans="2:11">
-      <c r="B1094" s="3" t="s">
+      <c r="G1104" s="19"/>
+      <c r="H1104" s="19"/>
+      <c r="I1104" s="19"/>
+      <c r="J1104" s="19"/>
+      <c r="K1104" s="20"/>
+    </row>
+    <row r="1106" spans="2:2">
+      <c r="B1106" s="3" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="1095" spans="2:11">
-      <c r="B1095" t="s">
+    <row r="1107" spans="2:2">
+      <c r="B1107" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="1096" spans="2:11">
-      <c r="B1096" t="s">
+    <row r="1108" spans="2:2">
+      <c r="B1108" t="s">
         <v>1559</v>
       </c>
     </row>

--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="1809">
   <si>
     <t>speedApp</t>
   </si>
@@ -31889,6 +31889,653 @@
       </rPr>
       <t>['form'].prefix)</t>
     </r>
+  </si>
+  <si>
+    <t>What is the relation between self and form?</t>
+  </si>
+  <si>
+    <t>receiving the request</t>
+  </si>
+  <si>
+    <t>finding the object from the database</t>
+  </si>
+  <si>
+    <t>creating the form</t>
+  </si>
+  <si>
+    <t>processing POST data</t>
+  </si>
+  <si>
+    <t>rendering the template</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — it represents the “controller” object responsible for:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — a completely different object whose job is:</t>
+    </r>
+  </si>
+  <si>
+    <t>display HTML fields</t>
+  </si>
+  <si>
+    <t>validate user input</t>
+  </si>
+  <si>
+    <t>update the model instance</t>
+  </si>
+  <si>
+    <t>They are two different types of objects, each with a different purpose</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analogy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">self </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as rows of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeEditView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RecipeEditForm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tables</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (RecipeEditView instance)</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets filled with:</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>self.request</t>
+  </si>
+  <si>
+    <t>the incoming HTTP request</t>
+  </si>
+  <si>
+    <t>self.kwargs</t>
+  </si>
+  <si>
+    <t>URL parameters (like recipe_id=4)</t>
+  </si>
+  <si>
+    <t>the Recipe instance fetched from DB</t>
+  </si>
+  <si>
+    <t>self.args</t>
+  </si>
+  <si>
+    <t>positional args (rarely used</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (RecipeEditForm instance)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Think of it as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RecipeEditView</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Think of it as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RecipeEditForm, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>form.fields</t>
+  </si>
+  <si>
+    <t>All form fields (title, cuisine_type…)</t>
+  </si>
+  <si>
+    <t>form.initial</t>
+  </si>
+  <si>
+    <t>Data used to prefill inputs</t>
+  </si>
+  <si>
+    <t>form.instance</t>
+  </si>
+  <si>
+    <t>The Recipe object being edited</t>
+  </si>
+  <si>
+    <t>form.data</t>
+  </si>
+  <si>
+    <t>POST data from the user (if POST)</t>
+  </si>
+  <si>
+    <t>form.errors</t>
+  </si>
+  <si>
+    <t>Validation errors (if invalid)</t>
+  </si>
+  <si>
+    <t>Summary Table: who fills what?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (view) Filled by Django:</t>
+    </r>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>HttpRequest object</t>
+  </si>
+  <si>
+    <t>URL arguments</t>
+  </si>
+  <si>
+    <t>result of get_object()</t>
+  </si>
+  <si>
+    <t>self.model</t>
+  </si>
+  <si>
+    <t>your class attribute</t>
+  </si>
+  <si>
+    <t>self.form_class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ModelForm)</t>
+    </r>
+  </si>
+  <si>
+    <t>Filled by the view &amp; form machinery:</t>
+  </si>
+  <si>
+    <t>generated from the model instance</t>
+  </si>
+  <si>
+    <t>from ModelForm.Meta.model</t>
+  </si>
+  <si>
+    <t>POST data (if POST)</t>
+  </si>
+  <si>
+    <t>form.is_valid()</t>
+  </si>
+  <si>
+    <t>runs field validations</t>
+  </si>
+  <si>
+    <t>So what is the relationship between self and form?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">self </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">creates the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> edits the model instance that self.object holds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is inserted into the template via the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+  </si>
+  <si>
+    <t>They are linked, but they are not the same kind of object</t>
+  </si>
+  <si>
+    <t>Visual Picture</t>
+  </si>
+  <si>
+    <r>
+      <t>RecipeEditView instance (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>|-- request = &lt;HttpRequest&gt;</t>
+  </si>
+  <si>
+    <t>|-- kwargs = {'recipe_id': 4}</t>
+  </si>
+  <si>
+    <t>|-- object = &lt;Recipe pk=4&gt;  ? loaded from DB</t>
+  </si>
+  <si>
+    <t>|-- form = RecipeEditForm(instance=self.object)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    |-- fields = {title, ...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    |-- initial = data from Recipe(pk=4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    |-- data = POST input (or None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    |-- instance = same Recipe(pk=4)</t>
   </si>
 </sst>
 </file>
@@ -32553,7 +33200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -32624,6 +33271,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33082,13 +33732,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>525518</xdr:colOff>
-      <xdr:row>914</xdr:row>
+      <xdr:row>993</xdr:row>
       <xdr:rowOff>99848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>168167</xdr:colOff>
-      <xdr:row>914</xdr:row>
+      <xdr:row>993</xdr:row>
       <xdr:rowOff>101436</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33129,13 +33779,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>588579</xdr:colOff>
-      <xdr:row>915</xdr:row>
+      <xdr:row>994</xdr:row>
       <xdr:rowOff>5255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>215462</xdr:colOff>
-      <xdr:row>915</xdr:row>
+      <xdr:row>994</xdr:row>
       <xdr:rowOff>105103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33176,13 +33826,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>48713</xdr:colOff>
-      <xdr:row>928</xdr:row>
+      <xdr:row>1007</xdr:row>
       <xdr:rowOff>109349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>570390</xdr:colOff>
-      <xdr:row>928</xdr:row>
+      <xdr:row>1007</xdr:row>
       <xdr:rowOff>110937</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33223,13 +33873,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>21022</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>1008</xdr:row>
       <xdr:rowOff>47295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>588583</xdr:colOff>
-      <xdr:row>931</xdr:row>
+      <xdr:row>1010</xdr:row>
       <xdr:rowOff>110360</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33270,13 +33920,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57807</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>1008</xdr:row>
       <xdr:rowOff>78827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>579484</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>1008</xdr:row>
       <xdr:rowOff>80415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33317,13 +33967,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>42041</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>1008</xdr:row>
       <xdr:rowOff>84082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>563718</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>1008</xdr:row>
       <xdr:rowOff>85670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33364,13 +34014,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>63062</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>1008</xdr:row>
       <xdr:rowOff>99848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>584739</xdr:colOff>
-      <xdr:row>929</xdr:row>
+      <xdr:row>1008</xdr:row>
       <xdr:rowOff>101436</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33411,13 +34061,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>63063</xdr:colOff>
-      <xdr:row>931</xdr:row>
+      <xdr:row>1010</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>567560</xdr:colOff>
-      <xdr:row>931</xdr:row>
+      <xdr:row>1010</xdr:row>
       <xdr:rowOff>90926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33458,13 +34108,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>52552</xdr:colOff>
-      <xdr:row>931</xdr:row>
+      <xdr:row>1010</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>557049</xdr:colOff>
-      <xdr:row>931</xdr:row>
+      <xdr:row>1010</xdr:row>
       <xdr:rowOff>90926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33505,13 +34155,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52551</xdr:colOff>
-      <xdr:row>931</xdr:row>
+      <xdr:row>1010</xdr:row>
       <xdr:rowOff>99849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>557048</xdr:colOff>
-      <xdr:row>931</xdr:row>
+      <xdr:row>1010</xdr:row>
       <xdr:rowOff>101437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33552,13 +34202,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>598297</xdr:colOff>
-      <xdr:row>932</xdr:row>
+      <xdr:row>1011</xdr:row>
       <xdr:rowOff>37580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>599885</xdr:colOff>
-      <xdr:row>933</xdr:row>
+      <xdr:row>1012</xdr:row>
       <xdr:rowOff>126917</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33599,13 +34249,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>446690</xdr:colOff>
-      <xdr:row>934</xdr:row>
+      <xdr:row>1013</xdr:row>
       <xdr:rowOff>115613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>551793</xdr:colOff>
-      <xdr:row>934</xdr:row>
+      <xdr:row>1013</xdr:row>
       <xdr:rowOff>117201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33646,13 +34296,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>446690</xdr:colOff>
-      <xdr:row>934</xdr:row>
+      <xdr:row>1013</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>562303</xdr:colOff>
-      <xdr:row>935</xdr:row>
+      <xdr:row>1014</xdr:row>
       <xdr:rowOff>94593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33693,13 +34343,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>509752</xdr:colOff>
-      <xdr:row>941</xdr:row>
+      <xdr:row>1020</xdr:row>
       <xdr:rowOff>21021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>99848</xdr:colOff>
-      <xdr:row>942</xdr:row>
+      <xdr:row>1021</xdr:row>
       <xdr:rowOff>63062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33740,13 +34390,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>341586</xdr:colOff>
-      <xdr:row>941</xdr:row>
+      <xdr:row>1020</xdr:row>
       <xdr:rowOff>10510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>394138</xdr:colOff>
-      <xdr:row>942</xdr:row>
+      <xdr:row>1021</xdr:row>
       <xdr:rowOff>21021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -34386,13 +35036,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47297</xdr:colOff>
-      <xdr:row>997</xdr:row>
+      <xdr:row>1076</xdr:row>
       <xdr:rowOff>42042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>541283</xdr:colOff>
-      <xdr:row>1000</xdr:row>
+      <xdr:row>1079</xdr:row>
       <xdr:rowOff>36787</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -34433,13 +35083,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57807</xdr:colOff>
-      <xdr:row>1058</xdr:row>
+      <xdr:row>1137</xdr:row>
       <xdr:rowOff>178676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>273269</xdr:colOff>
-      <xdr:row>1060</xdr:row>
+      <xdr:row>1139</xdr:row>
       <xdr:rowOff>7007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -34523,13 +35173,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>436179</xdr:colOff>
-      <xdr:row>1057</xdr:row>
+      <xdr:row>1136</xdr:row>
       <xdr:rowOff>105104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>131379</xdr:colOff>
-      <xdr:row>1058</xdr:row>
+      <xdr:row>1137</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42106,10 +42756,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1108"/>
+  <dimension ref="A1:T1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H613" sqref="H613"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H439" sqref="H439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -45785,1556 +46435,2129 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="835" spans="2:10">
-      <c r="B835" t="s">
+    <row r="834" spans="3:5">
+      <c r="C834" s="3" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="835" spans="3:5">
+      <c r="C835" s="3"/>
+    </row>
+    <row r="836" spans="3:5">
+      <c r="C836" s="3"/>
+      <c r="D836" s="72" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="837" spans="3:5">
+      <c r="C837" s="3"/>
+      <c r="D837" s="70" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="838" spans="3:5">
+      <c r="C838" s="3"/>
+      <c r="E838" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="839" spans="3:5">
+      <c r="C839" s="3"/>
+      <c r="E839" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="840" spans="3:5">
+      <c r="C840" s="3"/>
+      <c r="E840" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="841" spans="3:5">
+      <c r="C841" s="3"/>
+      <c r="E841" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="842" spans="3:5">
+      <c r="C842" s="3"/>
+      <c r="E842" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="843" spans="3:5">
+      <c r="C843" s="3"/>
+    </row>
+    <row r="844" spans="3:5">
+      <c r="C844" s="3"/>
+      <c r="D844" s="71" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="845" spans="3:5">
+      <c r="C845" s="3"/>
+      <c r="D845" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="846" spans="3:5">
+      <c r="C846" s="3"/>
+      <c r="E846" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="847" spans="3:5">
+      <c r="C847" s="3"/>
+      <c r="E847" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="848" spans="3:5">
+      <c r="C848" s="3"/>
+      <c r="E848" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="849" spans="3:10">
+      <c r="C849" s="3"/>
+    </row>
+    <row r="850" spans="3:10">
+      <c r="C850" s="3"/>
+      <c r="D850" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="851" spans="3:10">
+      <c r="C851" s="3"/>
+    </row>
+    <row r="852" spans="3:10">
+      <c r="C852" s="3"/>
+      <c r="D852" s="70" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="853" spans="3:10">
+      <c r="C853" s="3"/>
+    </row>
+    <row r="854" spans="3:10">
+      <c r="C854" s="3"/>
+      <c r="E854" s="70" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="855" spans="3:10">
+      <c r="C855" s="3"/>
+      <c r="E855" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="856" spans="3:10">
+      <c r="C856" s="3"/>
+      <c r="E856" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="857" spans="3:10">
+      <c r="C857" s="3"/>
+      <c r="E857" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F857" s="15"/>
+      <c r="G857" s="13" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H857" s="14"/>
+      <c r="I857" s="14"/>
+      <c r="J857" s="15"/>
+    </row>
+    <row r="858" spans="3:10">
+      <c r="C858" s="3"/>
+      <c r="E858" s="21" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F858" s="23"/>
+      <c r="G858" s="21" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H858" s="22"/>
+      <c r="I858" s="22"/>
+      <c r="J858" s="23"/>
+    </row>
+    <row r="859" spans="3:10">
+      <c r="C859" s="3"/>
+      <c r="E859" s="16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F859" s="17"/>
+      <c r="G859" s="16" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H859" s="9"/>
+      <c r="I859" s="9"/>
+      <c r="J859" s="17"/>
+    </row>
+    <row r="860" spans="3:10">
+      <c r="C860" s="3"/>
+      <c r="E860" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="F860" s="23"/>
+      <c r="G860" s="21" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H860" s="22"/>
+      <c r="I860" s="22"/>
+      <c r="J860" s="23"/>
+    </row>
+    <row r="861" spans="3:10">
+      <c r="C861" s="3"/>
+      <c r="E861" s="18" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F861" s="20"/>
+      <c r="G861" s="18" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H861" s="19"/>
+      <c r="I861" s="19"/>
+      <c r="J861" s="20"/>
+    </row>
+    <row r="862" spans="3:10">
+      <c r="C862" s="3"/>
+    </row>
+    <row r="863" spans="3:10">
+      <c r="C863" s="3"/>
+      <c r="E863" s="70" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="864" spans="3:10">
+      <c r="C864" s="3"/>
+      <c r="E864" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="865" spans="3:10">
+      <c r="C865" s="3"/>
+      <c r="E865" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F865" s="15"/>
+      <c r="G865" s="13" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H865" s="14"/>
+      <c r="I865" s="14"/>
+      <c r="J865" s="15"/>
+    </row>
+    <row r="866" spans="3:10">
+      <c r="C866" s="3"/>
+      <c r="E866" s="21" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F866" s="23"/>
+      <c r="G866" s="21" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H866" s="22"/>
+      <c r="I866" s="22"/>
+      <c r="J866" s="23"/>
+    </row>
+    <row r="867" spans="3:10">
+      <c r="C867" s="3"/>
+      <c r="E867" s="16" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F867" s="17"/>
+      <c r="G867" s="16" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H867" s="9"/>
+      <c r="I867" s="9"/>
+      <c r="J867" s="17"/>
+    </row>
+    <row r="868" spans="3:10">
+      <c r="C868" s="3"/>
+      <c r="E868" s="21" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F868" s="23"/>
+      <c r="G868" s="21" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H868" s="22"/>
+      <c r="I868" s="22"/>
+      <c r="J868" s="23"/>
+    </row>
+    <row r="869" spans="3:10">
+      <c r="C869" s="3"/>
+      <c r="E869" s="16" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F869" s="17"/>
+      <c r="G869" s="16" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H869" s="9"/>
+      <c r="I869" s="9"/>
+      <c r="J869" s="17"/>
+    </row>
+    <row r="870" spans="3:10">
+      <c r="C870" s="3"/>
+      <c r="E870" s="21" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F870" s="23"/>
+      <c r="G870" s="21" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H870" s="22"/>
+      <c r="I870" s="22"/>
+      <c r="J870" s="23"/>
+    </row>
+    <row r="871" spans="3:10">
+      <c r="C871" s="3"/>
+    </row>
+    <row r="872" spans="3:10">
+      <c r="D872" s="3" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="873" spans="3:10">
+      <c r="D873" s="3"/>
+      <c r="E873" s="70" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="874" spans="3:10">
+      <c r="D874" s="3"/>
+    </row>
+    <row r="875" spans="3:10">
+      <c r="D875" s="3"/>
+      <c r="E875" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F875" s="15"/>
+      <c r="G875" s="13" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H875" s="15"/>
+    </row>
+    <row r="876" spans="3:10">
+      <c r="D876" s="3"/>
+      <c r="E876" s="21" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F876" s="23"/>
+      <c r="G876" s="21" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H876" s="23"/>
+    </row>
+    <row r="877" spans="3:10">
+      <c r="D877" s="3"/>
+      <c r="E877" s="16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F877" s="17"/>
+      <c r="G877" s="16" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H877" s="17"/>
+    </row>
+    <row r="878" spans="3:10">
+      <c r="D878" s="3"/>
+      <c r="E878" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="F878" s="23"/>
+      <c r="G878" s="21" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H878" s="23"/>
+    </row>
+    <row r="879" spans="3:10">
+      <c r="D879" s="3"/>
+      <c r="E879" s="16" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F879" s="17"/>
+      <c r="G879" s="16" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H879" s="17"/>
+    </row>
+    <row r="880" spans="3:10">
+      <c r="D880" s="3"/>
+      <c r="E880" s="21" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F880" s="23"/>
+      <c r="G880" s="21" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H880" s="23"/>
+    </row>
+    <row r="881" spans="4:10">
+      <c r="D881" s="3"/>
+    </row>
+    <row r="882" spans="4:10">
+      <c r="D882" s="3"/>
+      <c r="E882" s="70" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="883" spans="4:10">
+      <c r="D883" s="3"/>
+      <c r="E883" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="884" spans="4:10">
+      <c r="D884" s="3"/>
+    </row>
+    <row r="885" spans="4:10">
+      <c r="D885" s="3"/>
+      <c r="E885" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F885" s="14"/>
+      <c r="G885" s="13" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H885" s="14"/>
+      <c r="I885" s="14"/>
+      <c r="J885" s="15"/>
+    </row>
+    <row r="886" spans="4:10">
+      <c r="D886" s="3"/>
+      <c r="E886" s="21" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F886" s="23"/>
+      <c r="G886" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="H886" s="22"/>
+      <c r="I886" s="22"/>
+      <c r="J886" s="23"/>
+    </row>
+    <row r="887" spans="4:10">
+      <c r="D887" s="3"/>
+      <c r="E887" s="16" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F887" s="9"/>
+      <c r="G887" s="16" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H887" s="9"/>
+      <c r="I887" s="9"/>
+      <c r="J887" s="17"/>
+    </row>
+    <row r="888" spans="4:10">
+      <c r="D888" s="3"/>
+      <c r="E888" s="21" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F888" s="23"/>
+      <c r="G888" s="21" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H888" s="22"/>
+      <c r="I888" s="22"/>
+      <c r="J888" s="23"/>
+    </row>
+    <row r="889" spans="4:10">
+      <c r="D889" s="3"/>
+      <c r="E889" s="18" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F889" s="19"/>
+      <c r="G889" s="16" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H889" s="9"/>
+      <c r="I889" s="9"/>
+      <c r="J889" s="17"/>
+    </row>
+    <row r="890" spans="4:10">
+      <c r="D890" s="3"/>
+      <c r="E890" s="21" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F890" s="23"/>
+      <c r="G890" s="21" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H890" s="22"/>
+      <c r="I890" s="22"/>
+      <c r="J890" s="23"/>
+    </row>
+    <row r="891" spans="4:10">
+      <c r="D891" s="3"/>
+    </row>
+    <row r="892" spans="4:10">
+      <c r="D892" s="3" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="893" spans="4:10">
+      <c r="D893" s="3"/>
+      <c r="E893" s="70" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="894" spans="4:10">
+      <c r="D894" s="3"/>
+      <c r="E894" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="895" spans="4:10">
+      <c r="D895" s="3"/>
+      <c r="E895" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="896" spans="4:10">
+      <c r="D896" s="3"/>
+    </row>
+    <row r="897" spans="4:5">
+      <c r="D897" s="3"/>
+      <c r="E897" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="898" spans="4:5">
+      <c r="D898" s="3"/>
+    </row>
+    <row r="899" spans="4:5">
+      <c r="D899" s="3" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="900" spans="4:5">
+      <c r="D900" s="3"/>
+      <c r="E900" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="901" spans="4:5">
+      <c r="D901" s="3"/>
+      <c r="E901" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="902" spans="4:5">
+      <c r="D902" s="3"/>
+      <c r="E902" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="903" spans="4:5">
+      <c r="D903" s="3"/>
+      <c r="E903" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="904" spans="4:5">
+      <c r="D904" s="3"/>
+      <c r="E904" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="905" spans="4:5">
+      <c r="D905" s="3"/>
+      <c r="E905" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="906" spans="4:5">
+      <c r="D906" s="3"/>
+      <c r="E906" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="907" spans="4:5">
+      <c r="D907" s="3"/>
+      <c r="E907" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="908" spans="4:5">
+      <c r="D908" s="3"/>
+      <c r="E908" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="909" spans="4:5">
+      <c r="D909" s="3"/>
+      <c r="E909" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="910" spans="4:5">
+      <c r="D910" s="3"/>
+      <c r="E910" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="911" spans="4:5">
+      <c r="E911" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="914" spans="2:10">
+      <c r="B914" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="836" spans="2:10">
-      <c r="B836" t="s">
+    <row r="915" spans="2:10">
+      <c r="B915" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="837" spans="2:10">
-      <c r="B837" t="s">
+    <row r="916" spans="2:10">
+      <c r="B916" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="838" spans="2:10">
-      <c r="B838" t="s">
+    <row r="917" spans="2:10">
+      <c r="B917" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="839" spans="2:10">
-      <c r="B839" t="s">
+    <row r="918" spans="2:10">
+      <c r="B918" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="840" spans="2:10">
-      <c r="B840" t="s">
+    <row r="919" spans="2:10">
+      <c r="B919" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="842" spans="2:10">
-      <c r="B842" t="s">
+    <row r="921" spans="2:10">
+      <c r="B921" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="843" spans="2:10">
-      <c r="B843" t="s">
+    <row r="922" spans="2:10">
+      <c r="B922" t="s">
         <v>1434</v>
       </c>
-      <c r="G843" s="8" t="s">
+      <c r="G922" s="8" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="844" spans="2:10">
-      <c r="B844" t="s">
+    <row r="923" spans="2:10">
+      <c r="B923" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="846" spans="2:10">
-      <c r="B846" t="s">
+    <row r="925" spans="2:10">
+      <c r="B925" t="s">
         <v>1435</v>
       </c>
-      <c r="G846" s="8" t="s">
+      <c r="G925" s="8" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="847" spans="2:10">
-      <c r="B847" t="s">
+    <row r="926" spans="2:10">
+      <c r="B926" t="s">
         <v>1432</v>
       </c>
-      <c r="H847" t="s">
+      <c r="H926" t="s">
         <v>1570</v>
       </c>
-      <c r="J847" t="s">
+      <c r="J926" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="848" spans="2:10">
-      <c r="H848" t="s">
+    <row r="927" spans="2:10">
+      <c r="H927" t="s">
         <v>1571</v>
       </c>
-      <c r="J848" t="s">
+      <c r="J927" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="849" spans="1:2">
-      <c r="B849" t="s">
+    <row r="928" spans="2:10">
+      <c r="B928" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="850" spans="1:2">
-      <c r="B850" t="s">
+    <row r="929" spans="1:2">
+      <c r="B929" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="851" spans="1:2">
-      <c r="B851" t="s">
+    <row r="930" spans="1:2">
+      <c r="B930" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="852" spans="1:2">
-      <c r="B852" t="s">
+    <row r="931" spans="1:2">
+      <c r="B931" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="856" spans="1:2">
-      <c r="A856" s="32" t="s">
+    <row r="935" spans="1:2">
+      <c r="A935" s="32" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="857" spans="1:2">
-      <c r="B857" t="s">
+    <row r="936" spans="1:2">
+      <c r="B936" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="858" spans="1:2">
-      <c r="B858" t="s">
+    <row r="937" spans="1:2">
+      <c r="B937" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="860" spans="1:2">
-      <c r="B860" t="s">
+    <row r="939" spans="1:2">
+      <c r="B939" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="861" spans="1:2">
-      <c r="B861" t="s">
+    <row r="940" spans="1:2">
+      <c r="B940" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="862" spans="1:2">
-      <c r="B862" t="s">
+    <row r="941" spans="1:2">
+      <c r="B941" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="863" spans="1:2">
-      <c r="B863" t="s">
+    <row r="942" spans="1:2">
+      <c r="B942" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="864" spans="1:2">
-      <c r="B864" t="s">
+    <row r="943" spans="1:2">
+      <c r="B943" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="865" spans="1:2">
-      <c r="B865" t="s">
+    <row r="944" spans="1:2">
+      <c r="B944" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="866" spans="1:2">
-      <c r="B866" t="s">
+    <row r="945" spans="1:2">
+      <c r="B945" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="867" spans="1:2">
-      <c r="B867" t="s">
+    <row r="946" spans="1:2">
+      <c r="B946" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="868" spans="1:2">
-      <c r="B868" t="s">
+    <row r="947" spans="1:2">
+      <c r="B947" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="32" t="s">
+    <row r="952" spans="1:2">
+      <c r="A952" s="32" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="874" spans="1:2">
-      <c r="B874" t="s">
+    <row r="953" spans="1:2">
+      <c r="B953" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="875" spans="1:2">
-      <c r="B875" t="s">
+    <row r="954" spans="1:2">
+      <c r="B954" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="876" spans="1:2">
-      <c r="B876" t="s">
+    <row r="955" spans="1:2">
+      <c r="B955" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="879" spans="1:2">
-      <c r="B879" t="s">
+    <row r="958" spans="1:2">
+      <c r="B958" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="880" spans="1:2">
-      <c r="B880" t="s">
+    <row r="959" spans="1:2">
+      <c r="B959" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="881" spans="2:12">
-      <c r="B881" t="s">
+    <row r="960" spans="1:2">
+      <c r="B960" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="882" spans="2:12">
-      <c r="B882" t="s">
+    <row r="961" spans="2:12">
+      <c r="B961" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="885" spans="2:12">
-      <c r="B885" t="s">
+    <row r="964" spans="2:12">
+      <c r="B964" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="886" spans="2:12">
-      <c r="B886" t="s">
+    <row r="965" spans="2:12">
+      <c r="B965" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="887" spans="2:12">
-      <c r="B887" t="s">
+    <row r="966" spans="2:12">
+      <c r="B966" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="888" spans="2:12">
-      <c r="B888" t="s">
+    <row r="967" spans="2:12">
+      <c r="B967" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="889" spans="2:12">
-      <c r="B889" t="s">
+    <row r="968" spans="2:12">
+      <c r="B968" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="890" spans="2:12">
-      <c r="B890" t="s">
+    <row r="969" spans="2:12">
+      <c r="B969" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="891" spans="2:12">
-      <c r="H891" t="s">
+    <row r="970" spans="2:12">
+      <c r="H970" t="s">
         <v>1179</v>
       </c>
-      <c r="K891" t="s">
+      <c r="K970" t="s">
         <v>557</v>
       </c>
-      <c r="L891" t="s">
+      <c r="L970" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="892" spans="2:12">
-      <c r="B892" t="s">
+    <row r="971" spans="2:12">
+      <c r="B971" t="s">
         <v>1181</v>
       </c>
-      <c r="L892" t="s">
+      <c r="L971" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="893" spans="2:12">
-      <c r="B893" t="s">
+    <row r="972" spans="2:12">
+      <c r="B972" t="s">
         <v>1182</v>
       </c>
-      <c r="L893" t="s">
+      <c r="L972" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="894" spans="2:12">
-      <c r="L894" s="7" t="s">
+    <row r="973" spans="2:12">
+      <c r="L973" s="7" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="895" spans="2:12">
-      <c r="B895" t="s">
+    <row r="974" spans="2:12">
+      <c r="B974" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="896" spans="2:12">
-      <c r="B896" t="s">
+    <row r="975" spans="2:12">
+      <c r="B975" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="897" spans="1:10">
-      <c r="B897" t="s">
+    <row r="976" spans="2:12">
+      <c r="B976" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="898" spans="1:10">
-      <c r="B898" t="s">
+    <row r="977" spans="1:10">
+      <c r="B977" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="900" spans="1:10">
-      <c r="B900" t="s">
+    <row r="979" spans="1:10">
+      <c r="B979" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="901" spans="1:10">
-      <c r="A901" s="1"/>
-      <c r="B901" t="s">
+    <row r="980" spans="1:10">
+      <c r="A980" s="1"/>
+      <c r="B980" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="902" spans="1:10">
-      <c r="B902" t="s">
+    <row r="981" spans="1:10">
+      <c r="B981" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="904" spans="1:10">
-      <c r="C904" t="s">
+    <row r="983" spans="1:10">
+      <c r="C983" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="905" spans="1:10">
-      <c r="C905" t="s">
+    <row r="984" spans="1:10">
+      <c r="C984" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="906" spans="1:10">
-      <c r="C906" t="s">
+    <row r="985" spans="1:10">
+      <c r="C985" t="s">
         <v>1187</v>
       </c>
-      <c r="J906" t="s">
+      <c r="J985" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="907" spans="1:10">
-      <c r="C907" t="s">
+    <row r="986" spans="1:10">
+      <c r="C986" t="s">
         <v>1176</v>
       </c>
-      <c r="J907" s="39" t="s">
+      <c r="J986" s="39" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="908" spans="1:10">
-      <c r="C908" t="s">
+    <row r="987" spans="1:10">
+      <c r="C987" t="s">
         <v>928</v>
       </c>
-      <c r="J908" t="s">
+      <c r="J987" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="909" spans="1:10">
-      <c r="C909" t="s">
+    <row r="988" spans="1:10">
+      <c r="C988" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="910" spans="1:10">
-      <c r="C910" t="s">
+    <row r="989" spans="1:10">
+      <c r="C989" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="911" spans="1:10">
-      <c r="C911" t="s">
+    <row r="990" spans="1:10">
+      <c r="C990" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="912" spans="1:10">
-      <c r="C912" t="s">
+    <row r="991" spans="1:10">
+      <c r="C991" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="914" spans="1:20">
-      <c r="C914" t="s">
+    <row r="993" spans="1:20">
+      <c r="C993" t="s">
         <v>819</v>
       </c>
-      <c r="G914" t="s">
+      <c r="G993" t="s">
         <v>1179</v>
       </c>
-      <c r="I914" t="s">
+      <c r="I993" t="s">
         <v>557</v>
       </c>
-      <c r="L914" t="s">
+      <c r="L993" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="915" spans="1:20">
-      <c r="A915" t="s">
+    <row r="994" spans="1:20">
+      <c r="A994" t="s">
         <v>1184</v>
       </c>
-      <c r="C915" t="s">
+      <c r="C994" t="s">
         <v>43</v>
       </c>
-      <c r="G915" t="s">
+      <c r="G994" t="s">
         <v>1186</v>
       </c>
-      <c r="L915" t="s">
+      <c r="L994" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="916" spans="1:20">
-      <c r="A916" t="s">
+    <row r="995" spans="1:20">
+      <c r="A995" t="s">
         <v>1189</v>
       </c>
-      <c r="B916" t="s">
+      <c r="B995" t="s">
         <v>557</v>
       </c>
-      <c r="C916" t="s">
+      <c r="C995" t="s">
         <v>476</v>
       </c>
-      <c r="G916" s="38" t="s">
+      <c r="G995" s="38" t="s">
         <v>1180</v>
       </c>
-      <c r="J916" t="s">
+      <c r="J995" t="s">
         <v>557</v>
       </c>
-      <c r="L916" t="s">
+      <c r="L995" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="917" spans="1:20">
-      <c r="A917" t="s">
+    <row r="996" spans="1:20">
+      <c r="A996" t="s">
         <v>1190</v>
       </c>
-      <c r="B917" t="s">
+      <c r="B996" t="s">
         <v>557</v>
       </c>
-      <c r="G917" t="s">
+      <c r="G996" t="s">
         <v>1179</v>
       </c>
-      <c r="J917" t="s">
+      <c r="J996" t="s">
         <v>557</v>
       </c>
-      <c r="L917" t="s">
+      <c r="L996" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="918" spans="1:20">
-      <c r="A918" t="s">
+    <row r="997" spans="1:20">
+      <c r="A997" t="s">
         <v>1191</v>
       </c>
-      <c r="B918" t="s">
+      <c r="B997" t="s">
         <v>557</v>
       </c>
-      <c r="G918" t="s">
+      <c r="G997" t="s">
         <v>1188</v>
       </c>
-      <c r="K918" t="s">
+      <c r="K997" t="s">
         <v>557</v>
       </c>
-      <c r="L918" t="s">
+      <c r="L997" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="919" spans="1:20">
-      <c r="A919" t="s">
+    <row r="998" spans="1:20">
+      <c r="A998" t="s">
         <v>1168</v>
       </c>
-      <c r="B919" t="s">
+      <c r="B998" t="s">
         <v>557</v>
       </c>
-      <c r="G919" t="s">
+      <c r="G998" t="s">
         <v>1185</v>
       </c>
-      <c r="L919" t="s">
+      <c r="L998" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="920" spans="1:20">
-      <c r="M920" t="s">
+    <row r="999" spans="1:20">
+      <c r="M999" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="921" spans="1:20">
-      <c r="M921" t="s">
+    <row r="1000" spans="1:20">
+      <c r="M1000" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="922" spans="1:20">
-      <c r="M922" t="s">
+    <row r="1001" spans="1:20">
+      <c r="M1001" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="923" spans="1:20">
-      <c r="M923" t="s">
+    <row r="1002" spans="1:20">
+      <c r="M1002" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="924" spans="1:20">
-      <c r="M924" t="s">
+    <row r="1003" spans="1:20">
+      <c r="M1003" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="925" spans="1:20">
-      <c r="M925" t="s">
+    <row r="1004" spans="1:20">
+      <c r="M1004" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="927" spans="1:20">
-      <c r="N927" t="s">
+    <row r="1006" spans="1:20">
+      <c r="N1006" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="928" spans="1:20">
-      <c r="N928" s="24" t="s">
+    <row r="1007" spans="1:20">
+      <c r="N1007" s="24" t="s">
         <v>1203</v>
       </c>
-      <c r="O928" s="24" t="s">
+      <c r="O1007" s="24" t="s">
         <v>1204</v>
       </c>
-      <c r="P928" s="24" t="s">
+      <c r="P1007" s="24" t="s">
         <v>1206</v>
       </c>
-      <c r="Q928" s="24" t="s">
+      <c r="Q1007" s="24" t="s">
         <v>1208</v>
       </c>
-      <c r="R928" s="24" t="s">
+      <c r="R1007" s="24" t="s">
         <v>1209</v>
       </c>
-      <c r="S928" s="24" t="s">
+      <c r="S1007" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="T928" s="44" t="s">
+      <c r="T1007" s="44" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="929" spans="2:20">
-      <c r="B929" s="40" t="s">
+    <row r="1008" spans="1:20">
+      <c r="B1008" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="E929" s="8" t="s">
+      <c r="E1008" s="8" t="s">
         <v>1193</v>
       </c>
-      <c r="H929" s="41" t="s">
+      <c r="H1008" s="41" t="s">
         <v>1194</v>
       </c>
-      <c r="K929" s="40" t="s">
+      <c r="K1008" s="40" t="s">
         <v>1184</v>
       </c>
-      <c r="N929" s="24" t="s">
+      <c r="N1008" s="24" t="s">
         <v>1205</v>
       </c>
-      <c r="O929" s="24" t="s">
+      <c r="O1008" s="24" t="s">
         <v>1205</v>
       </c>
-      <c r="P929" s="24" t="s">
+      <c r="P1008" s="24" t="s">
         <v>1207</v>
       </c>
-      <c r="Q929" s="24" t="s">
+      <c r="Q1008" s="24" t="s">
         <v>1207</v>
       </c>
-      <c r="R929" s="24" t="s">
+      <c r="R1008" s="24" t="s">
         <v>1210</v>
       </c>
-      <c r="S929" s="24" t="s">
+      <c r="S1008" s="24" t="s">
         <v>1211</v>
       </c>
-      <c r="T929" s="44" t="s">
+      <c r="T1008" s="44" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="930" spans="2:20">
-      <c r="B930" s="21" t="s">
+    <row r="1009" spans="2:17">
+      <c r="B1009" s="21" t="s">
         <v>1215</v>
       </c>
-      <c r="C930" s="23"/>
-      <c r="E930" s="21" t="s">
+      <c r="C1009" s="23"/>
+      <c r="E1009" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="F930" s="23"/>
-      <c r="H930" s="21" t="s">
+      <c r="F1009" s="23"/>
+      <c r="H1009" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="I930" s="23"/>
-      <c r="K930" s="21" t="s">
+      <c r="I1009" s="23"/>
+      <c r="K1009" s="21" t="s">
         <v>1231</v>
       </c>
-      <c r="L930" s="23"/>
-    </row>
-    <row r="931" spans="2:20">
-      <c r="B931" s="9"/>
-      <c r="C931" s="9"/>
-      <c r="E931" s="9"/>
-      <c r="F931" s="9"/>
-      <c r="H931" s="9"/>
-      <c r="I931" s="9"/>
-      <c r="K931" s="9"/>
-      <c r="L931" s="9"/>
-    </row>
-    <row r="932" spans="2:20">
-      <c r="B932" s="21" t="s">
+      <c r="L1009" s="23"/>
+    </row>
+    <row r="1010" spans="2:17">
+      <c r="B1010" s="9"/>
+      <c r="C1010" s="9"/>
+      <c r="E1010" s="9"/>
+      <c r="F1010" s="9"/>
+      <c r="H1010" s="9"/>
+      <c r="I1010" s="9"/>
+      <c r="K1010" s="9"/>
+      <c r="L1010" s="9"/>
+    </row>
+    <row r="1011" spans="2:17">
+      <c r="B1011" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="C932" s="23"/>
-      <c r="E932" s="21" t="s">
+      <c r="C1011" s="23"/>
+      <c r="E1011" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="F932" s="23"/>
-      <c r="H932" s="21" t="s">
+      <c r="F1011" s="23"/>
+      <c r="H1011" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="I932" s="23"/>
-      <c r="K932" s="21" t="s">
+      <c r="I1011" s="23"/>
+      <c r="K1011" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="L932" s="23"/>
-    </row>
-    <row r="933" spans="2:20">
-      <c r="B933" s="9"/>
-      <c r="C933" s="9"/>
-      <c r="E933" s="9"/>
-      <c r="F933" s="9"/>
-      <c r="H933" s="9"/>
-      <c r="I933" s="9"/>
-      <c r="K933" s="9"/>
-      <c r="L933" s="9"/>
-    </row>
-    <row r="934" spans="2:20">
-      <c r="B934" s="9"/>
-      <c r="C934" s="9"/>
-      <c r="E934" s="9"/>
-      <c r="F934" s="9"/>
-      <c r="H934" s="9"/>
-      <c r="I934" s="9"/>
-    </row>
-    <row r="935" spans="2:20" ht="15" thickBot="1">
-      <c r="G935" s="43" t="s">
-        <v>1241</v>
-      </c>
-      <c r="J935" s="52" t="s">
-        <v>1222</v>
-      </c>
-      <c r="K935" s="27" t="s">
-        <v>1203</v>
-      </c>
-      <c r="L935" s="27" t="s">
-        <v>1204</v>
-      </c>
-      <c r="M935" s="27" t="s">
-        <v>1206</v>
-      </c>
-      <c r="N935" s="27" t="s">
-        <v>1208</v>
-      </c>
-      <c r="O935" s="27" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P935" s="27" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="936" spans="2:20" ht="15" thickBot="1">
-      <c r="J936" s="48" t="s">
-        <v>1223</v>
-      </c>
-      <c r="K936" s="45" t="s">
-        <v>1216</v>
-      </c>
-      <c r="L936" s="46" t="s">
-        <v>1217</v>
-      </c>
-      <c r="M936" s="46" t="s">
-        <v>1218</v>
-      </c>
-      <c r="N936" s="46" t="s">
-        <v>1219</v>
-      </c>
-      <c r="O936" s="46" t="s">
-        <v>1220</v>
-      </c>
-      <c r="P936" s="47" t="s">
-        <v>1221</v>
-      </c>
-      <c r="Q936" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="937" spans="2:20">
-      <c r="J937" s="42" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K937" s="49" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L937" s="12"/>
-      <c r="M937" s="12"/>
-      <c r="N937" s="12"/>
-      <c r="O937" s="12"/>
-      <c r="P937" s="12"/>
-    </row>
-    <row r="938" spans="2:20">
-      <c r="J938" s="42" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K938" s="50" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L938" s="24"/>
-      <c r="M938" s="24"/>
-      <c r="N938" s="24"/>
-      <c r="O938" s="24"/>
-      <c r="P938" s="24"/>
-    </row>
-    <row r="939" spans="2:20">
-      <c r="J939" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="K939" s="50" t="s">
-        <v>1235</v>
-      </c>
-      <c r="L939" s="24"/>
-      <c r="M939" s="24"/>
-      <c r="N939" s="24"/>
-      <c r="O939" s="24"/>
-      <c r="P939" s="24"/>
-    </row>
-    <row r="940" spans="2:20">
-      <c r="I940" t="s">
-        <v>557</v>
-      </c>
-      <c r="K940" s="51"/>
-      <c r="L940" s="9"/>
-      <c r="M940" s="9"/>
-      <c r="N940" s="9"/>
-      <c r="O940" s="9"/>
-      <c r="P940" s="9"/>
-    </row>
-    <row r="941" spans="2:20">
-      <c r="B941" t="s">
-        <v>1239</v>
-      </c>
-      <c r="M941" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N941" s="48" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="942" spans="2:20">
-      <c r="K942" s="43" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="943" spans="2:20">
-      <c r="B943" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E943" t="s">
-        <v>1238</v>
-      </c>
-      <c r="K943" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="944" spans="2:20">
-      <c r="B944" t="s">
-        <v>1236</v>
-      </c>
-      <c r="K944" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="945" spans="2:13">
-      <c r="B945" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K945" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="946" spans="2:13">
-      <c r="B946" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K946" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="947" spans="2:13">
-      <c r="B947" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K947" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="948" spans="2:13">
-      <c r="K948" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="949" spans="2:13">
-      <c r="K949" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="951" spans="2:13">
-      <c r="K951" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="952" spans="2:13">
-      <c r="K952" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="953" spans="2:13">
-      <c r="K953" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="954" spans="2:13">
-      <c r="L954" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="955" spans="2:13">
-      <c r="L955" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="956" spans="2:13">
-      <c r="L956" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="957" spans="2:13">
-      <c r="L957" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="958" spans="2:13">
-      <c r="M958" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="962" spans="1:4">
-      <c r="A962" s="65" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="963" spans="1:4">
-      <c r="A963" s="65"/>
-      <c r="B963" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="965" spans="1:4">
-      <c r="B965" s="65" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="966" spans="1:4">
-      <c r="B966" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="967" spans="1:4">
-      <c r="B967" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="969" spans="1:4">
-      <c r="B969" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="970" spans="1:4">
-      <c r="C970" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="972" spans="1:4">
-      <c r="C972" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="973" spans="1:4">
-      <c r="D973" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="975" spans="1:4">
-      <c r="B975" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="976" spans="1:4">
-      <c r="C976" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="977" spans="2:4">
-      <c r="C977" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="979" spans="2:4">
-      <c r="C979" s="2" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="981" spans="2:4">
-      <c r="B981" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="982" spans="2:4">
-      <c r="C982" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="983" spans="2:4">
-      <c r="C983" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="984" spans="2:4">
-      <c r="D984" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="986" spans="2:4">
-      <c r="C986" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="988" spans="2:4">
-      <c r="C988" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="989" spans="2:4">
-      <c r="D989" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="990" spans="2:4">
-      <c r="D990" s="2" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="992" spans="2:4">
-      <c r="B992" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="993" spans="3:4">
-      <c r="C993" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="994" spans="3:4">
-      <c r="C994" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="995" spans="3:4">
-      <c r="C995" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="997" spans="3:4">
-      <c r="C997" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="998" spans="3:4">
-      <c r="C998" s="65" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="999" spans="3:4">
-      <c r="C999" s="65" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="1000" spans="3:4">
-      <c r="C1000" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="1001" spans="3:4">
-      <c r="C1001" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="1002" spans="3:4">
-      <c r="C1002" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="1004" spans="3:4">
-      <c r="C1004" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="1005" spans="3:4">
-      <c r="D1005" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="1007" spans="3:4">
-      <c r="C1007" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="1009" spans="2:13">
-      <c r="B1009" s="3" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="1010" spans="2:13">
-      <c r="C1010" s="11" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D1010" s="13" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E1010" s="15"/>
-      <c r="F1010" s="13" t="s">
-        <v>1491</v>
-      </c>
-      <c r="G1010" s="14"/>
-      <c r="H1010" s="15"/>
-      <c r="I1010" s="13" t="s">
-        <v>1380</v>
-      </c>
-      <c r="J1010" s="14"/>
-      <c r="K1010" s="14"/>
-      <c r="L1010" s="14"/>
-      <c r="M1010" s="15"/>
-    </row>
-    <row r="1011" spans="2:13">
-      <c r="C1011" s="56">
-        <v>1</v>
-      </c>
-      <c r="D1011" s="16" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E1011" s="17"/>
-      <c r="F1011" s="16" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G1011" s="9"/>
-      <c r="H1011" s="17"/>
-      <c r="I1011" s="16" t="s">
-        <v>1494</v>
-      </c>
-      <c r="J1011" s="9"/>
-      <c r="K1011" s="9"/>
-      <c r="L1011" s="9"/>
-      <c r="M1011" s="17"/>
-    </row>
-    <row r="1012" spans="2:13">
-      <c r="C1012" s="56">
-        <v>2</v>
-      </c>
-      <c r="D1012" s="16" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E1012" s="17"/>
-      <c r="F1012" s="16" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G1012" s="9"/>
-      <c r="H1012" s="17"/>
-      <c r="I1012" s="16" t="s">
-        <v>1496</v>
-      </c>
-      <c r="J1012" s="9"/>
+      <c r="L1011" s="23"/>
+    </row>
+    <row r="1012" spans="2:17">
+      <c r="B1012" s="9"/>
+      <c r="C1012" s="9"/>
+      <c r="E1012" s="9"/>
+      <c r="F1012" s="9"/>
+      <c r="H1012" s="9"/>
+      <c r="I1012" s="9"/>
       <c r="K1012" s="9"/>
       <c r="L1012" s="9"/>
-      <c r="M1012" s="17"/>
-    </row>
-    <row r="1013" spans="2:13">
-      <c r="C1013" s="56">
+    </row>
+    <row r="1013" spans="2:17">
+      <c r="B1013" s="9"/>
+      <c r="C1013" s="9"/>
+      <c r="E1013" s="9"/>
+      <c r="F1013" s="9"/>
+      <c r="H1013" s="9"/>
+      <c r="I1013" s="9"/>
+    </row>
+    <row r="1014" spans="2:17" ht="15" thickBot="1">
+      <c r="G1014" s="43" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J1014" s="52" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K1014" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L1014" s="27" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M1014" s="27" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N1014" s="27" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O1014" s="27" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P1014" s="27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:17" ht="15" thickBot="1">
+      <c r="J1015" s="48" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K1015" s="45" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L1015" s="46" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M1015" s="46" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N1015" s="46" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O1015" s="46" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P1015" s="47" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q1015" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:17">
+      <c r="J1016" s="42" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K1016" s="49" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L1016" s="12"/>
+      <c r="M1016" s="12"/>
+      <c r="N1016" s="12"/>
+      <c r="O1016" s="12"/>
+      <c r="P1016" s="12"/>
+    </row>
+    <row r="1017" spans="2:17">
+      <c r="J1017" s="42" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K1017" s="50" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L1017" s="24"/>
+      <c r="M1017" s="24"/>
+      <c r="N1017" s="24"/>
+      <c r="O1017" s="24"/>
+      <c r="P1017" s="24"/>
+    </row>
+    <row r="1018" spans="2:17">
+      <c r="J1018" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="K1018" s="50" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L1018" s="24"/>
+      <c r="M1018" s="24"/>
+      <c r="N1018" s="24"/>
+      <c r="O1018" s="24"/>
+      <c r="P1018" s="24"/>
+    </row>
+    <row r="1019" spans="2:17">
+      <c r="I1019" t="s">
+        <v>557</v>
+      </c>
+      <c r="K1019" s="51"/>
+      <c r="L1019" s="9"/>
+      <c r="M1019" s="9"/>
+      <c r="N1019" s="9"/>
+      <c r="O1019" s="9"/>
+      <c r="P1019" s="9"/>
+    </row>
+    <row r="1020" spans="2:17">
+      <c r="B1020" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M1020" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N1020" s="48" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:17">
+      <c r="K1021" s="43" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:17">
+      <c r="B1022" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K1022" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:17">
+      <c r="B1023" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K1023" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:17">
+      <c r="B1024" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K1024" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:13">
+      <c r="B1025" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K1025" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:13">
+      <c r="B1026" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K1026" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:13">
+      <c r="K1027" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:13">
+      <c r="K1028" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:13">
+      <c r="K1030" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:13">
+      <c r="K1031" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:13">
+      <c r="K1032" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:13">
+      <c r="L1033" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:13">
+      <c r="L1034" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:13">
+      <c r="L1035" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:13">
+      <c r="L1036" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:13">
+      <c r="M1037" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4">
+      <c r="A1041" s="65" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4">
+      <c r="A1042" s="65"/>
+      <c r="B1042" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4">
+      <c r="B1044" s="65" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4">
+      <c r="B1045" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4">
+      <c r="B1046" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4">
+      <c r="B1048" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4">
+      <c r="C1049" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4">
+      <c r="C1051" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4">
+      <c r="D1052" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4">
+      <c r="B1054" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4">
+      <c r="C1055" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4">
+      <c r="C1056" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:4">
+      <c r="C1058" s="2" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:4">
+      <c r="B1060" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:4">
+      <c r="C1061" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:4">
+      <c r="C1062" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:4">
+      <c r="D1063" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:4">
+      <c r="C1065" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:4">
+      <c r="C1067" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1068" spans="2:4">
+      <c r="D1068" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:4">
+      <c r="D1069" s="2" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:4">
+      <c r="B1071" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:4">
+      <c r="C1072" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1073" spans="2:4">
+      <c r="C1073" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:4">
+      <c r="C1074" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:4">
+      <c r="C1076" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:4">
+      <c r="C1077" s="65" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1078" spans="2:4">
+      <c r="C1078" s="65" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:4">
+      <c r="C1079" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:4">
+      <c r="C1080" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1081" spans="2:4">
+      <c r="C1081" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1083" spans="2:4">
+      <c r="C1083" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:4">
+      <c r="D1084" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:4">
+      <c r="C1086" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:4">
+      <c r="B1088" s="3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:13">
+      <c r="C1089" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1089" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E1089" s="15"/>
+      <c r="F1089" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G1089" s="14"/>
+      <c r="H1089" s="15"/>
+      <c r="I1089" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J1089" s="14"/>
+      <c r="K1089" s="14"/>
+      <c r="L1089" s="14"/>
+      <c r="M1089" s="15"/>
+    </row>
+    <row r="1090" spans="2:13">
+      <c r="C1090" s="56">
+        <v>1</v>
+      </c>
+      <c r="D1090" s="16" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E1090" s="17"/>
+      <c r="F1090" s="16" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G1090" s="9"/>
+      <c r="H1090" s="17"/>
+      <c r="I1090" s="16" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J1090" s="9"/>
+      <c r="K1090" s="9"/>
+      <c r="L1090" s="9"/>
+      <c r="M1090" s="17"/>
+    </row>
+    <row r="1091" spans="2:13">
+      <c r="C1091" s="56">
+        <v>2</v>
+      </c>
+      <c r="D1091" s="16" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E1091" s="17"/>
+      <c r="F1091" s="16" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G1091" s="9"/>
+      <c r="H1091" s="17"/>
+      <c r="I1091" s="16" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J1091" s="9"/>
+      <c r="K1091" s="9"/>
+      <c r="L1091" s="9"/>
+      <c r="M1091" s="17"/>
+    </row>
+    <row r="1092" spans="2:13">
+      <c r="C1092" s="56">
         <v>3</v>
       </c>
-      <c r="D1013" s="16" t="s">
+      <c r="D1092" s="16" t="s">
         <v>1497</v>
       </c>
-      <c r="E1013" s="17"/>
-      <c r="F1013" s="29" t="s">
+      <c r="E1092" s="17"/>
+      <c r="F1092" s="29" t="s">
         <v>1498</v>
       </c>
-      <c r="G1013" s="9"/>
-      <c r="H1013" s="17"/>
-      <c r="I1013" s="29" t="s">
+      <c r="G1092" s="9"/>
+      <c r="H1092" s="17"/>
+      <c r="I1092" s="29" t="s">
         <v>1499</v>
       </c>
-      <c r="J1013" s="9"/>
-      <c r="K1013" s="9"/>
-      <c r="L1013" s="9"/>
-      <c r="M1013" s="17"/>
-    </row>
-    <row r="1014" spans="2:13">
-      <c r="C1014" s="56">
+      <c r="J1092" s="9"/>
+      <c r="K1092" s="9"/>
+      <c r="L1092" s="9"/>
+      <c r="M1092" s="17"/>
+    </row>
+    <row r="1093" spans="2:13">
+      <c r="C1093" s="56">
         <v>4</v>
       </c>
-      <c r="D1014" s="16" t="s">
+      <c r="D1093" s="16" t="s">
         <v>1500</v>
       </c>
-      <c r="E1014" s="17"/>
-      <c r="F1014" s="16" t="s">
+      <c r="E1093" s="17"/>
+      <c r="F1093" s="16" t="s">
         <v>1501</v>
       </c>
-      <c r="G1014" s="9"/>
-      <c r="H1014" s="17"/>
-      <c r="I1014" s="29" t="s">
+      <c r="G1093" s="9"/>
+      <c r="H1093" s="17"/>
+      <c r="I1093" s="29" t="s">
         <v>1502</v>
       </c>
-      <c r="J1014" s="9"/>
-      <c r="K1014" s="9"/>
-      <c r="L1014" s="9"/>
-      <c r="M1014" s="17"/>
-    </row>
-    <row r="1015" spans="2:13">
-      <c r="C1015" s="12">
+      <c r="J1093" s="9"/>
+      <c r="K1093" s="9"/>
+      <c r="L1093" s="9"/>
+      <c r="M1093" s="17"/>
+    </row>
+    <row r="1094" spans="2:13">
+      <c r="C1094" s="12">
         <v>5</v>
       </c>
-      <c r="D1015" s="18" t="s">
+      <c r="D1094" s="18" t="s">
         <v>1503</v>
       </c>
-      <c r="E1015" s="20"/>
-      <c r="F1015" s="18" t="s">
+      <c r="E1094" s="20"/>
+      <c r="F1094" s="18" t="s">
         <v>1504</v>
       </c>
-      <c r="G1015" s="19"/>
-      <c r="H1015" s="20"/>
-      <c r="I1015" s="18" t="s">
+      <c r="G1094" s="19"/>
+      <c r="H1094" s="20"/>
+      <c r="I1094" s="18" t="s">
         <v>1505</v>
       </c>
-      <c r="J1015" s="19"/>
-      <c r="K1015" s="19"/>
-      <c r="L1015" s="19"/>
-      <c r="M1015" s="20"/>
-    </row>
-    <row r="1018" spans="2:13">
-      <c r="B1018" t="s">
+      <c r="J1094" s="19"/>
+      <c r="K1094" s="19"/>
+      <c r="L1094" s="19"/>
+      <c r="M1094" s="20"/>
+    </row>
+    <row r="1097" spans="2:13">
+      <c r="B1097" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="1019" spans="2:13">
-      <c r="C1019" t="s">
+    <row r="1098" spans="2:13">
+      <c r="C1098" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="1020" spans="2:13">
-      <c r="C1020" t="s">
+    <row r="1099" spans="2:13">
+      <c r="C1099" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="1022" spans="2:13">
-      <c r="B1022" s="3" t="s">
+    <row r="1101" spans="2:13">
+      <c r="B1101" s="3" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="1023" spans="2:13">
-      <c r="B1023">
+    <row r="1102" spans="2:13">
+      <c r="B1102">
         <v>1</v>
       </c>
-      <c r="C1023" t="s">
+      <c r="C1102" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="1024" spans="2:13">
-      <c r="B1024">
+    <row r="1103" spans="2:13">
+      <c r="B1103">
         <v>2</v>
       </c>
-      <c r="C1024" t="s">
+      <c r="C1103" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="1025" spans="1:4">
-      <c r="B1025">
+    <row r="1104" spans="2:13">
+      <c r="B1104">
         <v>3</v>
       </c>
-      <c r="C1025" t="s">
+      <c r="C1104" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="1026" spans="1:4">
-      <c r="D1026" t="s">
+    <row r="1105" spans="1:4">
+      <c r="D1105" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="1027" spans="1:4">
-      <c r="B1027">
+    <row r="1106" spans="1:4">
+      <c r="B1106">
         <v>4</v>
       </c>
-      <c r="C1027" t="s">
+      <c r="C1106" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="1029" spans="1:4">
-      <c r="C1029" t="s">
+    <row r="1108" spans="1:4">
+      <c r="C1108" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="1032" spans="1:4">
-      <c r="A1032" s="3" t="s">
+    <row r="1111" spans="1:4">
+      <c r="A1111" s="3" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="1034" spans="1:4">
-      <c r="B1034" s="3" t="s">
+    <row r="1113" spans="1:4">
+      <c r="B1113" s="3" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="1035" spans="1:4">
-      <c r="B1035" t="s">
+    <row r="1114" spans="1:4">
+      <c r="B1114" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="1036" spans="1:4">
-      <c r="C1036" t="s">
+    <row r="1115" spans="1:4">
+      <c r="C1115" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="1037" spans="1:4">
-      <c r="C1037" t="s">
+    <row r="1116" spans="1:4">
+      <c r="C1116" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="1038" spans="1:4">
-      <c r="C1038" t="s">
+    <row r="1117" spans="1:4">
+      <c r="C1117" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="1039" spans="1:4">
-      <c r="C1039" t="s">
+    <row r="1118" spans="1:4">
+      <c r="C1118" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="1041" spans="2:4">
-      <c r="B1041" s="3" t="s">
+    <row r="1120" spans="1:4">
+      <c r="B1120" s="3" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="1042" spans="2:4">
-      <c r="C1042" t="s">
+    <row r="1121" spans="2:4">
+      <c r="C1121" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1043" spans="2:4">
-      <c r="C1043" t="s">
+    <row r="1122" spans="2:4">
+      <c r="C1122" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1044" spans="2:4">
-      <c r="C1044" t="s">
+    <row r="1123" spans="2:4">
+      <c r="C1123" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1046" spans="2:4">
-      <c r="B1046" t="s">
+    <row r="1125" spans="2:4">
+      <c r="B1125" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="1047" spans="2:4">
-      <c r="C1047" t="s">
+    <row r="1126" spans="2:4">
+      <c r="C1126" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="1049" spans="2:4">
-      <c r="C1049" t="s">
+    <row r="1128" spans="2:4">
+      <c r="C1128" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="1051" spans="2:4">
-      <c r="B1051" t="s">
+    <row r="1130" spans="2:4">
+      <c r="B1130" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="1052" spans="2:4">
-      <c r="C1052" t="s">
+    <row r="1131" spans="2:4">
+      <c r="C1131" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="1053" spans="2:4">
-      <c r="D1053" t="s">
+    <row r="1132" spans="2:4">
+      <c r="D1132" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="1055" spans="2:4">
-      <c r="B1055" t="s">
+    <row r="1134" spans="2:4">
+      <c r="B1134" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="1056" spans="2:4">
-      <c r="C1056" t="s">
+    <row r="1135" spans="2:4">
+      <c r="C1135" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="1057" spans="2:10">
-      <c r="C1057" s="66" t="s">
+    <row r="1136" spans="2:4">
+      <c r="C1136" s="66" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="1058" spans="2:10">
-      <c r="C1058" t="s">
+    <row r="1137" spans="2:10">
+      <c r="C1137" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="1059" spans="2:10">
-      <c r="C1059" s="66" t="s">
+    <row r="1138" spans="2:10">
+      <c r="C1138" s="66" t="s">
         <v>1536</v>
       </c>
-      <c r="J1059" t="s">
+      <c r="J1138" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="1061" spans="2:10">
-      <c r="C1061" s="66" t="s">
+    <row r="1140" spans="2:10">
+      <c r="C1140" s="66" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="1062" spans="2:10">
-      <c r="C1062" s="66" t="s">
+    <row r="1141" spans="2:10">
+      <c r="C1141" s="66" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="1063" spans="2:10">
-      <c r="C1063" t="s">
+    <row r="1142" spans="2:10">
+      <c r="C1142" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="1065" spans="2:10">
-      <c r="B1065" t="s">
+    <row r="1144" spans="2:10">
+      <c r="B1144" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="1067" spans="2:10">
-      <c r="C1067" t="s">
+    <row r="1146" spans="2:10">
+      <c r="C1146" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="1068" spans="2:10">
-      <c r="C1068" t="s">
+    <row r="1147" spans="2:10">
+      <c r="C1147" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="1069" spans="2:10">
-      <c r="C1069" t="s">
+    <row r="1148" spans="2:10">
+      <c r="C1148" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="1070" spans="2:10">
-      <c r="C1070" t="s">
+    <row r="1149" spans="2:10">
+      <c r="C1149" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="1071" spans="2:10">
-      <c r="C1071" t="s">
+    <row r="1150" spans="2:10">
+      <c r="C1150" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="1072" spans="2:10">
-      <c r="C1072" t="s">
+    <row r="1151" spans="2:10">
+      <c r="C1151" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="1073" spans="2:3">
-      <c r="C1073" t="s">
+    <row r="1152" spans="2:10">
+      <c r="C1152" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="1074" spans="2:3">
-      <c r="C1074" t="s">
+    <row r="1153" spans="2:3">
+      <c r="C1153" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="1076" spans="2:3">
-      <c r="C1076" t="s">
+    <row r="1155" spans="2:3">
+      <c r="C1155" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="1078" spans="2:3">
-      <c r="B1078" t="s">
+    <row r="1157" spans="2:3">
+      <c r="B1157" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="1079" spans="2:3">
-      <c r="C1079" t="s">
+    <row r="1158" spans="2:3">
+      <c r="C1158" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="1080" spans="2:3">
-      <c r="C1080" t="s">
+    <row r="1159" spans="2:3">
+      <c r="C1159" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="1082" spans="2:3">
-      <c r="C1082" s="3" t="s">
+    <row r="1161" spans="2:3">
+      <c r="C1161" s="3" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="1083" spans="2:3">
-      <c r="C1083" t="s">
+    <row r="1162" spans="2:3">
+      <c r="C1162" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="1084" spans="2:3">
-      <c r="C1084" t="s">
+    <row r="1163" spans="2:3">
+      <c r="C1163" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1085" spans="2:3">
-      <c r="C1085" t="s">
+    <row r="1164" spans="2:3">
+      <c r="C1164" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="1086" spans="2:3">
-      <c r="C1086" t="s">
+    <row r="1165" spans="2:3">
+      <c r="C1165" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1087" spans="2:3">
-      <c r="C1087" t="s">
+    <row r="1166" spans="2:3">
+      <c r="C1166" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="1088" spans="2:3">
-      <c r="C1088" t="s">
+    <row r="1167" spans="2:3">
+      <c r="C1167" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1089" spans="2:11">
-      <c r="C1089" t="s">
+    <row r="1168" spans="2:3">
+      <c r="C1168" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="1090" spans="2:11">
-      <c r="C1090" t="s">
+    <row r="1169" spans="2:11">
+      <c r="C1169" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1091" spans="2:11">
-      <c r="C1091" t="s">
+    <row r="1170" spans="2:11">
+      <c r="C1170" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="1092" spans="2:11">
-      <c r="C1092" t="s">
+    <row r="1171" spans="2:11">
+      <c r="C1171" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1093" spans="2:11">
-      <c r="C1093" t="s">
+    <row r="1172" spans="2:11">
+      <c r="C1172" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="1094" spans="2:11">
-      <c r="C1094" t="s">
+    <row r="1173" spans="2:11">
+      <c r="C1173" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1095" spans="2:11">
-      <c r="C1095" t="s">
+    <row r="1174" spans="2:11">
+      <c r="C1174" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="1096" spans="2:11">
-      <c r="C1096" t="s">
+    <row r="1175" spans="2:11">
+      <c r="C1175" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1097" spans="2:11">
-      <c r="C1097" t="s">
+    <row r="1176" spans="2:11">
+      <c r="C1176" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="1100" spans="2:11">
-      <c r="B1100" s="11" t="s">
+    <row r="1179" spans="2:11">
+      <c r="B1179" s="11" t="s">
         <v>1378</v>
       </c>
-      <c r="C1100" s="13" t="s">
+      <c r="C1179" s="13" t="s">
         <v>1551</v>
       </c>
-      <c r="D1100" s="14"/>
-      <c r="E1100" s="15"/>
-      <c r="F1100" s="13" t="s">
+      <c r="D1179" s="14"/>
+      <c r="E1179" s="15"/>
+      <c r="F1179" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G1100" s="14"/>
-      <c r="H1100" s="14"/>
-      <c r="I1100" s="14"/>
-      <c r="J1100" s="14"/>
-      <c r="K1100" s="15"/>
-    </row>
-    <row r="1101" spans="2:11">
-      <c r="B1101" s="56">
+      <c r="G1179" s="14"/>
+      <c r="H1179" s="14"/>
+      <c r="I1179" s="14"/>
+      <c r="J1179" s="14"/>
+      <c r="K1179" s="15"/>
+    </row>
+    <row r="1180" spans="2:11">
+      <c r="B1180" s="56">
         <v>1</v>
       </c>
-      <c r="C1101" s="16" t="s">
+      <c r="C1180" s="16" t="s">
         <v>1513</v>
       </c>
-      <c r="D1101" s="9"/>
-      <c r="E1101" s="17"/>
-      <c r="F1101" s="16" t="s">
+      <c r="D1180" s="9"/>
+      <c r="E1180" s="17"/>
+      <c r="F1180" s="16" t="s">
         <v>1552</v>
       </c>
-      <c r="G1101" s="9"/>
-      <c r="H1101" s="9"/>
-      <c r="I1101" s="9"/>
-      <c r="J1101" s="9"/>
-      <c r="K1101" s="17"/>
-    </row>
-    <row r="1102" spans="2:11">
-      <c r="B1102" s="56">
+      <c r="G1180" s="9"/>
+      <c r="H1180" s="9"/>
+      <c r="I1180" s="9"/>
+      <c r="J1180" s="9"/>
+      <c r="K1180" s="17"/>
+    </row>
+    <row r="1181" spans="2:11">
+      <c r="B1181" s="56">
         <v>2</v>
       </c>
-      <c r="C1102" s="16" t="s">
+      <c r="C1181" s="16" t="s">
         <v>1553</v>
       </c>
-      <c r="D1102" s="9"/>
-      <c r="E1102" s="17"/>
-      <c r="F1102" s="16" t="s">
+      <c r="D1181" s="9"/>
+      <c r="E1181" s="17"/>
+      <c r="F1181" s="16" t="s">
         <v>1554</v>
       </c>
-      <c r="G1102" s="9"/>
-      <c r="H1102" s="9"/>
-      <c r="I1102" s="9"/>
-      <c r="J1102" s="9"/>
-      <c r="K1102" s="17"/>
-    </row>
-    <row r="1103" spans="2:11">
-      <c r="B1103" s="56">
+      <c r="G1181" s="9"/>
+      <c r="H1181" s="9"/>
+      <c r="I1181" s="9"/>
+      <c r="J1181" s="9"/>
+      <c r="K1181" s="17"/>
+    </row>
+    <row r="1182" spans="2:11">
+      <c r="B1182" s="56">
         <v>3</v>
       </c>
-      <c r="C1103" s="16" t="s">
+      <c r="C1182" s="16" t="s">
         <v>1546</v>
       </c>
-      <c r="D1103" s="9"/>
-      <c r="E1103" s="17"/>
-      <c r="F1103" s="16" t="s">
+      <c r="D1182" s="9"/>
+      <c r="E1182" s="17"/>
+      <c r="F1182" s="16" t="s">
         <v>1555</v>
       </c>
-      <c r="G1103" s="9"/>
-      <c r="H1103" s="9"/>
-      <c r="I1103" s="9"/>
-      <c r="J1103" s="9"/>
-      <c r="K1103" s="17"/>
-    </row>
-    <row r="1104" spans="2:11">
-      <c r="B1104" s="12">
+      <c r="G1182" s="9"/>
+      <c r="H1182" s="9"/>
+      <c r="I1182" s="9"/>
+      <c r="J1182" s="9"/>
+      <c r="K1182" s="17"/>
+    </row>
+    <row r="1183" spans="2:11">
+      <c r="B1183" s="12">
         <v>4</v>
       </c>
-      <c r="C1104" s="18" t="s">
+      <c r="C1183" s="18" t="s">
         <v>1547</v>
       </c>
-      <c r="D1104" s="19"/>
-      <c r="E1104" s="20"/>
-      <c r="F1104" s="18" t="s">
+      <c r="D1183" s="19"/>
+      <c r="E1183" s="20"/>
+      <c r="F1183" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="G1104" s="19"/>
-      <c r="H1104" s="19"/>
-      <c r="I1104" s="19"/>
-      <c r="J1104" s="19"/>
-      <c r="K1104" s="20"/>
-    </row>
-    <row r="1106" spans="2:2">
-      <c r="B1106" s="3" t="s">
+      <c r="G1183" s="19"/>
+      <c r="H1183" s="19"/>
+      <c r="I1183" s="19"/>
+      <c r="J1183" s="19"/>
+      <c r="K1183" s="20"/>
+    </row>
+    <row r="1185" spans="2:2">
+      <c r="B1185" s="3" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="1107" spans="2:2">
-      <c r="B1107" t="s">
+    <row r="1186" spans="2:2">
+      <c r="B1186" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="1108" spans="2:2">
-      <c r="B1108" t="s">
+    <row r="1187" spans="2:2">
+      <c r="B1187" t="s">
         <v>1559</v>
       </c>
     </row>

--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1885">
   <si>
     <t>speedApp</t>
   </si>
@@ -33261,26 +33261,44 @@
   </si>
   <si>
     <t>form=form -&gt; key=value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make_fields_readonly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self):</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="55">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -33941,21 +33959,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -33970,57 +33988,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34029,9 +34046,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7D7DFF"/>
       <color rgb="FFA47A20"/>
       <color rgb="FFA626A4"/>
-      <color rgb="FF7D7DFF"/>
       <color rgb="FF179A77"/>
       <color rgb="FFDA7BB9"/>
       <color rgb="FFFF33CC"/>
@@ -43599,8 +43616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T1275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A693" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J703" sqref="J703"/>
+    <sheetView tabSelected="1" topLeftCell="A528" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F539" sqref="F539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -43716,7 +43733,7 @@
         <v>471</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -44149,7 +44166,7 @@
       </c>
       <c r="J176" s="26"/>
       <c r="K176" s="14"/>
-      <c r="L176" s="37" t="s">
+      <c r="L176" s="36" t="s">
         <v>1129</v>
       </c>
       <c r="M176" s="14"/>
@@ -44339,7 +44356,7 @@
       <c r="B193" t="s">
         <v>1114</v>
       </c>
-      <c r="H193" s="54" t="s">
+      <c r="H193" s="77" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -44373,7 +44390,7 @@
       </c>
     </row>
     <row r="198" spans="2:13">
-      <c r="H198" s="36" t="s">
+      <c r="H198" s="77" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -44783,7 +44800,7 @@
       </c>
     </row>
     <row r="396" spans="2:2">
-      <c r="B396" s="38" t="s">
+      <c r="B396" s="37" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -44860,7 +44877,7 @@
       </c>
       <c r="L411" s="14"/>
       <c r="M411" s="15"/>
-      <c r="N411" s="53">
+      <c r="N411" s="52">
         <v>3</v>
       </c>
     </row>
@@ -44875,7 +44892,7 @@
       </c>
       <c r="L412" s="19"/>
       <c r="M412" s="20"/>
-      <c r="N412" s="53">
+      <c r="N412" s="52">
         <v>4</v>
       </c>
     </row>
@@ -45024,7 +45041,7 @@
       <c r="H434" t="s">
         <v>1282</v>
       </c>
-      <c r="L434" s="52" t="s">
+      <c r="L434" s="51" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -45039,7 +45056,7 @@
       <c r="H435" t="s">
         <v>1281</v>
       </c>
-      <c r="L435" s="64" t="s">
+      <c r="L435" s="62" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -45176,7 +45193,7 @@
         <v>1380</v>
       </c>
       <c r="J459" s="14"/>
-      <c r="K459" s="57"/>
+      <c r="K459" s="55"/>
       <c r="L459" s="14"/>
       <c r="M459" s="14"/>
       <c r="N459" s="15"/>
@@ -45195,16 +45212,16 @@
         <v>1801</v>
       </c>
       <c r="J460" s="22"/>
-      <c r="K460" s="59"/>
+      <c r="K460" s="57"/>
       <c r="L460" s="22"/>
       <c r="M460" s="22"/>
       <c r="N460" s="23"/>
     </row>
     <row r="461" spans="4:14">
-      <c r="D461" s="56">
+      <c r="D461" s="54">
         <v>2</v>
       </c>
-      <c r="E461" s="72" t="s">
+      <c r="E461" s="70" t="s">
         <v>1802</v>
       </c>
       <c r="F461" s="9"/>
@@ -45214,7 +45231,7 @@
         <v>1382</v>
       </c>
       <c r="J461" s="9"/>
-      <c r="K461" s="58"/>
+      <c r="K461" s="56"/>
       <c r="L461" s="9"/>
       <c r="M461" s="9"/>
       <c r="N461" s="17"/>
@@ -45233,7 +45250,7 @@
         <v>1383</v>
       </c>
       <c r="J462" s="22"/>
-      <c r="K462" s="59"/>
+      <c r="K462" s="57"/>
       <c r="L462" s="22"/>
       <c r="M462" s="22"/>
       <c r="N462" s="23"/>
@@ -45252,7 +45269,7 @@
         <v>1384</v>
       </c>
       <c r="J463" s="9"/>
-      <c r="K463" s="58"/>
+      <c r="K463" s="56"/>
       <c r="L463" s="9"/>
       <c r="M463" s="9"/>
       <c r="N463" s="17"/>
@@ -45271,7 +45288,7 @@
         <v>1385</v>
       </c>
       <c r="J464" s="22"/>
-      <c r="K464" s="59"/>
+      <c r="K464" s="57"/>
       <c r="L464" s="22"/>
       <c r="M464" s="22"/>
       <c r="N464" s="23"/>
@@ -45284,7 +45301,7 @@
       <c r="H465" s="9"/>
       <c r="I465" s="9"/>
       <c r="J465" s="9"/>
-      <c r="K465" s="58"/>
+      <c r="K465" s="56"/>
       <c r="L465" s="9"/>
       <c r="M465" s="9"/>
       <c r="N465" s="9"/>
@@ -45299,13 +45316,13 @@
       <c r="H466" s="9"/>
       <c r="I466" s="9"/>
       <c r="J466" s="9"/>
-      <c r="K466" s="58"/>
+      <c r="K466" s="56"/>
       <c r="L466" s="9"/>
       <c r="M466" s="9"/>
       <c r="N466" s="9"/>
     </row>
     <row r="467" spans="4:14">
-      <c r="E467" s="73" t="s">
+      <c r="E467" s="76" t="s">
         <v>1804</v>
       </c>
       <c r="F467" s="9"/>
@@ -45313,26 +45330,26 @@
       <c r="H467" s="9"/>
       <c r="I467" s="9"/>
       <c r="J467" s="9"/>
-      <c r="K467" s="58"/>
+      <c r="K467" s="56"/>
       <c r="L467" s="9"/>
       <c r="M467" s="9"/>
       <c r="N467" s="9"/>
     </row>
     <row r="468" spans="4:14">
-      <c r="D468" s="60"/>
+      <c r="D468" s="58"/>
       <c r="E468" s="9"/>
       <c r="F468" s="9"/>
       <c r="G468" s="9"/>
       <c r="H468" s="9"/>
       <c r="I468" s="9"/>
       <c r="J468" s="9"/>
-      <c r="K468" s="58"/>
+      <c r="K468" s="56"/>
       <c r="L468" s="9"/>
       <c r="M468" s="9"/>
       <c r="N468" s="9"/>
     </row>
     <row r="469" spans="4:14">
-      <c r="D469" s="60"/>
+      <c r="D469" s="58"/>
       <c r="E469" s="9" t="s">
         <v>1388</v>
       </c>
@@ -45341,13 +45358,13 @@
       <c r="H469" s="9"/>
       <c r="I469" s="9"/>
       <c r="J469" s="9"/>
-      <c r="K469" s="58"/>
+      <c r="K469" s="56"/>
       <c r="L469" s="9"/>
       <c r="M469" s="9"/>
       <c r="N469" s="9"/>
     </row>
     <row r="470" spans="4:14">
-      <c r="D470" s="60"/>
+      <c r="D470" s="58"/>
       <c r="E470" s="9" t="s">
         <v>1389</v>
       </c>
@@ -45356,13 +45373,13 @@
       <c r="H470" s="9"/>
       <c r="I470" s="9"/>
       <c r="J470" s="9"/>
-      <c r="K470" s="58"/>
+      <c r="K470" s="56"/>
       <c r="L470" s="9"/>
       <c r="M470" s="9"/>
       <c r="N470" s="9"/>
     </row>
     <row r="471" spans="4:14">
-      <c r="D471" s="60"/>
+      <c r="D471" s="58"/>
       <c r="E471" s="9" t="s">
         <v>1390</v>
       </c>
@@ -45371,26 +45388,26 @@
       <c r="H471" s="9"/>
       <c r="I471" s="9"/>
       <c r="J471" s="9"/>
-      <c r="K471" s="58"/>
+      <c r="K471" s="56"/>
       <c r="L471" s="9"/>
       <c r="M471" s="9"/>
       <c r="N471" s="9"/>
     </row>
     <row r="472" spans="4:14">
-      <c r="D472" s="60"/>
+      <c r="D472" s="58"/>
       <c r="F472" s="9"/>
       <c r="G472" s="9"/>
       <c r="H472" s="9"/>
       <c r="I472" s="9"/>
       <c r="J472" s="9"/>
-      <c r="K472" s="58"/>
+      <c r="K472" s="56"/>
       <c r="L472" s="9"/>
       <c r="M472" s="9"/>
       <c r="N472" s="9"/>
     </row>
     <row r="473" spans="4:14">
-      <c r="D473" s="60"/>
-      <c r="E473" s="61" t="s">
+      <c r="D473" s="58"/>
+      <c r="E473" s="59" t="s">
         <v>1391</v>
       </c>
       <c r="F473" s="9"/>
@@ -45398,14 +45415,14 @@
       <c r="H473" s="9"/>
       <c r="I473" s="9"/>
       <c r="J473" s="9"/>
-      <c r="K473" s="58"/>
+      <c r="K473" s="56"/>
       <c r="L473" s="9"/>
       <c r="M473" s="9"/>
       <c r="N473" s="9"/>
     </row>
     <row r="474" spans="4:14">
-      <c r="D474" s="60"/>
-      <c r="E474" s="61" t="s">
+      <c r="D474" s="58"/>
+      <c r="E474" s="59" t="s">
         <v>1392</v>
       </c>
       <c r="F474" s="9"/>
@@ -45413,13 +45430,13 @@
       <c r="H474" s="9"/>
       <c r="I474" s="9"/>
       <c r="J474" s="9"/>
-      <c r="K474" s="58"/>
+      <c r="K474" s="56"/>
       <c r="L474" s="9"/>
       <c r="M474" s="9"/>
       <c r="N474" s="9"/>
     </row>
     <row r="475" spans="4:14">
-      <c r="D475" s="60"/>
+      <c r="D475" s="58"/>
       <c r="E475" s="9"/>
       <c r="F475" s="9" t="s">
         <v>1381</v>
@@ -45428,7 +45445,7 @@
       <c r="H475" s="9"/>
       <c r="I475" s="9"/>
       <c r="J475" s="9"/>
-      <c r="K475" s="58"/>
+      <c r="K475" s="56"/>
       <c r="L475" s="9"/>
       <c r="M475" s="9"/>
       <c r="N475" s="9"/>
@@ -45443,7 +45460,7 @@
       <c r="K477" s="25"/>
     </row>
     <row r="478" spans="4:14">
-      <c r="E478" s="55" t="s">
+      <c r="E478" s="53" t="s">
         <v>1409</v>
       </c>
       <c r="H478" t="s">
@@ -45452,17 +45469,17 @@
       <c r="K478" s="25"/>
     </row>
     <row r="479" spans="4:14">
-      <c r="E479" s="62" t="s">
+      <c r="E479" s="60" t="s">
         <v>1449</v>
       </c>
       <c r="K479" s="25"/>
     </row>
     <row r="480" spans="4:14">
-      <c r="E480" s="62"/>
+      <c r="E480" s="60"/>
       <c r="K480" s="25"/>
     </row>
     <row r="481" spans="4:11">
-      <c r="E481" s="63" t="s">
+      <c r="E481" s="61" t="s">
         <v>1447</v>
       </c>
       <c r="K481" s="25" t="s">
@@ -45470,7 +45487,7 @@
       </c>
     </row>
     <row r="482" spans="4:11">
-      <c r="E482" s="63" t="s">
+      <c r="E482" s="61" t="s">
         <v>1448</v>
       </c>
       <c r="K482" t="s">
@@ -45544,7 +45561,7 @@
       <c r="D496" t="s">
         <v>1403</v>
       </c>
-      <c r="K496" s="55" t="s">
+      <c r="K496" s="53" t="s">
         <v>1405</v>
       </c>
     </row>
@@ -45570,7 +45587,7 @@
       <c r="K500" s="25"/>
     </row>
     <row r="501" spans="3:11">
-      <c r="F501" s="74" t="s">
+      <c r="F501" s="71" t="s">
         <v>1806</v>
       </c>
       <c r="K501" s="25"/>
@@ -45616,7 +45633,7 @@
       <c r="D508" t="s">
         <v>1300</v>
       </c>
-      <c r="K508" s="55" t="s">
+      <c r="K508" s="53" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -45664,7 +45681,7 @@
       <c r="D514" t="s">
         <v>1299</v>
       </c>
-      <c r="K514" s="55" t="s">
+      <c r="K514" s="53" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -45745,7 +45762,7 @@
       <c r="D536" t="s">
         <v>1316</v>
       </c>
-      <c r="L536" s="55" t="s">
+      <c r="L536" s="53" t="s">
         <v>1440</v>
       </c>
     </row>
@@ -45760,7 +45777,7 @@
       </c>
     </row>
     <row r="540" spans="3:12">
-      <c r="D540" t="s">
+      <c r="D540" s="2" t="s">
         <v>1318</v>
       </c>
     </row>
@@ -45969,7 +45986,7 @@
       <c r="M567" s="23"/>
     </row>
     <row r="568" spans="4:13">
-      <c r="D568" s="56" t="s">
+      <c r="D568" s="54" t="s">
         <v>1345</v>
       </c>
       <c r="E568" s="16" t="s">
@@ -46061,7 +46078,7 @@
       </c>
     </row>
     <row r="582" spans="3:11">
-      <c r="D582" s="55" t="s">
+      <c r="D582" s="53" t="s">
         <v>1444</v>
       </c>
       <c r="K582" t="s">
@@ -46132,7 +46149,7 @@
       </c>
     </row>
     <row r="596" spans="2:5">
-      <c r="D596" s="55" t="s">
+      <c r="D596" s="53" t="s">
         <v>1366</v>
       </c>
     </row>
@@ -46237,7 +46254,7 @@
       </c>
     </row>
     <row r="622" spans="2:9">
-      <c r="D622" s="68" t="s">
+      <c r="D622" s="66" t="s">
         <v>437</v>
       </c>
     </row>
@@ -46258,7 +46275,7 @@
       </c>
     </row>
     <row r="625" spans="3:10">
-      <c r="D625" s="68" t="s">
+      <c r="D625" s="66" t="s">
         <v>1717</v>
       </c>
       <c r="H625" t="s">
@@ -46269,7 +46286,7 @@
       </c>
     </row>
     <row r="626" spans="3:10">
-      <c r="D626" s="68" t="s">
+      <c r="D626" s="66" t="s">
         <v>1718</v>
       </c>
       <c r="H626" t="s">
@@ -46280,7 +46297,7 @@
       </c>
     </row>
     <row r="627" spans="3:10">
-      <c r="D627" s="68" t="s">
+      <c r="D627" s="66" t="s">
         <v>1719</v>
       </c>
       <c r="I627" t="s">
@@ -46288,7 +46305,7 @@
       </c>
     </row>
     <row r="628" spans="3:10">
-      <c r="D628" s="68" t="s">
+      <c r="D628" s="66" t="s">
         <v>438</v>
       </c>
     </row>
@@ -46401,7 +46418,7 @@
       </c>
     </row>
     <row r="644" spans="3:7">
-      <c r="D644" s="68" t="s">
+      <c r="D644" s="66" t="s">
         <v>1721</v>
       </c>
     </row>
@@ -46581,7 +46598,7 @@
       </c>
     </row>
     <row r="689" spans="3:10">
-      <c r="E689" s="66" t="s">
+      <c r="E689" s="64" t="s">
         <v>1600</v>
       </c>
     </row>
@@ -46616,7 +46633,7 @@
       </c>
     </row>
     <row r="696" spans="3:10" ht="15">
-      <c r="D696" s="67" t="s">
+      <c r="D696" s="65" t="s">
         <v>1605</v>
       </c>
     </row>
@@ -46641,7 +46658,7 @@
       </c>
     </row>
     <row r="701" spans="3:10">
-      <c r="E701" s="66" t="s">
+      <c r="E701" s="64" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -46654,7 +46671,7 @@
       </c>
     </row>
     <row r="703" spans="3:10">
-      <c r="E703" s="66" t="s">
+      <c r="E703" s="64" t="s">
         <v>1530</v>
       </c>
     </row>
@@ -46729,7 +46746,7 @@
       </c>
     </row>
     <row r="719" spans="4:10">
-      <c r="E719" s="66" t="s">
+      <c r="E719" s="64" t="s">
         <v>1624</v>
       </c>
       <c r="J719" s="7" t="s">
@@ -46760,12 +46777,12 @@
       </c>
     </row>
     <row r="725" spans="4:11">
-      <c r="E725" s="66" t="s">
+      <c r="E725" s="64" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="726" spans="4:11">
-      <c r="E726" s="66" t="s">
+      <c r="E726" s="64" t="s">
         <v>1628</v>
       </c>
     </row>
@@ -46918,7 +46935,7 @@
       </c>
     </row>
     <row r="754" spans="3:10">
-      <c r="D754" s="75" t="s">
+      <c r="D754" s="72" t="s">
         <v>1846</v>
       </c>
       <c r="J754" s="7" t="s">
@@ -47016,7 +47033,7 @@
     </row>
     <row r="772" spans="3:6">
       <c r="C772" s="3"/>
-      <c r="D772" s="66" t="s">
+      <c r="D772" s="64" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -47046,13 +47063,13 @@
     </row>
     <row r="778" spans="3:6">
       <c r="C778" s="3"/>
-      <c r="E778" s="66" t="s">
+      <c r="E778" s="64" t="s">
         <v>1657</v>
       </c>
     </row>
     <row r="779" spans="3:6">
       <c r="C779" s="3"/>
-      <c r="E779" s="66"/>
+      <c r="E779" s="64"/>
     </row>
     <row r="780" spans="3:6">
       <c r="C780" s="3"/>
@@ -47181,7 +47198,7 @@
       </c>
     </row>
     <row r="810" spans="4:5">
-      <c r="E810" s="66" t="s">
+      <c r="E810" s="64" t="s">
         <v>1682</v>
       </c>
     </row>
@@ -47206,7 +47223,7 @@
       </c>
     </row>
     <row r="818" spans="3:6">
-      <c r="F818" s="66" t="s">
+      <c r="F818" s="64" t="s">
         <v>1687</v>
       </c>
     </row>
@@ -47289,13 +47306,13 @@
     </row>
     <row r="836" spans="3:5">
       <c r="C836" s="3"/>
-      <c r="D836" s="71" t="s">
+      <c r="D836" s="69" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="837" spans="3:5">
       <c r="C837" s="3"/>
-      <c r="D837" s="69" t="s">
+      <c r="D837" s="67" t="s">
         <v>1737</v>
       </c>
     </row>
@@ -47334,7 +47351,7 @@
     </row>
     <row r="844" spans="3:5">
       <c r="C844" s="3"/>
-      <c r="D844" s="70" t="s">
+      <c r="D844" s="68" t="s">
         <v>1736</v>
       </c>
     </row>
@@ -47376,7 +47393,7 @@
     </row>
     <row r="852" spans="3:10">
       <c r="C852" s="3"/>
-      <c r="D852" s="69" t="s">
+      <c r="D852" s="67" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -47385,7 +47402,7 @@
     </row>
     <row r="854" spans="3:10">
       <c r="C854" s="3"/>
-      <c r="E854" s="69" t="s">
+      <c r="E854" s="67" t="s">
         <v>1744</v>
       </c>
     </row>
@@ -47471,7 +47488,7 @@
     </row>
     <row r="863" spans="3:10">
       <c r="C863" s="3"/>
-      <c r="E863" s="69" t="s">
+      <c r="E863" s="67" t="s">
         <v>1755</v>
       </c>
     </row>
@@ -47569,7 +47586,7 @@
     </row>
     <row r="873" spans="3:10">
       <c r="D873" s="3"/>
-      <c r="E873" s="69" t="s">
+      <c r="E873" s="67" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -47647,7 +47664,7 @@
     </row>
     <row r="882" spans="4:10">
       <c r="D882" s="3"/>
-      <c r="E882" s="69" t="s">
+      <c r="E882" s="67" t="s">
         <v>1777</v>
       </c>
     </row>
@@ -47748,7 +47765,7 @@
     </row>
     <row r="893" spans="4:10">
       <c r="D893" s="3"/>
-      <c r="E893" s="69" t="s">
+      <c r="E893" s="67" t="s">
         <v>1785</v>
       </c>
     </row>
@@ -47891,7 +47908,7 @@
       </c>
     </row>
     <row r="920" spans="3:8">
-      <c r="E920" s="75" t="s">
+      <c r="E920" s="72" t="s">
         <v>1812</v>
       </c>
     </row>
@@ -47954,7 +47971,7 @@
     </row>
     <row r="935" spans="4:8">
       <c r="D935" s="3"/>
-      <c r="E935" s="76" t="s">
+      <c r="E935" s="73" t="s">
         <v>1827</v>
       </c>
       <c r="F935" s="23"/>
@@ -47965,7 +47982,7 @@
     </row>
     <row r="936" spans="4:8">
       <c r="D936" s="3"/>
-      <c r="E936" s="77" t="s">
+      <c r="E936" s="74" t="s">
         <v>1828</v>
       </c>
       <c r="F936" s="17"/>
@@ -47976,7 +47993,7 @@
     </row>
     <row r="937" spans="4:8">
       <c r="D937" s="3"/>
-      <c r="E937" s="76" t="s">
+      <c r="E937" s="73" t="s">
         <v>1829</v>
       </c>
       <c r="F937" s="23"/>
@@ -48001,7 +48018,7 @@
     </row>
     <row r="940" spans="4:8">
       <c r="D940" s="3"/>
-      <c r="E940" s="78" t="s">
+      <c r="E940" s="75" t="s">
         <v>1831</v>
       </c>
     </row>
@@ -48011,7 +48028,7 @@
       </c>
     </row>
     <row r="942" spans="4:8">
-      <c r="F942" s="75" t="s">
+      <c r="F942" s="72" t="s">
         <v>1833</v>
       </c>
     </row>
@@ -48100,76 +48117,76 @@
     </row>
     <row r="959" spans="3:6">
       <c r="C959" s="3"/>
-      <c r="D959" s="75" t="s">
+      <c r="D959" s="72" t="s">
         <v>1848</v>
       </c>
     </row>
     <row r="960" spans="3:6">
       <c r="C960" s="3"/>
-      <c r="D960" s="75" t="s">
+      <c r="D960" s="72" t="s">
         <v>1849</v>
       </c>
     </row>
     <row r="961" spans="3:6">
       <c r="C961" s="3"/>
-      <c r="D961" s="75"/>
+      <c r="D961" s="72"/>
       <c r="E961" s="3" t="s">
         <v>1850</v>
       </c>
     </row>
     <row r="962" spans="3:6">
       <c r="C962" s="3"/>
-      <c r="D962" s="75"/>
+      <c r="D962" s="72"/>
       <c r="E962" t="s">
         <v>1851</v>
       </c>
     </row>
     <row r="963" spans="3:6">
       <c r="C963" s="3"/>
-      <c r="D963" s="75"/>
+      <c r="D963" s="72"/>
     </row>
     <row r="964" spans="3:6">
       <c r="C964" s="3"/>
-      <c r="D964" s="75"/>
+      <c r="D964" s="72"/>
       <c r="E964" s="3" t="s">
         <v>1852</v>
       </c>
     </row>
     <row r="965" spans="3:6">
       <c r="C965" s="3"/>
-      <c r="D965" s="75"/>
+      <c r="D965" s="72"/>
       <c r="E965" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="966" spans="3:6">
       <c r="C966" s="3"/>
-      <c r="D966" s="75"/>
+      <c r="D966" s="72"/>
       <c r="E966" t="s">
         <v>1854</v>
       </c>
     </row>
     <row r="967" spans="3:6">
       <c r="C967" s="3"/>
-      <c r="D967" s="75"/>
+      <c r="D967" s="72"/>
     </row>
     <row r="968" spans="3:6">
       <c r="C968" s="3"/>
-      <c r="D968" s="75"/>
+      <c r="D968" s="72"/>
       <c r="E968" s="3" t="s">
         <v>1855</v>
       </c>
     </row>
     <row r="969" spans="3:6">
       <c r="C969" s="3"/>
-      <c r="D969" s="75"/>
+      <c r="D969" s="72"/>
       <c r="E969" t="s">
         <v>1856</v>
       </c>
     </row>
     <row r="970" spans="3:6">
       <c r="C970" s="3"/>
-      <c r="D970" s="75"/>
+      <c r="D970" s="72"/>
     </row>
     <row r="971" spans="3:6">
       <c r="C971" s="3"/>
@@ -48218,37 +48235,37 @@
     </row>
     <row r="978" spans="3:7">
       <c r="C978" s="3"/>
-      <c r="D978" s="75"/>
+      <c r="D978" s="72"/>
       <c r="E978" t="s">
         <v>1863</v>
       </c>
     </row>
     <row r="979" spans="3:7">
-      <c r="D979" s="75"/>
+      <c r="D979" s="72"/>
       <c r="F979" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="980" spans="3:7">
-      <c r="D980" s="75"/>
+      <c r="D980" s="72"/>
       <c r="F980" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="981" spans="3:7">
-      <c r="D981" s="75"/>
+      <c r="D981" s="72"/>
       <c r="F981" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="982" spans="3:7">
-      <c r="D982" s="75"/>
+      <c r="D982" s="72"/>
       <c r="F982" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="983" spans="3:7">
-      <c r="D983" s="75"/>
+      <c r="D983" s="72"/>
     </row>
     <row r="984" spans="3:7">
       <c r="D984" s="3" t="s">
@@ -48256,34 +48273,34 @@
       </c>
     </row>
     <row r="985" spans="3:7">
-      <c r="D985" s="75"/>
+      <c r="D985" s="72"/>
       <c r="E985" t="s">
         <v>1869</v>
       </c>
     </row>
     <row r="986" spans="3:7">
-      <c r="D986" s="75"/>
+      <c r="D986" s="72"/>
       <c r="F986" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="987" spans="3:7">
-      <c r="D987" s="75"/>
+      <c r="D987" s="72"/>
     </row>
     <row r="988" spans="3:7">
-      <c r="D988" s="75"/>
+      <c r="D988" s="72"/>
       <c r="F988" t="s">
         <v>1871</v>
       </c>
     </row>
     <row r="989" spans="3:7">
-      <c r="D989" s="75"/>
+      <c r="D989" s="72"/>
       <c r="F989" t="s">
         <v>1872</v>
       </c>
     </row>
     <row r="990" spans="3:7">
-      <c r="D990" s="75"/>
+      <c r="D990" s="72"/>
     </row>
     <row r="991" spans="3:7">
       <c r="D991" s="3" t="s">
@@ -48291,7 +48308,7 @@
       </c>
     </row>
     <row r="992" spans="3:7">
-      <c r="D992" s="75"/>
+      <c r="D992" s="72"/>
       <c r="E992" s="3" t="s">
         <v>1873</v>
       </c>
@@ -48300,7 +48317,7 @@
       </c>
     </row>
     <row r="993" spans="2:7">
-      <c r="D993" s="75"/>
+      <c r="D993" s="72"/>
       <c r="E993" t="s">
         <v>1875</v>
       </c>
@@ -48309,7 +48326,7 @@
       </c>
     </row>
     <row r="994" spans="2:7">
-      <c r="D994" s="75"/>
+      <c r="D994" s="72"/>
       <c r="E994" t="s">
         <v>1877</v>
       </c>
@@ -48318,7 +48335,7 @@
       </c>
     </row>
     <row r="995" spans="2:7">
-      <c r="D995" s="75"/>
+      <c r="D995" s="72"/>
       <c r="E995" t="s">
         <v>1879</v>
       </c>
@@ -48327,7 +48344,7 @@
       </c>
     </row>
     <row r="996" spans="2:7">
-      <c r="D996" s="75"/>
+      <c r="D996" s="72"/>
     </row>
     <row r="997" spans="2:7">
       <c r="D997" s="3" t="s">
@@ -48347,7 +48364,7 @@
       <c r="D1000" s="3"/>
     </row>
     <row r="1001" spans="2:7">
-      <c r="D1001" s="75"/>
+      <c r="D1001" s="72"/>
     </row>
     <row r="1002" spans="2:7">
       <c r="B1002" t="s">
@@ -48664,7 +48681,7 @@
       <c r="C1074" t="s">
         <v>1176</v>
       </c>
-      <c r="J1074" s="39" t="s">
+      <c r="J1074" s="38" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -48734,7 +48751,7 @@
       <c r="C1083" t="s">
         <v>476</v>
       </c>
-      <c r="G1083" s="38" t="s">
+      <c r="G1083" s="37" t="s">
         <v>1180</v>
       </c>
       <c r="J1083" t="s">
@@ -48846,21 +48863,21 @@
       <c r="S1095" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="T1095" s="44" t="s">
+      <c r="T1095" s="43" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="1096" spans="2:20">
-      <c r="B1096" s="40" t="s">
+      <c r="B1096" s="39" t="s">
         <v>1192</v>
       </c>
       <c r="E1096" s="8" t="s">
         <v>1193</v>
       </c>
-      <c r="H1096" s="41" t="s">
+      <c r="H1096" s="40" t="s">
         <v>1194</v>
       </c>
-      <c r="K1096" s="40" t="s">
+      <c r="K1096" s="39" t="s">
         <v>1184</v>
       </c>
       <c r="N1096" s="24" t="s">
@@ -48881,7 +48898,7 @@
       <c r="S1096" s="24" t="s">
         <v>1211</v>
       </c>
-      <c r="T1096" s="44" t="s">
+      <c r="T1096" s="43" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -48950,10 +48967,10 @@
       <c r="I1101" s="9"/>
     </row>
     <row r="1102" spans="2:20" ht="15" thickBot="1">
-      <c r="G1102" s="43" t="s">
+      <c r="G1102" s="42" t="s">
         <v>1241</v>
       </c>
-      <c r="J1102" s="52" t="s">
+      <c r="J1102" s="51" t="s">
         <v>1222</v>
       </c>
       <c r="K1102" s="27" t="s">
@@ -48976,25 +48993,25 @@
       </c>
     </row>
     <row r="1103" spans="2:20" ht="15" thickBot="1">
-      <c r="J1103" s="48" t="s">
+      <c r="J1103" s="47" t="s">
         <v>1223</v>
       </c>
-      <c r="K1103" s="45" t="s">
+      <c r="K1103" s="44" t="s">
         <v>1216</v>
       </c>
-      <c r="L1103" s="46" t="s">
+      <c r="L1103" s="45" t="s">
         <v>1217</v>
       </c>
-      <c r="M1103" s="46" t="s">
+      <c r="M1103" s="45" t="s">
         <v>1218</v>
       </c>
-      <c r="N1103" s="46" t="s">
+      <c r="N1103" s="45" t="s">
         <v>1219</v>
       </c>
-      <c r="O1103" s="46" t="s">
+      <c r="O1103" s="45" t="s">
         <v>1220</v>
       </c>
-      <c r="P1103" s="47" t="s">
+      <c r="P1103" s="46" t="s">
         <v>1221</v>
       </c>
       <c r="Q1103" t="s">
@@ -49002,10 +49019,10 @@
       </c>
     </row>
     <row r="1104" spans="2:20">
-      <c r="J1104" s="42" t="s">
+      <c r="J1104" s="41" t="s">
         <v>1224</v>
       </c>
-      <c r="K1104" s="49" t="s">
+      <c r="K1104" s="48" t="s">
         <v>1233</v>
       </c>
       <c r="L1104" s="12"/>
@@ -49015,10 +49032,10 @@
       <c r="P1104" s="12"/>
     </row>
     <row r="1105" spans="2:16">
-      <c r="J1105" s="42" t="s">
+      <c r="J1105" s="41" t="s">
         <v>1225</v>
       </c>
-      <c r="K1105" s="50" t="s">
+      <c r="K1105" s="49" t="s">
         <v>1234</v>
       </c>
       <c r="L1105" s="24"/>
@@ -49028,10 +49045,10 @@
       <c r="P1105" s="24"/>
     </row>
     <row r="1106" spans="2:16">
-      <c r="J1106" s="42" t="s">
+      <c r="J1106" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="K1106" s="50" t="s">
+      <c r="K1106" s="49" t="s">
         <v>1235</v>
       </c>
       <c r="L1106" s="24"/>
@@ -49044,7 +49061,7 @@
       <c r="I1107" t="s">
         <v>557</v>
       </c>
-      <c r="K1107" s="51"/>
+      <c r="K1107" s="50"/>
       <c r="L1107" s="9"/>
       <c r="M1107" s="9"/>
       <c r="N1107" s="9"/>
@@ -49058,12 +49075,12 @@
       <c r="M1108" t="s">
         <v>1202</v>
       </c>
-      <c r="N1108" s="48" t="s">
+      <c r="N1108" s="47" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="1109" spans="2:16">
-      <c r="K1109" s="43" t="s">
+      <c r="K1109" s="42" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -49161,18 +49178,18 @@
       </c>
     </row>
     <row r="1129" spans="1:13">
-      <c r="A1129" s="64" t="s">
+      <c r="A1129" s="62" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="1130" spans="1:13">
-      <c r="A1130" s="64"/>
+      <c r="A1130" s="62"/>
       <c r="B1130" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="1132" spans="1:13">
-      <c r="B1132" s="64" t="s">
+      <c r="B1132" s="62" t="s">
         <v>893</v>
       </c>
     </row>
@@ -49292,12 +49309,12 @@
       </c>
     </row>
     <row r="1165" spans="2:4">
-      <c r="C1165" s="64" t="s">
+      <c r="C1165" s="62" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="1166" spans="2:4">
-      <c r="C1166" s="64" t="s">
+      <c r="C1166" s="62" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -49358,7 +49375,7 @@
       <c r="M1177" s="15"/>
     </row>
     <row r="1178" spans="2:13">
-      <c r="C1178" s="56">
+      <c r="C1178" s="54">
         <v>1</v>
       </c>
       <c r="D1178" s="16" t="s">
@@ -49379,7 +49396,7 @@
       <c r="M1178" s="17"/>
     </row>
     <row r="1179" spans="2:13">
-      <c r="C1179" s="56">
+      <c r="C1179" s="54">
         <v>2</v>
       </c>
       <c r="D1179" s="16" t="s">
@@ -49400,7 +49417,7 @@
       <c r="M1179" s="17"/>
     </row>
     <row r="1180" spans="2:13">
-      <c r="C1180" s="56">
+      <c r="C1180" s="54">
         <v>3</v>
       </c>
       <c r="D1180" s="16" t="s">
@@ -49421,7 +49438,7 @@
       <c r="M1180" s="17"/>
     </row>
     <row r="1181" spans="2:13">
-      <c r="C1181" s="56">
+      <c r="C1181" s="54">
         <v>4</v>
       </c>
       <c r="D1181" s="16" t="s">
@@ -49620,7 +49637,7 @@
       </c>
     </row>
     <row r="1224" spans="2:10">
-      <c r="C1224" s="65" t="s">
+      <c r="C1224" s="63" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -49630,7 +49647,7 @@
       </c>
     </row>
     <row r="1226" spans="2:10">
-      <c r="C1226" s="65" t="s">
+      <c r="C1226" s="63" t="s">
         <v>1530</v>
       </c>
       <c r="J1226" t="s">
@@ -49638,12 +49655,12 @@
       </c>
     </row>
     <row r="1228" spans="2:10">
-      <c r="C1228" s="65" t="s">
+      <c r="C1228" s="63" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="1229" spans="2:10">
-      <c r="C1229" s="65" t="s">
+      <c r="C1229" s="63" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -49816,7 +49833,7 @@
       <c r="K1267" s="15"/>
     </row>
     <row r="1268" spans="2:11">
-      <c r="B1268" s="56">
+      <c r="B1268" s="54">
         <v>1</v>
       </c>
       <c r="C1268" s="16" t="s">
@@ -49834,7 +49851,7 @@
       <c r="K1268" s="17"/>
     </row>
     <row r="1269" spans="2:11">
-      <c r="B1269" s="56">
+      <c r="B1269" s="54">
         <v>2</v>
       </c>
       <c r="C1269" s="16" t="s">
@@ -49852,7 +49869,7 @@
       <c r="K1269" s="17"/>
     </row>
     <row r="1270" spans="2:11">
-      <c r="B1270" s="56">
+      <c r="B1270" s="54">
         <v>3</v>
       </c>
       <c r="C1270" s="16" t="s">

--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1884">
   <si>
     <t>speedApp</t>
   </si>
@@ -23028,74 +23028,6 @@
   </si>
   <si>
     <t>{'recipe_id': 4}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>context</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>['</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'] = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>get_user_object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()</t>
-    </r>
   </si>
   <si>
     <t>Recipe object (4)</t>
@@ -33293,12 +33225,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -33961,19 +33901,19 @@
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -33988,56 +33928,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34046,8 +33986,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA47A20"/>
       <color rgb="FF7D7DFF"/>
-      <color rgb="FFA47A20"/>
       <color rgb="FFA626A4"/>
       <color rgb="FF179A77"/>
       <color rgb="FFDA7BB9"/>
@@ -43616,8 +43556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T1275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F539" sqref="F539"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C434" sqref="C434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -43733,7 +43673,7 @@
         <v>471</v>
       </c>
       <c r="H25" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -44947,7 +44887,7 @@
       <c r="E426" s="9"/>
       <c r="F426" s="17"/>
       <c r="H426" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="427" spans="2:12">
@@ -44980,7 +44920,7 @@
       <c r="E429" s="9"/>
       <c r="F429" s="17"/>
       <c r="H429" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L429" t="s">
         <v>1276</v>
@@ -45011,25 +44951,25 @@
       <c r="E432" s="9"/>
       <c r="F432" s="17"/>
       <c r="H432" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L432" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="433" spans="2:12">
       <c r="B433" s="16" t="s">
-        <v>1277</v>
+        <v>1256</v>
       </c>
       <c r="C433" s="9"/>
       <c r="D433" s="9"/>
       <c r="E433" s="9"/>
       <c r="F433" s="17"/>
       <c r="H433" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L433" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="434" spans="2:12">
@@ -45039,30 +44979,30 @@
       <c r="E434" s="9"/>
       <c r="F434" s="17"/>
       <c r="H434" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L434" s="51" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="435" spans="2:12">
       <c r="B435" s="16" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C435" s="9"/>
       <c r="D435" s="9"/>
       <c r="E435" s="9"/>
       <c r="F435" s="17"/>
       <c r="H435" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L435" s="62" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="436" spans="2:12">
       <c r="B436" s="16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C436" s="9"/>
       <c r="D436" s="9"/>
@@ -45087,7 +45027,7 @@
     </row>
     <row r="440" spans="2:12">
       <c r="B440" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="441" spans="2:12">
@@ -45097,22 +45037,22 @@
     </row>
     <row r="442" spans="2:12">
       <c r="C442" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="443" spans="2:12">
       <c r="C443" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="444" spans="2:12">
       <c r="C444" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="445" spans="2:12">
       <c r="C445" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="446" spans="2:12">
@@ -45122,52 +45062,52 @@
     </row>
     <row r="448" spans="2:12">
       <c r="C448" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="449" spans="4:14">
       <c r="D449" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="451" spans="4:14">
       <c r="D451" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="452" spans="4:14">
       <c r="E452" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="453" spans="4:14">
       <c r="D453" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="454" spans="4:14">
       <c r="E454" s="21" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F454" s="22"/>
       <c r="G454" s="22"/>
       <c r="H454" s="22"/>
       <c r="I454" s="23"/>
       <c r="K454" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="455" spans="4:14">
       <c r="D455" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="K455" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="456" spans="4:14">
       <c r="K456" s="25" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="457" spans="4:14">
@@ -45175,22 +45115,22 @@
     </row>
     <row r="458" spans="4:14">
       <c r="D458" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="K458" s="25"/>
     </row>
     <row r="459" spans="4:14">
       <c r="D459" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E459" s="13" t="s">
         <v>1378</v>
-      </c>
-      <c r="E459" s="13" t="s">
-        <v>1379</v>
       </c>
       <c r="F459" s="14"/>
       <c r="G459" s="14"/>
       <c r="H459" s="15"/>
       <c r="I459" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="J459" s="14"/>
       <c r="K459" s="55"/>
@@ -45203,13 +45143,13 @@
         <v>1</v>
       </c>
       <c r="E460" s="21" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F460" s="22"/>
       <c r="G460" s="22"/>
       <c r="H460" s="23"/>
       <c r="I460" s="21" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J460" s="22"/>
       <c r="K460" s="57"/>
@@ -45222,13 +45162,13 @@
         <v>2</v>
       </c>
       <c r="E461" s="70" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F461" s="9"/>
       <c r="G461" s="9"/>
       <c r="H461" s="17"/>
       <c r="I461" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="J461" s="9"/>
       <c r="K461" s="56"/>
@@ -45241,13 +45181,13 @@
         <v>3</v>
       </c>
       <c r="E462" s="21" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F462" s="22"/>
       <c r="G462" s="22"/>
       <c r="H462" s="23"/>
       <c r="I462" s="21" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J462" s="22"/>
       <c r="K462" s="57"/>
@@ -45260,13 +45200,13 @@
         <v>4</v>
       </c>
       <c r="E463" s="16" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F463" s="9"/>
       <c r="G463" s="9"/>
       <c r="H463" s="17"/>
       <c r="I463" s="16" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="J463" s="9"/>
       <c r="K463" s="56"/>
@@ -45279,13 +45219,13 @@
         <v>5</v>
       </c>
       <c r="E464" s="21" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F464" s="22"/>
       <c r="G464" s="22"/>
       <c r="H464" s="23"/>
       <c r="I464" s="21" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="J464" s="22"/>
       <c r="K464" s="57"/>
@@ -45308,7 +45248,7 @@
     </row>
     <row r="466" spans="4:14">
       <c r="D466" s="9" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E466" s="9"/>
       <c r="F466" s="9"/>
@@ -45323,7 +45263,7 @@
     </row>
     <row r="467" spans="4:14">
       <c r="E467" s="76" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F467" s="9"/>
       <c r="G467" s="9"/>
@@ -45351,7 +45291,7 @@
     <row r="469" spans="4:14">
       <c r="D469" s="58"/>
       <c r="E469" s="9" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F469" s="9"/>
       <c r="G469" s="9"/>
@@ -45366,7 +45306,7 @@
     <row r="470" spans="4:14">
       <c r="D470" s="58"/>
       <c r="E470" s="9" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F470" s="9"/>
       <c r="G470" s="9"/>
@@ -45381,7 +45321,7 @@
     <row r="471" spans="4:14">
       <c r="D471" s="58"/>
       <c r="E471" s="9" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F471" s="9"/>
       <c r="G471" s="9"/>
@@ -45408,7 +45348,7 @@
     <row r="473" spans="4:14">
       <c r="D473" s="58"/>
       <c r="E473" s="59" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F473" s="9"/>
       <c r="G473" s="9"/>
@@ -45423,7 +45363,7 @@
     <row r="474" spans="4:14">
       <c r="D474" s="58"/>
       <c r="E474" s="59" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F474" s="9"/>
       <c r="G474" s="9"/>
@@ -45439,7 +45379,7 @@
       <c r="D475" s="58"/>
       <c r="E475" s="9"/>
       <c r="F475" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G475" s="9"/>
       <c r="H475" s="9"/>
@@ -45452,7 +45392,7 @@
     </row>
     <row r="476" spans="4:14">
       <c r="E476" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="K476" s="25"/>
     </row>
@@ -45461,16 +45401,16 @@
     </row>
     <row r="478" spans="4:14">
       <c r="E478" s="53" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H478" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="K478" s="25"/>
     </row>
     <row r="479" spans="4:14">
       <c r="E479" s="60" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K479" s="25"/>
     </row>
@@ -45480,18 +45420,18 @@
     </row>
     <row r="481" spans="4:11">
       <c r="E481" s="61" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="K481" s="25" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="482" spans="4:11">
       <c r="E482" s="61" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="K482" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="483" spans="4:11">
@@ -45499,13 +45439,13 @@
     </row>
     <row r="484" spans="4:11">
       <c r="D484" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="K484" s="25"/>
     </row>
     <row r="485" spans="4:11">
       <c r="E485" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="K485" s="25"/>
     </row>
@@ -45514,13 +45454,13 @@
     </row>
     <row r="487" spans="4:11">
       <c r="E487" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="K487" s="25"/>
     </row>
     <row r="488" spans="4:11">
       <c r="E488" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="K488" s="25"/>
     </row>
@@ -45529,19 +45469,19 @@
     </row>
     <row r="490" spans="4:11">
       <c r="D490" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="K490" s="25"/>
     </row>
     <row r="491" spans="4:11">
       <c r="E491" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="K491" s="25"/>
     </row>
     <row r="492" spans="4:11">
       <c r="E492" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="K492" s="25"/>
     </row>
@@ -45550,7 +45490,7 @@
     </row>
     <row r="494" spans="4:11">
       <c r="E494" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="K494" s="25"/>
     </row>
@@ -45559,15 +45499,15 @@
     </row>
     <row r="496" spans="4:11">
       <c r="D496" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="K496" s="53" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="497" spans="3:11">
       <c r="E497" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="K497" s="25"/>
     </row>
@@ -45576,19 +45516,19 @@
     </row>
     <row r="499" spans="3:11">
       <c r="E499" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="K499" s="25"/>
     </row>
     <row r="500" spans="3:11">
       <c r="E500" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K500" s="25"/>
     </row>
     <row r="501" spans="3:11">
       <c r="F501" s="71" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="K501" s="25"/>
     </row>
@@ -45597,13 +45537,13 @@
     </row>
     <row r="503" spans="3:11">
       <c r="E503" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="K503" s="25"/>
     </row>
     <row r="504" spans="3:11">
       <c r="F504" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="K504" s="25"/>
     </row>
@@ -45612,228 +45552,228 @@
     </row>
     <row r="506" spans="3:11">
       <c r="C506" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H506" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="507" spans="3:11">
       <c r="D507" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H507" t="s">
         <v>1276</v>
       </c>
       <c r="K507" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="508" spans="3:11">
       <c r="D508" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K508" s="53" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="509" spans="3:11">
       <c r="D509" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="K509" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="510" spans="3:11">
       <c r="D510" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K510" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="511" spans="3:11">
       <c r="D511" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K511" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="512" spans="3:11">
       <c r="D512" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K512" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="513" spans="3:11">
       <c r="D513" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="K513" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="514" spans="3:11">
       <c r="D514" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K514" s="53" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="516" spans="3:11">
       <c r="D516" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K516" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="517" spans="3:11">
       <c r="E517" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="518" spans="3:11">
       <c r="E518" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="520" spans="3:11">
       <c r="D520" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="521" spans="3:11">
       <c r="E521" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="522" spans="3:11">
       <c r="E522" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="524" spans="3:11">
       <c r="C524" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="525" spans="3:11">
       <c r="D525" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="527" spans="3:11">
       <c r="D527" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="528" spans="3:11">
       <c r="D528" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="529" spans="3:12">
       <c r="D529" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="531" spans="3:12">
       <c r="D531" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="533" spans="3:12">
       <c r="C533" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="535" spans="3:12">
       <c r="D535" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="536" spans="3:12">
       <c r="D536" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L536" s="53" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="537" spans="3:12">
       <c r="D537" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="538" spans="3:12">
       <c r="D538" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="540" spans="3:12">
       <c r="D540" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="542" spans="3:12">
       <c r="C542" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="543" spans="3:12">
       <c r="D543" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="544" spans="3:12">
       <c r="E544" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="545" spans="3:10">
       <c r="D545" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="546" spans="3:10">
       <c r="E546" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="547" spans="3:10">
       <c r="D547" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="548" spans="3:10">
       <c r="E548" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="550" spans="3:10">
       <c r="C550" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="551" spans="3:10">
       <c r="D551" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="552" spans="3:10">
       <c r="D552" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="554" spans="3:10">
       <c r="D554" s="26" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E554" s="14"/>
       <c r="F554" s="14"/>
@@ -45844,7 +45784,7 @@
     </row>
     <row r="555" spans="3:10">
       <c r="D555" s="16" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E555" s="9"/>
       <c r="F555" s="9"/>
@@ -45855,7 +45795,7 @@
     </row>
     <row r="556" spans="3:10">
       <c r="D556" s="16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E556" s="9"/>
       <c r="F556" s="9"/>
@@ -45866,7 +45806,7 @@
     </row>
     <row r="557" spans="3:10">
       <c r="D557" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E557" s="9"/>
       <c r="F557" s="9"/>
@@ -45877,7 +45817,7 @@
     </row>
     <row r="558" spans="3:10">
       <c r="D558" s="16" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E558" s="9"/>
       <c r="F558" s="9"/>
@@ -45888,7 +45828,7 @@
     </row>
     <row r="559" spans="3:10">
       <c r="D559" s="16" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E559" s="9"/>
       <c r="F559" s="9"/>
@@ -45899,7 +45839,7 @@
     </row>
     <row r="560" spans="3:10">
       <c r="D560" s="16" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E560" s="9"/>
       <c r="F560" s="9"/>
@@ -45910,7 +45850,7 @@
     </row>
     <row r="561" spans="4:13">
       <c r="D561" s="16" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E561" s="9"/>
       <c r="F561" s="9"/>
@@ -45921,7 +45861,7 @@
     </row>
     <row r="562" spans="4:13">
       <c r="D562" s="16" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E562" s="9"/>
       <c r="F562" s="9"/>
@@ -45930,12 +45870,12 @@
       <c r="I562" s="9"/>
       <c r="J562" s="17"/>
       <c r="K562" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="563" spans="4:13">
       <c r="D563" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E563" s="19"/>
       <c r="F563" s="19"/>
@@ -45946,21 +45886,21 @@
     </row>
     <row r="565" spans="4:13">
       <c r="D565" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="566" spans="4:13">
       <c r="D566" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E566" s="26" t="s">
         <v>1339</v>
-      </c>
-      <c r="E566" s="26" t="s">
-        <v>1340</v>
       </c>
       <c r="F566" s="14"/>
       <c r="G566" s="14"/>
       <c r="H566" s="15"/>
       <c r="I566" s="26" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="J566" s="14"/>
       <c r="K566" s="14"/>
@@ -45969,16 +45909,16 @@
     </row>
     <row r="567" spans="4:13">
       <c r="D567" s="24" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E567" s="21" t="s">
         <v>1342</v>
-      </c>
-      <c r="E567" s="21" t="s">
-        <v>1343</v>
       </c>
       <c r="F567" s="22"/>
       <c r="G567" s="22"/>
       <c r="H567" s="23"/>
       <c r="I567" s="21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J567" s="22"/>
       <c r="K567" s="22"/>
@@ -45987,16 +45927,16 @@
     </row>
     <row r="568" spans="4:13">
       <c r="D568" s="54" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E568" s="16" t="s">
         <v>1345</v>
-      </c>
-      <c r="E568" s="16" t="s">
-        <v>1346</v>
       </c>
       <c r="F568" s="9"/>
       <c r="G568" s="9"/>
       <c r="H568" s="17"/>
       <c r="I568" s="16" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J568" s="9"/>
       <c r="K568" s="9"/>
@@ -46005,16 +45945,16 @@
     </row>
     <row r="569" spans="4:13">
       <c r="D569" s="24" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E569" s="21" t="s">
         <v>1348</v>
-      </c>
-      <c r="E569" s="21" t="s">
-        <v>1349</v>
       </c>
       <c r="F569" s="22"/>
       <c r="G569" s="22"/>
       <c r="H569" s="23"/>
       <c r="I569" s="21" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="J569" s="22"/>
       <c r="K569" s="22"/>
@@ -46023,15 +45963,15 @@
     </row>
     <row r="571" spans="4:13">
       <c r="D571" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="573" spans="4:13">
       <c r="D573" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K573" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="574" spans="4:13">
@@ -46041,17 +45981,17 @@
     </row>
     <row r="575" spans="4:13">
       <c r="E575" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="576" spans="4:13">
       <c r="E576" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="577" spans="3:11">
       <c r="E577" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="578" spans="3:11">
@@ -46061,51 +46001,51 @@
     </row>
     <row r="579" spans="3:11">
       <c r="C579" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="580" spans="3:11">
       <c r="D580" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K580" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="581" spans="3:11">
       <c r="D581" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="582" spans="3:11">
       <c r="D582" s="53" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K582" t="s">
         <v>1444</v>
-      </c>
-      <c r="K582" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="583" spans="3:11">
       <c r="D583" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="584" spans="3:11">
       <c r="D584" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="K584" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="585" spans="3:11">
       <c r="D585" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="587" spans="3:11">
       <c r="D587" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="588" spans="3:11">
@@ -46115,27 +46055,27 @@
     </row>
     <row r="589" spans="3:11">
       <c r="E589" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="590" spans="3:11">
       <c r="E590" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="591" spans="3:11">
       <c r="E591" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="592" spans="3:11">
       <c r="E592" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="593" spans="2:5">
       <c r="E593" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="594" spans="2:5">
@@ -46145,47 +46085,47 @@
     </row>
     <row r="595" spans="2:5">
       <c r="C595" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="596" spans="2:5">
       <c r="D596" s="53" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="598" spans="2:5">
       <c r="D598" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="599" spans="2:5">
       <c r="E599" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="600" spans="2:5">
       <c r="E600" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="601" spans="2:5">
       <c r="E601" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="602" spans="2:5">
       <c r="E602" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="603" spans="2:5">
       <c r="E603" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="605" spans="2:5">
       <c r="B605" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="606" spans="2:5">
@@ -46195,12 +46135,12 @@
     </row>
     <row r="607" spans="2:5">
       <c r="B607" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="608" spans="2:5">
       <c r="B608" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="609" spans="2:9">
@@ -46215,7 +46155,7 @@
     </row>
     <row r="611" spans="2:9">
       <c r="B611" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="613" spans="2:9">
@@ -46230,7 +46170,7 @@
     </row>
     <row r="615" spans="2:9">
       <c r="B615" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="616" spans="2:9">
@@ -46240,17 +46180,17 @@
     </row>
     <row r="618" spans="2:9">
       <c r="C618" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="619" spans="2:9">
       <c r="D619" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="621" spans="2:9">
       <c r="C621" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="622" spans="2:9">
@@ -46260,48 +46200,48 @@
     </row>
     <row r="623" spans="2:9">
       <c r="D623" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I623" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="624" spans="2:9">
       <c r="D624" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="I624" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="625" spans="3:10">
       <c r="D625" s="66" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H625" t="s">
         <v>557</v>
       </c>
       <c r="I625" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="626" spans="3:10">
       <c r="D626" s="66" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H626" t="s">
         <v>557</v>
       </c>
       <c r="I626" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="627" spans="3:10">
       <c r="D627" s="66" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I627" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="628" spans="3:10">
@@ -46311,15 +46251,15 @@
     </row>
     <row r="630" spans="3:10">
       <c r="C630" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="I630" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="631" spans="3:10">
       <c r="D631" s="9" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E631" s="9"/>
       <c r="F631" s="9"/>
@@ -46330,7 +46270,7 @@
     </row>
     <row r="632" spans="3:10">
       <c r="D632" s="9" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E632" s="9"/>
       <c r="F632" s="9"/>
@@ -46341,7 +46281,7 @@
     </row>
     <row r="633" spans="3:10">
       <c r="D633" s="9" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E633" s="9"/>
       <c r="F633" s="9"/>
@@ -46361,7 +46301,7 @@
     </row>
     <row r="635" spans="3:10">
       <c r="D635" s="9" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E635" s="9"/>
       <c r="F635" s="9"/>
@@ -46390,7 +46330,7 @@
     </row>
     <row r="638" spans="3:10">
       <c r="D638" s="9" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E638" s="9"/>
       <c r="F638" s="9"/>
@@ -46401,205 +46341,205 @@
     </row>
     <row r="640" spans="3:10">
       <c r="C640" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="641" spans="3:7">
       <c r="D641" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="643" spans="3:7">
       <c r="C643" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G643" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="644" spans="3:7">
       <c r="D644" s="66" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="645" spans="3:7">
       <c r="D645" s="25" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="647" spans="3:7">
       <c r="C647" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="648" spans="3:7">
       <c r="D648" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="650" spans="3:7">
       <c r="C650" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="651" spans="3:7">
       <c r="D651" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="653" spans="3:7">
       <c r="C653" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="654" spans="3:7">
       <c r="D654" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="656" spans="3:7">
       <c r="C656" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="657" spans="3:4">
       <c r="D657" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="659" spans="3:4">
       <c r="C659" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="660" spans="3:4">
       <c r="D660" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="662" spans="3:4">
       <c r="C662" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="663" spans="3:4">
       <c r="C663" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="664" spans="3:4">
       <c r="C664" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="666" spans="3:4">
       <c r="C666" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="667" spans="3:4">
       <c r="D667" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="668" spans="3:4">
       <c r="D668" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="669" spans="3:4">
       <c r="D669" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="670" spans="3:4">
       <c r="D670" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="672" spans="3:4">
       <c r="C672" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="673" spans="3:5">
       <c r="C673" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="674" spans="3:5">
       <c r="D674" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="675" spans="3:5">
       <c r="D675" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="676" spans="3:5">
       <c r="D676" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="677" spans="3:5">
       <c r="D677" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="678" spans="3:5">
       <c r="D678" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="680" spans="3:5">
       <c r="C680" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="681" spans="3:5">
       <c r="C681" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="682" spans="3:5">
       <c r="D682" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="683" spans="3:5">
       <c r="D683" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="684" spans="3:5">
       <c r="E684" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="685" spans="3:5">
       <c r="C685" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="686" spans="3:5">
       <c r="D686" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="687" spans="3:5">
       <c r="E687" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="688" spans="3:5">
       <c r="D688" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="689" spans="3:10">
       <c r="E689" s="64" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="690" spans="3:10">
@@ -46609,90 +46549,90 @@
     </row>
     <row r="691" spans="3:10">
       <c r="E691" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="692" spans="3:10">
       <c r="E692" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="693" spans="3:10">
       <c r="C693" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="694" spans="3:10">
       <c r="D694" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="695" spans="3:10">
       <c r="D695" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="696" spans="3:10" ht="15">
       <c r="D696" s="65" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="697" spans="3:10">
       <c r="C697" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="698" spans="3:10">
       <c r="D698" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="699" spans="3:10">
       <c r="E699" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="700" spans="3:10">
       <c r="E700" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="701" spans="3:10">
       <c r="E701" s="64" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="702" spans="3:10">
       <c r="E702" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="J702" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="703" spans="3:10">
       <c r="E703" s="64" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="705" spans="4:10">
       <c r="D705" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="706" spans="4:10">
       <c r="E706" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="707" spans="4:10">
       <c r="E707" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="709" spans="4:10">
       <c r="E709" s="26" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F709" s="14"/>
       <c r="G709" s="14"/>
@@ -46702,7 +46642,7 @@
     </row>
     <row r="710" spans="4:10">
       <c r="E710" s="16" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="F710" s="9"/>
       <c r="G710" s="9"/>
@@ -46712,7 +46652,7 @@
     </row>
     <row r="711" spans="4:10">
       <c r="E711" s="18" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F711" s="19"/>
       <c r="G711" s="19"/>
@@ -46722,78 +46662,78 @@
     </row>
     <row r="713" spans="4:10">
       <c r="E713" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="714" spans="4:10">
       <c r="F714" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="716" spans="4:10">
       <c r="D716" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="717" spans="4:10">
       <c r="E717" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="718" spans="4:10">
       <c r="E718" s="8" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="719" spans="4:10">
       <c r="E719" s="64" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J719" s="7" t="s">
         <v>1624</v>
-      </c>
-      <c r="J719" s="7" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="720" spans="4:10">
       <c r="E720" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="722" spans="4:11">
       <c r="D722" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="K722" s="7" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="723" spans="4:11">
       <c r="E723" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="724" spans="4:11">
       <c r="E724" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="725" spans="4:11">
       <c r="E725" s="64" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="726" spans="4:11">
       <c r="E726" s="64" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="727" spans="4:11">
       <c r="E727" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="729" spans="4:11">
       <c r="E729" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="730" spans="4:11">
@@ -46803,22 +46743,22 @@
     </row>
     <row r="731" spans="4:11">
       <c r="E731" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="732" spans="4:11">
       <c r="E732" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="733" spans="4:11">
       <c r="E733" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="734" spans="4:11">
       <c r="E734" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="735" spans="4:11">
@@ -46828,32 +46768,32 @@
     </row>
     <row r="737" spans="3:9">
       <c r="D737" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="738" spans="3:9">
       <c r="E738" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="739" spans="3:9">
       <c r="E739" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="741" spans="3:9">
       <c r="C741" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="742" spans="3:9">
       <c r="D742" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="743" spans="3:9">
       <c r="D743" s="26" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E743" s="14"/>
       <c r="F743" s="14"/>
@@ -46863,7 +46803,7 @@
     </row>
     <row r="744" spans="3:9">
       <c r="D744" s="16" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E744" s="9"/>
       <c r="F744" s="9"/>
@@ -46873,7 +46813,7 @@
     </row>
     <row r="745" spans="3:9">
       <c r="D745" s="16" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E745" s="9"/>
       <c r="F745" s="9"/>
@@ -46883,7 +46823,7 @@
     </row>
     <row r="746" spans="3:9">
       <c r="D746" s="16" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E746" s="9"/>
       <c r="F746" s="9"/>
@@ -46893,7 +46833,7 @@
     </row>
     <row r="747" spans="3:9">
       <c r="D747" s="16" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E747" s="9"/>
       <c r="F747" s="9"/>
@@ -46903,7 +46843,7 @@
     </row>
     <row r="748" spans="3:9">
       <c r="D748" s="16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E748" s="9"/>
       <c r="F748" s="9"/>
@@ -46913,7 +46853,7 @@
     </row>
     <row r="749" spans="3:9">
       <c r="D749" s="18" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E749" s="19"/>
       <c r="F749" s="19"/>
@@ -46923,118 +46863,118 @@
     </row>
     <row r="751" spans="3:9">
       <c r="D751" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="753" spans="3:10">
       <c r="D753" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J753" s="7" t="s">
         <v>1651</v>
-      </c>
-      <c r="J753" s="7" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="754" spans="3:10">
       <c r="D754" s="72" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="J754" s="7" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="755" spans="3:10">
       <c r="D755" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="757" spans="3:10">
       <c r="D757" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="758" spans="3:10">
       <c r="E758" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="761" spans="3:10">
       <c r="C761" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="762" spans="3:10">
       <c r="C762" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F762" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="763" spans="3:10">
       <c r="C763" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F763" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="764" spans="3:10">
       <c r="C764" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F764" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="765" spans="3:10">
       <c r="C765" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F765" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="766" spans="3:10">
       <c r="C766" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F766" t="s">
         <v>1571</v>
-      </c>
-      <c r="F766" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="767" spans="3:10">
       <c r="C767" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F767" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="768" spans="3:10">
       <c r="C768" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F768" t="s">
         <v>1574</v>
-      </c>
-      <c r="F768" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="769" spans="3:6">
       <c r="C769" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F769" t="s">
         <v>1576</v>
-      </c>
-      <c r="F769" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="771" spans="3:6">
       <c r="C771" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="772" spans="3:6">
       <c r="C772" s="3"/>
       <c r="D772" s="64" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="773" spans="3:6">
@@ -47043,13 +46983,13 @@
     <row r="774" spans="3:6">
       <c r="C774" s="3"/>
       <c r="D774" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="775" spans="3:6">
       <c r="C775" s="3"/>
       <c r="D775" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="776" spans="3:6">
@@ -47058,13 +46998,13 @@
     <row r="777" spans="3:6">
       <c r="C777" s="3"/>
       <c r="D777" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="778" spans="3:6">
       <c r="C778" s="3"/>
       <c r="E778" s="64" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="779" spans="3:6">
@@ -47074,13 +47014,13 @@
     <row r="780" spans="3:6">
       <c r="C780" s="3"/>
       <c r="E780" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="781" spans="3:6">
       <c r="C781" s="3"/>
       <c r="F781" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="782" spans="3:6">
@@ -47089,62 +47029,62 @@
     <row r="783" spans="3:6">
       <c r="C783" s="3"/>
       <c r="E783" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="784" spans="3:6">
       <c r="F784" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="786" spans="3:6">
       <c r="E786" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="787" spans="3:6">
       <c r="F787" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="788" spans="3:6">
       <c r="F788" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="789" spans="3:6">
       <c r="F789" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="790" spans="3:6">
       <c r="F790" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="792" spans="3:6">
       <c r="C792" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="793" spans="3:6">
       <c r="D793" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="795" spans="3:6">
       <c r="D795" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="796" spans="3:6">
       <c r="D796" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="797" spans="3:6">
       <c r="D797" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="798" spans="3:6">
@@ -47154,7 +47094,7 @@
     </row>
     <row r="800" spans="3:6">
       <c r="D800" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="801" spans="4:5">
@@ -47164,27 +47104,27 @@
     </row>
     <row r="802" spans="4:5">
       <c r="E802" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="803" spans="4:5">
       <c r="E803" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="804" spans="4:5">
       <c r="E804" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="805" spans="4:5">
       <c r="E805" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="806" spans="4:5">
       <c r="E806" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="807" spans="4:5">
@@ -47194,57 +47134,57 @@
     </row>
     <row r="809" spans="4:5">
       <c r="D809" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="810" spans="4:5">
       <c r="E810" s="64" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="812" spans="4:5">
       <c r="E812" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="813" spans="4:5">
       <c r="E813" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="814" spans="4:5">
       <c r="E814" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="816" spans="4:5">
       <c r="E816" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="818" spans="3:6">
       <c r="F818" s="64" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="819" spans="3:6">
       <c r="F819" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="820" spans="3:6">
       <c r="F820" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="821" spans="3:6">
       <c r="F821" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="822" spans="3:6">
       <c r="F822" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="823" spans="3:6">
@@ -47254,25 +47194,25 @@
     </row>
     <row r="824" spans="3:6">
       <c r="C824" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="825" spans="3:6">
       <c r="C825" s="3"/>
       <c r="D825" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="826" spans="3:6">
       <c r="C826" s="3"/>
       <c r="D826" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="827" spans="3:6">
       <c r="C827" s="3"/>
       <c r="D827" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="828" spans="3:6">
@@ -47281,24 +47221,24 @@
     <row r="829" spans="3:6">
       <c r="C829" s="3"/>
       <c r="D829" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="830" spans="3:6">
       <c r="C830" s="3"/>
       <c r="E830" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="831" spans="3:6">
       <c r="C831" s="3"/>
       <c r="E831" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="834" spans="3:5">
       <c r="C834" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="835" spans="3:5">
@@ -47313,37 +47253,37 @@
     <row r="837" spans="3:5">
       <c r="C837" s="3"/>
       <c r="D837" s="67" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="838" spans="3:5">
       <c r="C838" s="3"/>
       <c r="E838" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="839" spans="3:5">
       <c r="C839" s="3"/>
       <c r="E839" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="840" spans="3:5">
       <c r="C840" s="3"/>
       <c r="E840" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="841" spans="3:5">
       <c r="C841" s="3"/>
       <c r="E841" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="842" spans="3:5">
       <c r="C842" s="3"/>
       <c r="E842" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="843" spans="3:5">
@@ -47352,31 +47292,31 @@
     <row r="844" spans="3:5">
       <c r="C844" s="3"/>
       <c r="D844" s="68" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="845" spans="3:5">
       <c r="C845" s="3"/>
       <c r="D845" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="846" spans="3:5">
       <c r="C846" s="3"/>
       <c r="E846" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="847" spans="3:5">
       <c r="C847" s="3"/>
       <c r="E847" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="848" spans="3:5">
       <c r="C848" s="3"/>
       <c r="E848" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="849" spans="3:10">
@@ -47385,7 +47325,7 @@
     <row r="850" spans="3:10">
       <c r="C850" s="3"/>
       <c r="D850" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="851" spans="3:10">
@@ -47394,7 +47334,7 @@
     <row r="852" spans="3:10">
       <c r="C852" s="3"/>
       <c r="D852" s="67" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="853" spans="3:10">
@@ -47403,29 +47343,29 @@
     <row r="854" spans="3:10">
       <c r="C854" s="3"/>
       <c r="E854" s="67" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="855" spans="3:10">
       <c r="C855" s="3"/>
       <c r="E855" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="856" spans="3:10">
       <c r="C856" s="3"/>
       <c r="E856" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="857" spans="3:10">
       <c r="C857" s="3"/>
       <c r="E857" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F857" s="15"/>
       <c r="G857" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H857" s="14"/>
       <c r="I857" s="14"/>
@@ -47434,11 +47374,11 @@
     <row r="858" spans="3:10">
       <c r="C858" s="3"/>
       <c r="E858" s="21" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F858" s="23"/>
       <c r="G858" s="21" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H858" s="22"/>
       <c r="I858" s="22"/>
@@ -47447,11 +47387,11 @@
     <row r="859" spans="3:10">
       <c r="C859" s="3"/>
       <c r="E859" s="16" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F859" s="17"/>
       <c r="G859" s="16" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H859" s="9"/>
       <c r="I859" s="9"/>
@@ -47464,7 +47404,7 @@
       </c>
       <c r="F860" s="23"/>
       <c r="G860" s="21" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H860" s="22"/>
       <c r="I860" s="22"/>
@@ -47473,11 +47413,11 @@
     <row r="861" spans="3:10">
       <c r="C861" s="3"/>
       <c r="E861" s="18" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F861" s="20"/>
       <c r="G861" s="18" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H861" s="19"/>
       <c r="I861" s="19"/>
@@ -47489,23 +47429,23 @@
     <row r="863" spans="3:10">
       <c r="C863" s="3"/>
       <c r="E863" s="67" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="864" spans="3:10">
       <c r="C864" s="3"/>
       <c r="E864" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="865" spans="3:10">
       <c r="C865" s="3"/>
       <c r="E865" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F865" s="15"/>
       <c r="G865" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H865" s="14"/>
       <c r="I865" s="14"/>
@@ -47514,11 +47454,11 @@
     <row r="866" spans="3:10">
       <c r="C866" s="3"/>
       <c r="E866" s="21" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F866" s="23"/>
       <c r="G866" s="21" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H866" s="22"/>
       <c r="I866" s="22"/>
@@ -47527,11 +47467,11 @@
     <row r="867" spans="3:10">
       <c r="C867" s="3"/>
       <c r="E867" s="16" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F867" s="17"/>
       <c r="G867" s="16" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H867" s="9"/>
       <c r="I867" s="9"/>
@@ -47540,11 +47480,11 @@
     <row r="868" spans="3:10">
       <c r="C868" s="3"/>
       <c r="E868" s="21" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F868" s="23"/>
       <c r="G868" s="21" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H868" s="22"/>
       <c r="I868" s="22"/>
@@ -47553,11 +47493,11 @@
     <row r="869" spans="3:10">
       <c r="C869" s="3"/>
       <c r="E869" s="16" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F869" s="17"/>
       <c r="G869" s="16" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H869" s="9"/>
       <c r="I869" s="9"/>
@@ -47566,11 +47506,11 @@
     <row r="870" spans="3:10">
       <c r="C870" s="3"/>
       <c r="E870" s="21" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F870" s="23"/>
       <c r="G870" s="21" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H870" s="22"/>
       <c r="I870" s="22"/>
@@ -47581,13 +47521,13 @@
     </row>
     <row r="872" spans="3:10">
       <c r="D872" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="873" spans="3:10">
       <c r="D873" s="3"/>
       <c r="E873" s="67" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="874" spans="3:10">
@@ -47596,33 +47536,33 @@
     <row r="875" spans="3:10">
       <c r="D875" s="3"/>
       <c r="E875" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F875" s="15"/>
       <c r="G875" s="13" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H875" s="15"/>
     </row>
     <row r="876" spans="3:10">
       <c r="D876" s="3"/>
       <c r="E876" s="21" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F876" s="23"/>
       <c r="G876" s="21" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H876" s="23"/>
     </row>
     <row r="877" spans="3:10">
       <c r="D877" s="3"/>
       <c r="E877" s="16" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F877" s="17"/>
       <c r="G877" s="16" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H877" s="17"/>
     </row>
@@ -47633,29 +47573,29 @@
       </c>
       <c r="F878" s="23"/>
       <c r="G878" s="21" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H878" s="23"/>
     </row>
     <row r="879" spans="3:10">
       <c r="D879" s="3"/>
       <c r="E879" s="16" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F879" s="17"/>
       <c r="G879" s="16" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H879" s="17"/>
     </row>
     <row r="880" spans="3:10">
       <c r="D880" s="3"/>
       <c r="E880" s="21" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F880" s="23"/>
       <c r="G880" s="21" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H880" s="23"/>
     </row>
@@ -47665,13 +47605,13 @@
     <row r="882" spans="4:10">
       <c r="D882" s="3"/>
       <c r="E882" s="67" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="883" spans="4:10">
       <c r="D883" s="3"/>
       <c r="E883" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="884" spans="4:10">
@@ -47680,11 +47620,11 @@
     <row r="885" spans="4:10">
       <c r="D885" s="3"/>
       <c r="E885" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F885" s="14"/>
       <c r="G885" s="13" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H885" s="14"/>
       <c r="I885" s="14"/>
@@ -47693,7 +47633,7 @@
     <row r="886" spans="4:10">
       <c r="D886" s="3"/>
       <c r="E886" s="21" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F886" s="23"/>
       <c r="G886" s="21" t="s">
@@ -47706,11 +47646,11 @@
     <row r="887" spans="4:10">
       <c r="D887" s="3"/>
       <c r="E887" s="16" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F887" s="9"/>
       <c r="G887" s="16" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H887" s="9"/>
       <c r="I887" s="9"/>
@@ -47719,11 +47659,11 @@
     <row r="888" spans="4:10">
       <c r="D888" s="3"/>
       <c r="E888" s="21" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F888" s="23"/>
       <c r="G888" s="21" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H888" s="22"/>
       <c r="I888" s="22"/>
@@ -47732,11 +47672,11 @@
     <row r="889" spans="4:10">
       <c r="D889" s="3"/>
       <c r="E889" s="18" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F889" s="19"/>
       <c r="G889" s="16" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H889" s="9"/>
       <c r="I889" s="9"/>
@@ -47745,11 +47685,11 @@
     <row r="890" spans="4:10">
       <c r="D890" s="3"/>
       <c r="E890" s="21" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F890" s="23"/>
       <c r="G890" s="21" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="H890" s="22"/>
       <c r="I890" s="22"/>
@@ -47760,25 +47700,25 @@
     </row>
     <row r="892" spans="4:10">
       <c r="D892" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="893" spans="4:10">
       <c r="D893" s="3"/>
       <c r="E893" s="67" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="894" spans="4:10">
       <c r="D894" s="3"/>
       <c r="E894" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="895" spans="4:10">
       <c r="D895" s="3"/>
       <c r="E895" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="896" spans="4:10">
@@ -47787,7 +47727,7 @@
     <row r="897" spans="4:5">
       <c r="D897" s="3"/>
       <c r="E897" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="898" spans="4:5">
@@ -47795,221 +47735,221 @@
     </row>
     <row r="899" spans="4:5">
       <c r="D899" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="900" spans="4:5">
       <c r="D900" s="3"/>
       <c r="E900" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="901" spans="4:5">
       <c r="D901" s="3"/>
       <c r="E901" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="902" spans="4:5">
       <c r="D902" s="3"/>
       <c r="E902" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="903" spans="4:5">
       <c r="D903" s="3"/>
       <c r="E903" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="904" spans="4:5">
       <c r="D904" s="3"/>
       <c r="E904" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="905" spans="4:5">
       <c r="D905" s="3"/>
       <c r="E905" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="906" spans="4:5">
       <c r="D906" s="3"/>
       <c r="E906" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="907" spans="4:5">
       <c r="D907" s="3"/>
       <c r="E907" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="908" spans="4:5">
       <c r="D908" s="3"/>
       <c r="E908" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="909" spans="4:5">
       <c r="D909" s="3"/>
       <c r="E909" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="910" spans="4:5">
       <c r="D910" s="3"/>
       <c r="E910" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="911" spans="4:5">
       <c r="E911" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="913" spans="3:8">
       <c r="C913" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="914" spans="3:8">
       <c r="D914" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H914" s="9" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="915" spans="3:8">
       <c r="H915" s="9" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="916" spans="3:8">
       <c r="H916" s="9" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="917" spans="3:8">
       <c r="D917" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="918" spans="3:8">
       <c r="E918" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="919" spans="3:8">
       <c r="D919" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="920" spans="3:8">
       <c r="E920" s="72" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="922" spans="3:8">
       <c r="D922" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="923" spans="3:8">
       <c r="E923" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="924" spans="3:8">
       <c r="E924" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="926" spans="3:8">
       <c r="D926" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="927" spans="3:8">
       <c r="E927" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="928" spans="3:8">
       <c r="E928" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="930" spans="4:8">
       <c r="E930" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="932" spans="4:8">
       <c r="D932" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="933" spans="4:8">
       <c r="D933" s="3"/>
       <c r="E933" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="934" spans="4:8">
       <c r="D934" s="3"/>
       <c r="E934" s="13" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F934" s="15"/>
       <c r="G934" s="13" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H934" s="15"/>
     </row>
     <row r="935" spans="4:8">
       <c r="D935" s="3"/>
       <c r="E935" s="73" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F935" s="23"/>
       <c r="G935" s="21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H935" s="23"/>
     </row>
     <row r="936" spans="4:8">
       <c r="D936" s="3"/>
       <c r="E936" s="74" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F936" s="17"/>
       <c r="G936" s="16" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H936" s="17"/>
     </row>
     <row r="937" spans="4:8">
       <c r="D937" s="3"/>
       <c r="E937" s="73" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="F937" s="23"/>
       <c r="G937" s="21" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H937" s="23"/>
     </row>
     <row r="938" spans="4:8">
       <c r="D938" s="3"/>
       <c r="E938" s="18" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F938" s="20"/>
       <c r="G938" s="18" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H938" s="20"/>
     </row>
@@ -48019,91 +47959,91 @@
     <row r="940" spans="4:8">
       <c r="D940" s="3"/>
       <c r="E940" s="75" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="941" spans="4:8">
       <c r="F941" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="942" spans="4:8">
       <c r="F942" s="72" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="943" spans="4:8">
       <c r="E943" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="944" spans="4:8">
       <c r="F944" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="946" spans="3:6">
       <c r="D946" s="3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="947" spans="3:6">
       <c r="D947" s="3"/>
       <c r="E947" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="948" spans="3:6">
       <c r="D948" s="3"/>
       <c r="F948" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="949" spans="3:6">
       <c r="D949" s="3"/>
       <c r="F949" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="950" spans="3:6">
       <c r="D950" s="3"/>
       <c r="F950" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="951" spans="3:6">
       <c r="D951" s="3"/>
       <c r="E951" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="952" spans="3:6">
       <c r="D952" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="953" spans="3:6">
       <c r="D953" s="3"/>
       <c r="E953" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="954" spans="3:6">
       <c r="D954" s="3"/>
       <c r="E954" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="955" spans="3:6">
       <c r="D955" s="3"/>
       <c r="E955" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="956" spans="3:6">
       <c r="D956" s="3"/>
       <c r="E956" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="957" spans="3:6">
@@ -48111,34 +48051,34 @@
     </row>
     <row r="958" spans="3:6">
       <c r="C958" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D958" s="3"/>
     </row>
     <row r="959" spans="3:6">
       <c r="C959" s="3"/>
       <c r="D959" s="72" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="960" spans="3:6">
       <c r="C960" s="3"/>
       <c r="D960" s="72" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="961" spans="3:6">
       <c r="C961" s="3"/>
       <c r="D961" s="72"/>
       <c r="E961" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="962" spans="3:6">
       <c r="C962" s="3"/>
       <c r="D962" s="72"/>
       <c r="E962" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="963" spans="3:6">
@@ -48149,21 +48089,21 @@
       <c r="C964" s="3"/>
       <c r="D964" s="72"/>
       <c r="E964" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="965" spans="3:6">
       <c r="C965" s="3"/>
       <c r="D965" s="72"/>
       <c r="E965" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="966" spans="3:6">
       <c r="C966" s="3"/>
       <c r="D966" s="72"/>
       <c r="E966" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="967" spans="3:6">
@@ -48174,14 +48114,14 @@
       <c r="C968" s="3"/>
       <c r="D968" s="72"/>
       <c r="E968" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="969" spans="3:6">
       <c r="C969" s="3"/>
       <c r="D969" s="72"/>
       <c r="E969" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="970" spans="3:6">
@@ -48191,42 +48131,42 @@
     <row r="971" spans="3:6">
       <c r="C971" s="3"/>
       <c r="D971" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="972" spans="3:6">
       <c r="C972" s="3"/>
       <c r="D972" s="3"/>
       <c r="E972" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="973" spans="3:6">
       <c r="C973" s="3"/>
       <c r="D973" s="3"/>
       <c r="E973" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="974" spans="3:6">
       <c r="C974" s="3"/>
       <c r="D974" s="3"/>
       <c r="F974" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="975" spans="3:6">
       <c r="C975" s="3"/>
       <c r="D975" s="3"/>
       <c r="E975" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="976" spans="3:6">
       <c r="C976" s="3"/>
       <c r="D976" s="3"/>
       <c r="F976" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="977" spans="3:7">
@@ -48237,31 +48177,31 @@
       <c r="C978" s="3"/>
       <c r="D978" s="72"/>
       <c r="E978" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="979" spans="3:7">
       <c r="D979" s="72"/>
       <c r="F979" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="980" spans="3:7">
       <c r="D980" s="72"/>
       <c r="F980" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="981" spans="3:7">
       <c r="D981" s="72"/>
       <c r="F981" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="982" spans="3:7">
       <c r="D982" s="72"/>
       <c r="F982" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="983" spans="3:7">
@@ -48269,19 +48209,19 @@
     </row>
     <row r="984" spans="3:7">
       <c r="D984" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="985" spans="3:7">
       <c r="D985" s="72"/>
       <c r="E985" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="986" spans="3:7">
       <c r="D986" s="72"/>
       <c r="F986" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="987" spans="3:7">
@@ -48290,13 +48230,13 @@
     <row r="988" spans="3:7">
       <c r="D988" s="72"/>
       <c r="F988" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="989" spans="3:7">
       <c r="D989" s="72"/>
       <c r="F989" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="990" spans="3:7">
@@ -48304,43 +48244,43 @@
     </row>
     <row r="991" spans="3:7">
       <c r="D991" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="992" spans="3:7">
       <c r="D992" s="72"/>
       <c r="E992" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G992" s="3" t="s">
         <v>1873</v>
-      </c>
-      <c r="G992" s="3" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="993" spans="2:7">
       <c r="D993" s="72"/>
       <c r="E993" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G993" t="s">
         <v>1875</v>
-      </c>
-      <c r="G993" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="994" spans="2:7">
       <c r="D994" s="72"/>
       <c r="E994" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G994" t="s">
         <v>1877</v>
-      </c>
-      <c r="G994" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="995" spans="2:7">
       <c r="D995" s="72"/>
       <c r="E995" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G995" t="s">
         <v>1879</v>
-      </c>
-      <c r="G995" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="996" spans="2:7">
@@ -48348,13 +48288,13 @@
     </row>
     <row r="997" spans="2:7">
       <c r="D997" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="998" spans="2:7">
       <c r="D998" s="3"/>
       <c r="E998" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="999" spans="2:7">
@@ -48368,7 +48308,7 @@
     </row>
     <row r="1002" spans="2:7">
       <c r="B1002" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1003" spans="2:7">
@@ -48378,12 +48318,12 @@
     </row>
     <row r="1004" spans="2:7">
       <c r="B1004" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1005" spans="2:7">
       <c r="B1005" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1006" spans="2:7">
@@ -48393,7 +48333,7 @@
     </row>
     <row r="1007" spans="2:7">
       <c r="B1007" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1009" spans="1:10">
@@ -48403,42 +48343,42 @@
     </row>
     <row r="1010" spans="1:10">
       <c r="B1010" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G1010" s="8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1011" spans="1:10">
       <c r="B1011" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1013" spans="1:10">
       <c r="B1013" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G1013" s="8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1014" spans="1:10">
       <c r="B1014" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1014" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="J1014" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1015" spans="1:10">
       <c r="H1015" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J1015" t="s">
         <v>1565</v>
-      </c>
-      <c r="J1015" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="1016" spans="1:10">
@@ -49179,13 +49119,13 @@
     </row>
     <row r="1129" spans="1:13">
       <c r="A1129" s="62" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1130" spans="1:13">
       <c r="A1130" s="62"/>
       <c r="B1130" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1132" spans="1:13">
@@ -49195,7 +49135,7 @@
     </row>
     <row r="1133" spans="1:13">
       <c r="B1133" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1134" spans="1:13">
@@ -49205,169 +49145,169 @@
     </row>
     <row r="1136" spans="1:13">
       <c r="B1136" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1137" spans="2:4">
       <c r="C1137" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1139" spans="2:4">
       <c r="C1139" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1140" spans="2:4">
       <c r="D1140" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1142" spans="2:4">
       <c r="B1142" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1143" spans="2:4">
       <c r="C1143" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1144" spans="2:4">
       <c r="C1144" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1146" spans="2:4">
       <c r="C1146" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1148" spans="2:4">
       <c r="B1148" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1149" spans="2:4">
       <c r="C1149" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1150" spans="2:4">
       <c r="C1150" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1151" spans="2:4">
       <c r="D1151" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1153" spans="2:4">
       <c r="C1153" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1155" spans="2:4">
       <c r="C1155" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1156" spans="2:4">
       <c r="D1156" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1157" spans="2:4">
       <c r="D1157" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1159" spans="2:4">
       <c r="B1159" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1160" spans="2:4">
       <c r="C1160" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1161" spans="2:4">
       <c r="C1161" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1162" spans="2:4">
       <c r="C1162" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1164" spans="2:4">
       <c r="C1164" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1165" spans="2:4">
       <c r="C1165" s="62" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1166" spans="2:4">
       <c r="C1166" s="62" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1167" spans="2:4">
       <c r="C1167" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1168" spans="2:4">
       <c r="C1168" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1169" spans="2:13">
       <c r="C1169" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1171" spans="2:13">
       <c r="C1171" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1172" spans="2:13">
       <c r="D1172" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1174" spans="2:13">
       <c r="C1174" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1176" spans="2:13">
       <c r="B1176" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1177" spans="2:13">
       <c r="C1177" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D1177" s="13" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E1177" s="15"/>
       <c r="F1177" s="13" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G1177" s="14"/>
       <c r="H1177" s="15"/>
       <c r="I1177" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="J1177" s="14"/>
       <c r="K1177" s="14"/>
@@ -49379,16 +49319,16 @@
         <v>1</v>
       </c>
       <c r="D1178" s="16" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E1178" s="17"/>
       <c r="F1178" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G1178" s="9"/>
       <c r="H1178" s="17"/>
       <c r="I1178" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="J1178" s="9"/>
       <c r="K1178" s="9"/>
@@ -49400,16 +49340,16 @@
         <v>2</v>
       </c>
       <c r="D1179" s="16" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E1179" s="17"/>
       <c r="F1179" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G1179" s="9"/>
       <c r="H1179" s="17"/>
       <c r="I1179" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="J1179" s="9"/>
       <c r="K1179" s="9"/>
@@ -49421,16 +49361,16 @@
         <v>3</v>
       </c>
       <c r="D1180" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E1180" s="17"/>
       <c r="F1180" s="29" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G1180" s="9"/>
       <c r="H1180" s="17"/>
       <c r="I1180" s="29" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="J1180" s="9"/>
       <c r="K1180" s="9"/>
@@ -49442,16 +49382,16 @@
         <v>4</v>
       </c>
       <c r="D1181" s="16" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E1181" s="17"/>
       <c r="F1181" s="16" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G1181" s="9"/>
       <c r="H1181" s="17"/>
       <c r="I1181" s="29" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="J1181" s="9"/>
       <c r="K1181" s="9"/>
@@ -49463,16 +49403,16 @@
         <v>5</v>
       </c>
       <c r="D1182" s="18" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E1182" s="20"/>
       <c r="F1182" s="18" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G1182" s="19"/>
       <c r="H1182" s="20"/>
       <c r="I1182" s="18" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="J1182" s="19"/>
       <c r="K1182" s="19"/>
@@ -49481,22 +49421,22 @@
     </row>
     <row r="1185" spans="1:4">
       <c r="B1185" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
       <c r="C1186" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1187" spans="1:4">
       <c r="C1187" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1189" spans="1:4">
       <c r="B1189" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
@@ -49504,7 +49444,7 @@
         <v>1</v>
       </c>
       <c r="C1190" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1191" spans="1:4">
@@ -49512,7 +49452,7 @@
         <v>2</v>
       </c>
       <c r="C1191" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -49520,12 +49460,12 @@
         <v>3</v>
       </c>
       <c r="C1192" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
       <c r="D1193" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -49533,52 +49473,52 @@
         <v>4</v>
       </c>
       <c r="C1194" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1196" spans="1:4">
       <c r="C1196" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1199" spans="1:4">
       <c r="A1199" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1201" spans="2:3">
       <c r="B1201" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1202" spans="2:3">
       <c r="B1202" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1203" spans="2:3">
       <c r="C1203" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1204" spans="2:3">
       <c r="C1204" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1205" spans="2:3">
       <c r="C1205" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1206" spans="2:3">
       <c r="C1206" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1208" spans="2:3">
       <c r="B1208" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1209" spans="2:3">
@@ -49598,115 +49538,115 @@
     </row>
     <row r="1213" spans="2:3">
       <c r="B1213" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1214" spans="2:3">
       <c r="C1214" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1216" spans="2:3">
       <c r="C1216" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1218" spans="2:10">
       <c r="B1218" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1219" spans="2:10">
       <c r="C1219" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1220" spans="2:10">
       <c r="D1220" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1222" spans="2:10">
       <c r="B1222" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1223" spans="2:10">
       <c r="C1223" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1224" spans="2:10">
       <c r="C1224" s="63" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1225" spans="2:10">
       <c r="C1225" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1226" spans="2:10">
       <c r="C1226" s="63" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J1226" t="s">
         <v>1530</v>
-      </c>
-      <c r="J1226" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="1228" spans="2:10">
       <c r="C1228" s="63" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1229" spans="2:10">
       <c r="C1229" s="63" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1230" spans="2:10">
       <c r="C1230" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1232" spans="2:10">
       <c r="B1232" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1234" spans="2:3">
       <c r="C1234" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1235" spans="2:3">
       <c r="C1235" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1236" spans="2:3">
       <c r="C1236" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1237" spans="2:3">
       <c r="C1237" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1238" spans="2:3">
       <c r="C1238" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1239" spans="2:3">
       <c r="C1239" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1240" spans="2:3">
       <c r="C1240" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1241" spans="2:3">
@@ -49716,110 +49656,110 @@
     </row>
     <row r="1243" spans="2:3">
       <c r="C1243" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1245" spans="2:3">
       <c r="B1245" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1246" spans="2:3">
       <c r="C1246" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1247" spans="2:3">
       <c r="C1247" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1249" spans="3:3">
       <c r="C1249" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1250" spans="3:3">
       <c r="C1250" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1251" spans="3:3">
       <c r="C1251" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1252" spans="3:3">
       <c r="C1252" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1253" spans="3:3">
       <c r="C1253" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1254" spans="3:3">
       <c r="C1254" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1255" spans="3:3">
       <c r="C1255" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1256" spans="3:3">
       <c r="C1256" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1257" spans="3:3">
       <c r="C1257" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1258" spans="3:3">
       <c r="C1258" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1259" spans="3:3">
       <c r="C1259" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1260" spans="3:3">
       <c r="C1260" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1261" spans="3:3">
       <c r="C1261" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1262" spans="3:3">
       <c r="C1262" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1263" spans="3:3">
       <c r="C1263" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1264" spans="3:3">
       <c r="C1264" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1267" spans="2:11">
       <c r="B1267" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C1267" s="13" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D1267" s="14"/>
       <c r="E1267" s="15"/>
@@ -49837,12 +49777,12 @@
         <v>1</v>
       </c>
       <c r="C1268" s="16" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D1268" s="9"/>
       <c r="E1268" s="17"/>
       <c r="F1268" s="16" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G1268" s="9"/>
       <c r="H1268" s="9"/>
@@ -49855,12 +49795,12 @@
         <v>2</v>
       </c>
       <c r="C1269" s="16" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D1269" s="9"/>
       <c r="E1269" s="17"/>
       <c r="F1269" s="16" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G1269" s="9"/>
       <c r="H1269" s="9"/>
@@ -49873,12 +49813,12 @@
         <v>3</v>
       </c>
       <c r="C1270" s="16" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D1270" s="9"/>
       <c r="E1270" s="17"/>
       <c r="F1270" s="16" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G1270" s="9"/>
       <c r="H1270" s="9"/>
@@ -49891,12 +49831,12 @@
         <v>4</v>
       </c>
       <c r="C1271" s="18" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D1271" s="19"/>
       <c r="E1271" s="20"/>
       <c r="F1271" s="18" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G1271" s="19"/>
       <c r="H1271" s="19"/>
@@ -49906,17 +49846,17 @@
     </row>
     <row r="1273" spans="2:11">
       <c r="B1273" s="3" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1274" spans="2:11">
       <c r="B1274" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1275" spans="2:11">
       <c r="B1275" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
   </sheetData>

--- a/examsDjangoBasics.xlsx
+++ b/examsDjangoBasics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="1890">
   <si>
     <t>speedApp</t>
   </si>
@@ -33219,13 +33219,31 @@
       </rPr>
       <t>(self):</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;label for="{{ form.title.id_for_label }}"&gt;Title:&lt;/label&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {{ form.title }}</t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {{ form.title.label_tag }}</t>
+  </si>
+  <si>
+    <t>Рендериране на формата - първо label, след това самото поле</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33658,6 +33676,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -33899,7 +33925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -33978,6 +34004,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -43564,10 +43591,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1275"/>
+  <dimension ref="A1:T1283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A1273" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I1279" sqref="I1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49764,7 +49791,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="1267" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1267" s="11" t="s">
         <v>1377</v>
       </c>
@@ -49782,7 +49809,7 @@
       <c r="J1267" s="14"/>
       <c r="K1267" s="15"/>
     </row>
-    <row r="1268" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1268" s="54">
         <v>1</v>
       </c>
@@ -49800,7 +49827,7 @@
       <c r="J1268" s="9"/>
       <c r="K1268" s="17"/>
     </row>
-    <row r="1269" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1269" s="54">
         <v>2</v>
       </c>
@@ -49818,7 +49845,7 @@
       <c r="J1269" s="9"/>
       <c r="K1269" s="17"/>
     </row>
-    <row r="1270" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1270" s="54">
         <v>3</v>
       </c>
@@ -49836,7 +49863,7 @@
       <c r="J1270" s="9"/>
       <c r="K1270" s="17"/>
     </row>
-    <row r="1271" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1271" s="12">
         <v>4</v>
       </c>
@@ -49854,19 +49881,56 @@
       <c r="J1271" s="19"/>
       <c r="K1271" s="20"/>
     </row>
-    <row r="1273" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1273" s="3" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="1274" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1274" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1275" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1275" t="s">
         <v>1552</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1278" s="78" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1280" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1281" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1282" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1283" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>1887</v>
       </c>
     </row>
   </sheetData>
